--- a/analysis/xlsx/topic_network_a_analysis.xlsx
+++ b/analysis/xlsx/topic_network_a_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="13200" windowHeight="4440" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="13200" windowHeight="4440" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="8" r:id="rId1"/>
@@ -12,17 +12,91 @@
     <sheet name="Modularity" sheetId="2" r:id="rId3"/>
     <sheet name="Numbers" sheetId="3" r:id="rId4"/>
     <sheet name="Grants" sheetId="4" r:id="rId5"/>
-    <sheet name="Topics - Current" sheetId="5" r:id="rId6"/>
-    <sheet name="Topics - 2010-2000" sheetId="6" r:id="rId7"/>
-    <sheet name="Topics - 2000-1990" sheetId="7" r:id="rId8"/>
+    <sheet name="Topics" sheetId="9" r:id="rId6"/>
+    <sheet name="Topics - Current" sheetId="5" r:id="rId7"/>
+    <sheet name="Topics - 2010-2000" sheetId="6" r:id="rId8"/>
+    <sheet name="Topics - 2000-1990" sheetId="7" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="nodes" localSheetId="5">Topics!$B$3:$B$225</definedName>
+    <definedName name="nodes_1" localSheetId="5">Topics!$H$2:$H$210</definedName>
+    <definedName name="nodes_2" localSheetId="5">Topics!$I$2:$I$138</definedName>
+    <definedName name="nodes_3" localSheetId="5">Topics!$C$2:$C$210</definedName>
+    <definedName name="nodes_4" localSheetId="5">Topics!$E$3:$E$225</definedName>
+    <definedName name="nodes_5" localSheetId="5">Topics!$F$2:$F$138</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="nodes" type="6" refreshedVersion="3" deleted="1" background="1" saveData="1">
+    <textPr sourceFile="C:\users\sergiutripon\My Documents\MEGA\Programming\PyCharmProjects\msc-thesis-na-epsrc\data\networks\topics\current\network-a\network\tsv\nodes.tsv" qualifier="none">
+      <textFields count="4">
+        <textField type="skip"/>
+        <textField/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="nodes1" type="6" refreshedVersion="3" deleted="1" background="1" saveData="1">
+    <textPr sourceFile="C:\users\sergiutripon\My Documents\MEGA\Programming\PyCharmProjects\msc-thesis-na-epsrc\data\networks\topics\past\2000-2010\network-a\network\tsv\nodes.tsv" qualifier="none">
+      <textFields count="4">
+        <textField type="skip"/>
+        <textField/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="nodes11" type="6" refreshedVersion="3" deleted="1" background="1" saveData="1">
+    <textPr sourceFile="C:\users\sergiutripon\My Documents\MEGA\Programming\PyCharmProjects\msc-thesis-na-epsrc\data\networks\topics\past\2000-2010\network-a\network\tsv\nodes.tsv" qualifier="none">
+      <textFields count="4">
+        <textField type="skip"/>
+        <textField/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="nodes2" type="6" refreshedVersion="3" deleted="1" background="1" saveData="1">
+    <textPr sourceFile="C:\users\sergiutripon\My Documents\MEGA\Programming\PyCharmProjects\msc-thesis-na-epsrc\data\networks\topics\past\1990-2000\network-a\network\tsv\nodes.tsv" qualifier="none">
+      <textFields count="4">
+        <textField type="skip"/>
+        <textField/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="nodes21" type="6" refreshedVersion="3" deleted="1" background="1" saveData="1">
+    <textPr sourceFile="C:\users\sergiutripon\My Documents\MEGA\Programming\PyCharmProjects\msc-thesis-na-epsrc\data\networks\topics\past\1990-2000\network-a\network\tsv\nodes.tsv" qualifier="none">
+      <textFields count="4">
+        <textField type="skip"/>
+        <textField/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="nodes3" type="6" refreshedVersion="3" deleted="1" background="1" saveData="1">
+    <textPr sourceFile="C:\users\sergiutripon\My Documents\MEGA\Programming\PyCharmProjects\msc-thesis-na-epsrc\data\networks\topics\current\network-a\network\tsv\nodes.tsv" qualifier="none">
+      <textFields count="4">
+        <textField type="skip"/>
+        <textField/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5573" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6707" uniqueCount="351">
   <si>
     <t>Nodes</t>
   </si>
@@ -1601,7 +1675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2193,16 +2267,40 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2211,37 +2309,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2271,41 +2366,59 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="82">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -3259,6 +3372,30 @@
 </styleSheet>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nodes_5" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nodes_4" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nodes_3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nodes_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nodes_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nodes" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3612,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4977,7 +5114,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C10" sqref="C10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4997,26 +5134,26 @@
       <c r="B3" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="239" t="s">
+      <c r="C3" s="241" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240" t="s">
+      <c r="D3" s="242"/>
+      <c r="E3" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240" t="s">
+      <c r="F3" s="242"/>
+      <c r="G3" s="242" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240" t="s">
+      <c r="H3" s="242"/>
+      <c r="I3" s="242" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240" t="s">
+      <c r="J3" s="242"/>
+      <c r="K3" s="242" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="240"/>
+      <c r="L3" s="242"/>
       <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13">
@@ -5358,26 +5495,26 @@
       <c r="B16" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="239" t="s">
+      <c r="C16" s="241" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="240" t="s">
+      <c r="D16" s="242"/>
+      <c r="E16" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="240"/>
-      <c r="G16" s="240" t="s">
+      <c r="F16" s="242"/>
+      <c r="G16" s="242" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="240"/>
-      <c r="I16" s="240" t="s">
+      <c r="H16" s="242"/>
+      <c r="I16" s="242" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="240"/>
-      <c r="K16" s="240" t="s">
+      <c r="J16" s="242"/>
+      <c r="K16" s="242" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="240"/>
+      <c r="L16" s="242"/>
       <c r="M16" s="41"/>
     </row>
     <row r="17" spans="1:13">
@@ -5718,26 +5855,26 @@
       <c r="B29" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="239" t="s">
+      <c r="C29" s="241" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="240"/>
-      <c r="E29" s="240" t="s">
+      <c r="D29" s="242"/>
+      <c r="E29" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="240"/>
-      <c r="G29" s="240" t="s">
+      <c r="F29" s="242"/>
+      <c r="G29" s="242" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="240"/>
-      <c r="I29" s="240" t="s">
+      <c r="H29" s="242"/>
+      <c r="I29" s="242" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="240"/>
-      <c r="K29" s="240" t="s">
+      <c r="J29" s="242"/>
+      <c r="K29" s="242" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="240"/>
+      <c r="L29" s="242"/>
       <c r="M29" s="41"/>
     </row>
     <row r="30" spans="1:13">
@@ -6048,21 +6185,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6072,8 +6209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6094,26 +6231,26 @@
       <c r="B3" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="251" t="s">
+      <c r="C3" s="243" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="239"/>
-      <c r="E3" s="252" t="s">
+      <c r="D3" s="241"/>
+      <c r="E3" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="239"/>
-      <c r="G3" s="252" t="s">
+      <c r="F3" s="241"/>
+      <c r="G3" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="239"/>
-      <c r="I3" s="252" t="s">
+      <c r="H3" s="241"/>
+      <c r="I3" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="239"/>
-      <c r="K3" s="240" t="s">
+      <c r="J3" s="241"/>
+      <c r="K3" s="242" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="240"/>
+      <c r="L3" s="242"/>
       <c r="M3" s="100"/>
       <c r="N3" s="41"/>
     </row>
@@ -6121,34 +6258,34 @@
       <c r="B4" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="141">
+      <c r="C4" s="157">
         <v>6</v>
       </c>
-      <c r="D4" s="158">
+      <c r="D4" s="156">
         <v>0.35499999999999998</v>
       </c>
-      <c r="E4" s="141">
+      <c r="E4" s="157">
         <v>8</v>
       </c>
-      <c r="F4" s="158">
+      <c r="F4" s="156">
         <v>0.48899999999999999</v>
       </c>
-      <c r="G4" s="141">
+      <c r="G4" s="157">
         <v>8</v>
       </c>
-      <c r="H4" s="158">
+      <c r="H4" s="156">
         <v>0.50700000000000001</v>
       </c>
-      <c r="I4" s="141">
+      <c r="I4" s="157">
         <v>5</v>
       </c>
-      <c r="J4" s="158">
+      <c r="J4" s="156">
         <v>0.375</v>
       </c>
-      <c r="K4" s="141">
+      <c r="K4" s="157">
         <v>5</v>
       </c>
-      <c r="L4" s="161">
+      <c r="L4" s="159">
         <v>0.39200000000000002</v>
       </c>
       <c r="M4" s="100"/>
@@ -6158,34 +6295,34 @@
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="157">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="156">
         <v>0.34699999999999998</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="157">
         <v>7</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="156">
         <v>0.49</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="157">
         <v>6</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="156">
         <v>0.501</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="157">
         <v>6</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="156">
         <v>0.373</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="157">
         <v>6</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="159">
         <v>0.38500000000000001</v>
       </c>
       <c r="M5" s="100"/>
@@ -6195,34 +6332,34 @@
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="157">
         <v>5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="156">
         <v>0.314</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="157">
         <v>6</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="156">
         <v>0.48399999999999999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="157">
         <v>6</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="156">
         <v>0.497</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="157">
         <v>4</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="156">
         <v>0.35899999999999999</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="157">
         <v>5</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="159">
         <v>0.36899999999999999</v>
       </c>
       <c r="M6" s="100"/>
@@ -6233,10 +6370,10 @@
       <c r="N7" s="41"/>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B8" s="243" t="s">
+      <c r="B8" s="251" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="244"/>
+      <c r="C8" s="252"/>
       <c r="D8" s="231" t="s">
         <v>35</v>
       </c>
@@ -6265,7 +6402,7 @@
       <c r="N8" s="41"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="245" t="s">
+      <c r="B9" s="249" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -6299,7 +6436,7 @@
       <c r="N9" s="41"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="245"/>
+      <c r="B10" s="249"/>
       <c r="C10" s="18" t="s">
         <v>30</v>
       </c>
@@ -6331,7 +6468,7 @@
       <c r="N10" s="41"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B11" s="246"/>
+      <c r="B11" s="250"/>
       <c r="C11" s="21" t="s">
         <v>34</v>
       </c>
@@ -6363,7 +6500,7 @@
       <c r="N11" s="41"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="247" t="s">
+      <c r="B12" s="248" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -6397,7 +6534,7 @@
       <c r="N12" s="41"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="245"/>
+      <c r="B13" s="249"/>
       <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
@@ -6429,7 +6566,7 @@
       <c r="N13" s="41"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B14" s="246"/>
+      <c r="B14" s="250"/>
       <c r="C14" s="21" t="s">
         <v>34</v>
       </c>
@@ -6461,7 +6598,7 @@
       <c r="N14" s="41"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="248" t="s">
+      <c r="B15" s="245" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -6495,7 +6632,7 @@
       <c r="N15" s="41"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="242"/>
+      <c r="B16" s="246"/>
       <c r="C16" s="18" t="s">
         <v>30</v>
       </c>
@@ -6527,7 +6664,7 @@
       <c r="N16" s="41"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B17" s="249"/>
+      <c r="B17" s="247"/>
       <c r="C17" s="21" t="s">
         <v>34</v>
       </c>
@@ -6559,7 +6696,7 @@
       <c r="N17" s="41"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="B18" s="248" t="s">
+      <c r="B18" s="245" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -6593,7 +6730,7 @@
       <c r="N18" s="41"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="B19" s="242"/>
+      <c r="B19" s="246"/>
       <c r="C19" s="18" t="s">
         <v>30</v>
       </c>
@@ -6625,7 +6762,7 @@
       <c r="N19" s="41"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B20" s="249"/>
+      <c r="B20" s="247"/>
       <c r="C20" s="21" t="s">
         <v>34</v>
       </c>
@@ -6657,7 +6794,7 @@
       <c r="N20" s="41"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="B21" s="241" t="s">
+      <c r="B21" s="253" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="20" t="s">
@@ -6691,7 +6828,7 @@
       <c r="N21" s="41"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="B22" s="242"/>
+      <c r="B22" s="246"/>
       <c r="C22" s="18" t="s">
         <v>30</v>
       </c>
@@ -6723,7 +6860,7 @@
       <c r="N22" s="41"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="B23" s="242"/>
+      <c r="B23" s="246"/>
       <c r="C23" s="18" t="s">
         <v>34</v>
       </c>
@@ -6796,26 +6933,26 @@
       <c r="B28" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="250" t="s">
+      <c r="C28" s="254" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="239"/>
-      <c r="E28" s="252" t="s">
+      <c r="D28" s="241"/>
+      <c r="E28" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="239"/>
-      <c r="G28" s="252" t="s">
+      <c r="F28" s="241"/>
+      <c r="G28" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="239"/>
-      <c r="I28" s="252" t="s">
+      <c r="H28" s="241"/>
+      <c r="I28" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="239"/>
-      <c r="K28" s="240" t="s">
+      <c r="J28" s="241"/>
+      <c r="K28" s="242" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="240"/>
+      <c r="L28" s="242"/>
       <c r="M28" s="100"/>
       <c r="N28" s="41"/>
     </row>
@@ -6860,35 +6997,35 @@
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="157">
         <v>5</v>
       </c>
-      <c r="D30" s="6">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D30" s="156">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E30" s="157">
         <v>7</v>
       </c>
-      <c r="F30" s="6">
-        <v>0.49</v>
-      </c>
-      <c r="G30" s="7">
-        <v>6</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.501</v>
-      </c>
-      <c r="I30" s="7">
-        <v>6</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0.373</v>
-      </c>
-      <c r="K30" s="7">
-        <v>6</v>
-      </c>
-      <c r="L30" s="12">
-        <v>0.38500000000000001</v>
+      <c r="F30" s="156">
+        <v>0.436</v>
+      </c>
+      <c r="G30" s="157">
+        <v>7</v>
+      </c>
+      <c r="H30" s="156">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I30" s="157">
+        <v>5</v>
+      </c>
+      <c r="J30" s="156">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="K30" s="157">
+        <v>5</v>
+      </c>
+      <c r="L30" s="159">
+        <v>0.27900000000000003</v>
       </c>
       <c r="M30" s="100"/>
       <c r="N30" s="41"/>
@@ -6897,35 +7034,35 @@
       <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="157">
         <v>5</v>
       </c>
-      <c r="D31" s="6">
-        <v>0.314</v>
-      </c>
-      <c r="E31" s="7">
-        <v>6</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="G31" s="7">
-        <v>6</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0.497</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="K31" s="7">
+      <c r="D31" s="156">
+        <v>0.222</v>
+      </c>
+      <c r="E31" s="157">
         <v>5</v>
       </c>
-      <c r="L31" s="12">
-        <v>0.36899999999999999</v>
+      <c r="F31" s="156">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G31" s="157">
+        <v>7</v>
+      </c>
+      <c r="H31" s="156">
+        <v>0.495</v>
+      </c>
+      <c r="I31" s="157">
+        <v>5</v>
+      </c>
+      <c r="J31" s="156">
+        <v>0.251</v>
+      </c>
+      <c r="K31" s="157">
+        <v>5</v>
+      </c>
+      <c r="L31" s="159">
+        <v>0.26200000000000001</v>
       </c>
       <c r="M31" s="100"/>
       <c r="N31" s="41"/>
@@ -6935,10 +7072,10 @@
       <c r="N32" s="41"/>
     </row>
     <row r="33" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B33" s="243" t="s">
+      <c r="B33" s="251" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="244"/>
+      <c r="C33" s="252"/>
       <c r="D33" s="229" t="s">
         <v>35</v>
       </c>
@@ -6967,7 +7104,7 @@
       <c r="N33" s="41"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="245" t="s">
+      <c r="B34" s="249" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="20" t="s">
@@ -7001,7 +7138,7 @@
       <c r="N34" s="41"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="245"/>
+      <c r="B35" s="249"/>
       <c r="C35" s="18" t="s">
         <v>30</v>
       </c>
@@ -7033,7 +7170,7 @@
       <c r="N35" s="41"/>
     </row>
     <row r="36" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B36" s="246"/>
+      <c r="B36" s="250"/>
       <c r="C36" s="21" t="s">
         <v>34</v>
       </c>
@@ -7065,7 +7202,7 @@
       <c r="N36" s="41"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="247" t="s">
+      <c r="B37" s="248" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="22" t="s">
@@ -7099,7 +7236,7 @@
       <c r="N37" s="41"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="245"/>
+      <c r="B38" s="249"/>
       <c r="C38" s="18" t="s">
         <v>30</v>
       </c>
@@ -7131,7 +7268,7 @@
       <c r="N38" s="41"/>
     </row>
     <row r="39" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B39" s="246"/>
+      <c r="B39" s="250"/>
       <c r="C39" s="21" t="s">
         <v>34</v>
       </c>
@@ -7163,7 +7300,7 @@
       <c r="N39" s="41"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="248" t="s">
+      <c r="B40" s="245" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="22" t="s">
@@ -7197,7 +7334,7 @@
       <c r="N40" s="41"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="242"/>
+      <c r="B41" s="246"/>
       <c r="C41" s="18" t="s">
         <v>30</v>
       </c>
@@ -7229,7 +7366,7 @@
       <c r="N41" s="41"/>
     </row>
     <row r="42" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B42" s="249"/>
+      <c r="B42" s="247"/>
       <c r="C42" s="21" t="s">
         <v>34</v>
       </c>
@@ -7261,7 +7398,7 @@
       <c r="N42" s="41"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="248" t="s">
+      <c r="B43" s="245" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="22" t="s">
@@ -7295,7 +7432,7 @@
       <c r="N43" s="41"/>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="242"/>
+      <c r="B44" s="246"/>
       <c r="C44" s="18" t="s">
         <v>30</v>
       </c>
@@ -7327,7 +7464,7 @@
       <c r="N44" s="41"/>
     </row>
     <row r="45" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B45" s="249"/>
+      <c r="B45" s="247"/>
       <c r="C45" s="21" t="s">
         <v>34</v>
       </c>
@@ -7359,7 +7496,7 @@
       <c r="N45" s="41"/>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="241" t="s">
+      <c r="B46" s="253" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="20" t="s">
@@ -7393,7 +7530,7 @@
       <c r="N46" s="41"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="242"/>
+      <c r="B47" s="246"/>
       <c r="C47" s="18" t="s">
         <v>30</v>
       </c>
@@ -7425,7 +7562,7 @@
       <c r="N47" s="41"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="242"/>
+      <c r="B48" s="246"/>
       <c r="C48" s="18" t="s">
         <v>34</v>
       </c>
@@ -7500,26 +7637,26 @@
       <c r="B53" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="251" t="s">
+      <c r="C53" s="243" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="239"/>
-      <c r="E53" s="252" t="s">
+      <c r="D53" s="241"/>
+      <c r="E53" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="239"/>
-      <c r="G53" s="252" t="s">
+      <c r="F53" s="241"/>
+      <c r="G53" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="239"/>
-      <c r="I53" s="252" t="s">
+      <c r="H53" s="241"/>
+      <c r="I53" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="J53" s="239"/>
-      <c r="K53" s="240" t="s">
+      <c r="J53" s="241"/>
+      <c r="K53" s="242" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="240"/>
+      <c r="L53" s="242"/>
       <c r="M53" s="100"/>
       <c r="N53" s="41"/>
     </row>
@@ -7527,34 +7664,34 @@
       <c r="B54" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="141">
+      <c r="C54" s="157">
         <v>7</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="156">
         <v>0.39600000000000002</v>
       </c>
-      <c r="E54" s="141">
+      <c r="E54" s="157">
         <v>10</v>
       </c>
-      <c r="F54" s="158">
+      <c r="F54" s="156">
         <v>0.45600000000000002</v>
       </c>
-      <c r="G54" s="141">
+      <c r="G54" s="157">
         <v>8</v>
       </c>
-      <c r="H54" s="158">
+      <c r="H54" s="156">
         <v>0.39500000000000002</v>
       </c>
-      <c r="I54" s="141">
+      <c r="I54" s="157">
         <v>6</v>
       </c>
-      <c r="J54" s="158">
+      <c r="J54" s="156">
         <v>0.41</v>
       </c>
-      <c r="K54" s="141">
+      <c r="K54" s="157">
         <v>7</v>
       </c>
-      <c r="L54" s="161">
+      <c r="L54" s="159">
         <v>0.42599999999999999</v>
       </c>
       <c r="M54" s="100"/>
@@ -7564,34 +7701,34 @@
       <c r="B55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="157">
         <v>7</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="156">
         <v>0.38700000000000001</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="157">
         <v>6</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="156">
         <v>0.46100000000000002</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="157">
         <v>7</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="156">
         <v>0.39400000000000002</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="157">
         <v>5</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="156">
         <v>0.4</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="157">
         <v>6</v>
       </c>
-      <c r="L55" s="12">
+      <c r="L55" s="159">
         <v>0.42399999999999999</v>
       </c>
       <c r="M55" s="100"/>
@@ -7601,34 +7738,34 @@
       <c r="B56" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="157">
         <v>6</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="156">
         <v>0.377</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="157">
         <v>6</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="156">
         <v>0.46500000000000002</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="157">
         <v>7</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="156">
         <v>0.39400000000000002</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="157">
         <v>6</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="156">
         <v>0.40699999999999997</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="157">
         <v>5</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="159">
         <v>0.41399999999999998</v>
       </c>
       <c r="M56" s="100"/>
@@ -7639,10 +7776,10 @@
       <c r="N57" s="41"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B58" s="243" t="s">
+      <c r="B58" s="251" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="244"/>
+      <c r="C58" s="252"/>
       <c r="D58" s="229" t="s">
         <v>35</v>
       </c>
@@ -7676,7 +7813,7 @@
       <c r="N58" s="41"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="B59" s="245" t="s">
+      <c r="B59" s="249" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="20" t="s">
@@ -7715,7 +7852,7 @@
       <c r="N59" s="41"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="B60" s="245"/>
+      <c r="B60" s="249"/>
       <c r="C60" s="18" t="s">
         <v>30</v>
       </c>
@@ -7752,7 +7889,7 @@
       <c r="N60" s="41"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B61" s="246"/>
+      <c r="B61" s="250"/>
       <c r="C61" s="21" t="s">
         <v>34</v>
       </c>
@@ -7789,7 +7926,7 @@
       <c r="N61" s="41"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="B62" s="247" t="s">
+      <c r="B62" s="248" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="22" t="s">
@@ -7828,7 +7965,7 @@
       <c r="N62" s="41"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="B63" s="245"/>
+      <c r="B63" s="249"/>
       <c r="C63" s="18" t="s">
         <v>30</v>
       </c>
@@ -7865,7 +8002,7 @@
       <c r="N63" s="41"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B64" s="246"/>
+      <c r="B64" s="250"/>
       <c r="C64" s="21" t="s">
         <v>34</v>
       </c>
@@ -7902,7 +8039,7 @@
       <c r="N64" s="41"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="B65" s="248" t="s">
+      <c r="B65" s="245" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="22" t="s">
@@ -7941,7 +8078,7 @@
       <c r="N65" s="41"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="B66" s="242"/>
+      <c r="B66" s="246"/>
       <c r="C66" s="18" t="s">
         <v>30</v>
       </c>
@@ -7978,7 +8115,7 @@
       <c r="N66" s="41"/>
     </row>
     <row r="67" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B67" s="249"/>
+      <c r="B67" s="247"/>
       <c r="C67" s="21" t="s">
         <v>34</v>
       </c>
@@ -8015,7 +8152,7 @@
       <c r="N67" s="41"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="B68" s="248" t="s">
+      <c r="B68" s="245" t="s">
         <v>26</v>
       </c>
       <c r="C68" s="22" t="s">
@@ -8054,7 +8191,7 @@
       <c r="N68" s="41"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="B69" s="242"/>
+      <c r="B69" s="246"/>
       <c r="C69" s="18" t="s">
         <v>30</v>
       </c>
@@ -8091,7 +8228,7 @@
       <c r="N69" s="41"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B70" s="249"/>
+      <c r="B70" s="247"/>
       <c r="C70" s="21" t="s">
         <v>34</v>
       </c>
@@ -8128,7 +8265,7 @@
       <c r="N70" s="41"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="B71" s="241" t="s">
+      <c r="B71" s="253" t="s">
         <v>27</v>
       </c>
       <c r="C71" s="20" t="s">
@@ -8167,7 +8304,7 @@
       <c r="N71" s="41"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="B72" s="242"/>
+      <c r="B72" s="246"/>
       <c r="C72" s="18" t="s">
         <v>30</v>
       </c>
@@ -8204,7 +8341,7 @@
       <c r="N72" s="41"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="B73" s="242"/>
+      <c r="B73" s="246"/>
       <c r="C73" s="18" t="s">
         <v>34</v>
       </c>
@@ -8262,11 +8399,25 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E53:F53"/>
@@ -8276,25 +8427,11 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8305,8 +8442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8335,42 +8472,42 @@
       <c r="X2" s="41"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="251" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="244"/>
-      <c r="D3" s="250" t="s">
+      <c r="C3" s="252"/>
+      <c r="D3" s="254" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="239"/>
-      <c r="F3" s="252" t="s">
+      <c r="E3" s="241"/>
+      <c r="F3" s="244" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="239"/>
-      <c r="H3" s="252" t="s">
+      <c r="G3" s="241"/>
+      <c r="H3" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="239"/>
-      <c r="J3" s="252" t="s">
+      <c r="I3" s="241"/>
+      <c r="J3" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="239"/>
-      <c r="L3" s="252" t="s">
+      <c r="K3" s="241"/>
+      <c r="L3" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="239"/>
-      <c r="N3" s="268" t="s">
+      <c r="M3" s="241"/>
+      <c r="N3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="269"/>
-      <c r="P3" s="268" t="s">
+      <c r="O3" s="257"/>
+      <c r="P3" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="269"/>
-      <c r="R3" s="253" t="s">
+      <c r="Q3" s="257"/>
+      <c r="R3" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="253"/>
+      <c r="S3" s="255"/>
       <c r="T3" s="146"/>
       <c r="U3" s="146"/>
       <c r="V3" s="146"/>
@@ -8378,7 +8515,7 @@
       <c r="X3" s="41"/>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="265" t="s">
+      <c r="B4" s="260" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="83" t="s">
@@ -8439,7 +8576,7 @@
       <c r="X4" s="41"/>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="266"/>
+      <c r="B5" s="261"/>
       <c r="C5" s="31" t="s">
         <v>30</v>
       </c>
@@ -8498,7 +8635,7 @@
       <c r="X5" s="41"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B6" s="267"/>
+      <c r="B6" s="262"/>
       <c r="C6" s="35" t="s">
         <v>34</v>
       </c>
@@ -8557,7 +8694,7 @@
       <c r="X6" s="41"/>
     </row>
     <row r="7" spans="2:24">
-      <c r="B7" s="256" t="s">
+      <c r="B7" s="263" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -8618,7 +8755,7 @@
       <c r="X7" s="41"/>
     </row>
     <row r="8" spans="2:24">
-      <c r="B8" s="257"/>
+      <c r="B8" s="264"/>
       <c r="C8" s="46" t="s">
         <v>30</v>
       </c>
@@ -8677,7 +8814,7 @@
       <c r="X8" s="41"/>
     </row>
     <row r="9" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B9" s="258"/>
+      <c r="B9" s="265"/>
       <c r="C9" s="47" t="s">
         <v>34</v>
       </c>
@@ -8736,7 +8873,7 @@
       <c r="X9" s="41"/>
     </row>
     <row r="10" spans="2:24">
-      <c r="B10" s="259" t="s">
+      <c r="B10" s="266" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="50" t="s">
@@ -8797,7 +8934,7 @@
       <c r="X10" s="41"/>
     </row>
     <row r="11" spans="2:24">
-      <c r="B11" s="260"/>
+      <c r="B11" s="267"/>
       <c r="C11" s="53" t="s">
         <v>30</v>
       </c>
@@ -8856,7 +8993,7 @@
       <c r="X11" s="41"/>
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B12" s="261"/>
+      <c r="B12" s="268"/>
       <c r="C12" s="54" t="s">
         <v>34</v>
       </c>
@@ -8915,7 +9052,7 @@
       <c r="X12" s="41"/>
     </row>
     <row r="13" spans="2:24">
-      <c r="B13" s="262" t="s">
+      <c r="B13" s="269" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -8976,7 +9113,7 @@
       <c r="X13" s="41"/>
     </row>
     <row r="14" spans="2:24">
-      <c r="B14" s="263"/>
+      <c r="B14" s="270"/>
       <c r="C14" s="58" t="s">
         <v>30</v>
       </c>
@@ -9035,7 +9172,7 @@
       <c r="X14" s="41"/>
     </row>
     <row r="15" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B15" s="264"/>
+      <c r="B15" s="271"/>
       <c r="C15" s="59" t="s">
         <v>34</v>
       </c>
@@ -9094,7 +9231,7 @@
       <c r="X15" s="41"/>
     </row>
     <row r="16" spans="2:24">
-      <c r="B16" s="254" t="s">
+      <c r="B16" s="272" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="79" t="s">
@@ -9155,7 +9292,7 @@
       <c r="X16" s="41"/>
     </row>
     <row r="17" spans="2:24">
-      <c r="B17" s="255"/>
+      <c r="B17" s="273"/>
       <c r="C17" s="66" t="s">
         <v>30</v>
       </c>
@@ -9214,7 +9351,7 @@
       <c r="X17" s="41"/>
     </row>
     <row r="18" spans="2:24">
-      <c r="B18" s="255"/>
+      <c r="B18" s="273"/>
       <c r="C18" s="66" t="s">
         <v>34</v>
       </c>
@@ -9276,10 +9413,10 @@
       <c r="X19" s="41"/>
     </row>
     <row r="20" spans="2:24" ht="30.75" thickBot="1">
-      <c r="B20" s="270" t="s">
+      <c r="B20" s="258" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="272"/>
+      <c r="C20" s="259"/>
       <c r="D20" s="233" t="s">
         <v>343</v>
       </c>
@@ -9308,7 +9445,7 @@
       <c r="X20" s="41"/>
     </row>
     <row r="21" spans="2:24">
-      <c r="B21" s="265" t="s">
+      <c r="B21" s="260" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="83" t="s">
@@ -9345,7 +9482,7 @@
       <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="266"/>
+      <c r="B22" s="261"/>
       <c r="C22" s="31" t="s">
         <v>30</v>
       </c>
@@ -9380,7 +9517,7 @@
       <c r="X22" s="41"/>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B23" s="267"/>
+      <c r="B23" s="262"/>
       <c r="C23" s="35" t="s">
         <v>34</v>
       </c>
@@ -9415,7 +9552,7 @@
       <c r="X23" s="41"/>
     </row>
     <row r="24" spans="2:24">
-      <c r="B24" s="256" t="s">
+      <c r="B24" s="263" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -9452,7 +9589,7 @@
       <c r="X24" s="41"/>
     </row>
     <row r="25" spans="2:24">
-      <c r="B25" s="257"/>
+      <c r="B25" s="264"/>
       <c r="C25" s="46" t="s">
         <v>30</v>
       </c>
@@ -9487,7 +9624,7 @@
       <c r="X25" s="41"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B26" s="258"/>
+      <c r="B26" s="265"/>
       <c r="C26" s="47" t="s">
         <v>34</v>
       </c>
@@ -9522,7 +9659,7 @@
       <c r="X26" s="41"/>
     </row>
     <row r="27" spans="2:24">
-      <c r="B27" s="259" t="s">
+      <c r="B27" s="266" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="50" t="s">
@@ -9559,7 +9696,7 @@
       <c r="X27" s="41"/>
     </row>
     <row r="28" spans="2:24">
-      <c r="B28" s="260"/>
+      <c r="B28" s="267"/>
       <c r="C28" s="53" t="s">
         <v>30</v>
       </c>
@@ -9594,7 +9731,7 @@
       <c r="X28" s="41"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B29" s="261"/>
+      <c r="B29" s="268"/>
       <c r="C29" s="54" t="s">
         <v>34</v>
       </c>
@@ -9629,7 +9766,7 @@
       <c r="X29" s="41"/>
     </row>
     <row r="30" spans="2:24">
-      <c r="B30" s="262" t="s">
+      <c r="B30" s="269" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="57" t="s">
@@ -9666,7 +9803,7 @@
       <c r="X30" s="41"/>
     </row>
     <row r="31" spans="2:24">
-      <c r="B31" s="263"/>
+      <c r="B31" s="270"/>
       <c r="C31" s="58" t="s">
         <v>30</v>
       </c>
@@ -9701,7 +9838,7 @@
       <c r="X31" s="41"/>
     </row>
     <row r="32" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B32" s="264"/>
+      <c r="B32" s="271"/>
       <c r="C32" s="59" t="s">
         <v>34</v>
       </c>
@@ -9736,7 +9873,7 @@
       <c r="X32" s="41"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="B33" s="254" t="s">
+      <c r="B33" s="272" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="62" t="s">
@@ -9773,7 +9910,7 @@
       <c r="X33" s="41"/>
     </row>
     <row r="34" spans="1:24">
-      <c r="B34" s="255"/>
+      <c r="B34" s="273"/>
       <c r="C34" s="66" t="s">
         <v>30</v>
       </c>
@@ -9808,7 +9945,7 @@
       <c r="X34" s="41"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="B35" s="255"/>
+      <c r="B35" s="273"/>
       <c r="C35" s="66" t="s">
         <v>34</v>
       </c>
@@ -9826,7 +9963,7 @@
       <c r="G35" s="197">
         <v>3538200889</v>
       </c>
-      <c r="H35" s="274">
+      <c r="H35" s="239">
         <v>3103</v>
       </c>
       <c r="I35" s="193">
@@ -9901,42 +10038,42 @@
       <c r="X39" s="41"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B40" s="243" t="s">
+      <c r="B40" s="251" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="244"/>
-      <c r="D40" s="250" t="s">
+      <c r="C40" s="252"/>
+      <c r="D40" s="254" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="239"/>
-      <c r="F40" s="252" t="s">
+      <c r="E40" s="241"/>
+      <c r="F40" s="244" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="239"/>
-      <c r="H40" s="252" t="s">
+      <c r="G40" s="241"/>
+      <c r="H40" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="239"/>
-      <c r="J40" s="252" t="s">
+      <c r="I40" s="241"/>
+      <c r="J40" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="K40" s="239"/>
-      <c r="L40" s="252" t="s">
+      <c r="K40" s="241"/>
+      <c r="L40" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="M40" s="239"/>
-      <c r="N40" s="268" t="s">
+      <c r="M40" s="241"/>
+      <c r="N40" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="269"/>
-      <c r="P40" s="268" t="s">
+      <c r="O40" s="257"/>
+      <c r="P40" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="Q40" s="269"/>
-      <c r="R40" s="253" t="s">
+      <c r="Q40" s="257"/>
+      <c r="R40" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="S40" s="253"/>
+      <c r="S40" s="255"/>
       <c r="T40" s="146"/>
       <c r="U40" s="146"/>
       <c r="V40" s="146"/>
@@ -9944,7 +10081,7 @@
       <c r="X40" s="41"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="B41" s="265" t="s">
+      <c r="B41" s="260" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="83" t="s">
@@ -10005,7 +10142,7 @@
       <c r="X41" s="41"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="B42" s="266"/>
+      <c r="B42" s="261"/>
       <c r="C42" s="31" t="s">
         <v>30</v>
       </c>
@@ -10064,7 +10201,7 @@
       <c r="X42" s="41"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B43" s="267"/>
+      <c r="B43" s="262"/>
       <c r="C43" s="35" t="s">
         <v>34</v>
       </c>
@@ -10123,7 +10260,7 @@
       <c r="X43" s="41"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="B44" s="256" t="s">
+      <c r="B44" s="263" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="43" t="s">
@@ -10184,7 +10321,7 @@
       <c r="X44" s="41"/>
     </row>
     <row r="45" spans="1:24">
-      <c r="B45" s="257"/>
+      <c r="B45" s="264"/>
       <c r="C45" s="46" t="s">
         <v>30</v>
       </c>
@@ -10243,7 +10380,7 @@
       <c r="X45" s="41"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B46" s="258"/>
+      <c r="B46" s="265"/>
       <c r="C46" s="47" t="s">
         <v>34</v>
       </c>
@@ -10302,7 +10439,7 @@
       <c r="X46" s="41"/>
     </row>
     <row r="47" spans="1:24">
-      <c r="B47" s="259" t="s">
+      <c r="B47" s="266" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="50" t="s">
@@ -10363,7 +10500,7 @@
       <c r="X47" s="41"/>
     </row>
     <row r="48" spans="1:24">
-      <c r="B48" s="260"/>
+      <c r="B48" s="267"/>
       <c r="C48" s="53" t="s">
         <v>30</v>
       </c>
@@ -10422,7 +10559,7 @@
       <c r="X48" s="41"/>
     </row>
     <row r="49" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B49" s="261"/>
+      <c r="B49" s="268"/>
       <c r="C49" s="54" t="s">
         <v>34</v>
       </c>
@@ -10481,7 +10618,7 @@
       <c r="X49" s="41"/>
     </row>
     <row r="50" spans="2:24">
-      <c r="B50" s="262" t="s">
+      <c r="B50" s="269" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="57" t="s">
@@ -10542,7 +10679,7 @@
       <c r="X50" s="41"/>
     </row>
     <row r="51" spans="2:24">
-      <c r="B51" s="263"/>
+      <c r="B51" s="270"/>
       <c r="C51" s="58" t="s">
         <v>30</v>
       </c>
@@ -10601,7 +10738,7 @@
       <c r="X51" s="41"/>
     </row>
     <row r="52" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B52" s="264"/>
+      <c r="B52" s="271"/>
       <c r="C52" s="59" t="s">
         <v>34</v>
       </c>
@@ -10660,7 +10797,7 @@
       <c r="X52" s="41"/>
     </row>
     <row r="53" spans="2:24">
-      <c r="B53" s="254" t="s">
+      <c r="B53" s="272" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="79" t="s">
@@ -10721,7 +10858,7 @@
       <c r="X53" s="41"/>
     </row>
     <row r="54" spans="2:24">
-      <c r="B54" s="255"/>
+      <c r="B54" s="273"/>
       <c r="C54" s="66" t="s">
         <v>30</v>
       </c>
@@ -10780,7 +10917,7 @@
       <c r="X54" s="41"/>
     </row>
     <row r="55" spans="2:24">
-      <c r="B55" s="255"/>
+      <c r="B55" s="273"/>
       <c r="C55" s="66" t="s">
         <v>34</v>
       </c>
@@ -10842,10 +10979,10 @@
       <c r="X56" s="41"/>
     </row>
     <row r="57" spans="2:24" ht="30.75" thickBot="1">
-      <c r="B57" s="270" t="s">
+      <c r="B57" s="258" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="271"/>
+      <c r="C57" s="274"/>
       <c r="D57" s="233" t="s">
         <v>343</v>
       </c>
@@ -10873,7 +11010,7 @@
       <c r="X57" s="41"/>
     </row>
     <row r="58" spans="2:24">
-      <c r="B58" s="265" t="s">
+      <c r="B58" s="260" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="83" t="s">
@@ -10906,7 +11043,7 @@
       <c r="X58" s="41"/>
     </row>
     <row r="59" spans="2:24">
-      <c r="B59" s="266"/>
+      <c r="B59" s="261"/>
       <c r="C59" s="31" t="s">
         <v>30</v>
       </c>
@@ -10941,7 +11078,7 @@
       <c r="X59" s="41"/>
     </row>
     <row r="60" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B60" s="267"/>
+      <c r="B60" s="262"/>
       <c r="C60" s="35" t="s">
         <v>34</v>
       </c>
@@ -10976,7 +11113,7 @@
       <c r="X60" s="41"/>
     </row>
     <row r="61" spans="2:24">
-      <c r="B61" s="256" t="s">
+      <c r="B61" s="263" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="43" t="s">
@@ -11009,7 +11146,7 @@
       <c r="X61" s="41"/>
     </row>
     <row r="62" spans="2:24">
-      <c r="B62" s="257"/>
+      <c r="B62" s="264"/>
       <c r="C62" s="46" t="s">
         <v>30</v>
       </c>
@@ -11044,7 +11181,7 @@
       <c r="X62" s="41"/>
     </row>
     <row r="63" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B63" s="258"/>
+      <c r="B63" s="265"/>
       <c r="C63" s="47" t="s">
         <v>34</v>
       </c>
@@ -11079,7 +11216,7 @@
       <c r="X63" s="41"/>
     </row>
     <row r="64" spans="2:24">
-      <c r="B64" s="259" t="s">
+      <c r="B64" s="266" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="50" t="s">
@@ -11112,7 +11249,7 @@
       <c r="X64" s="41"/>
     </row>
     <row r="65" spans="1:24">
-      <c r="B65" s="260"/>
+      <c r="B65" s="267"/>
       <c r="C65" s="53" t="s">
         <v>30</v>
       </c>
@@ -11147,7 +11284,7 @@
       <c r="X65" s="41"/>
     </row>
     <row r="66" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B66" s="261"/>
+      <c r="B66" s="268"/>
       <c r="C66" s="54" t="s">
         <v>34</v>
       </c>
@@ -11182,7 +11319,7 @@
       <c r="X66" s="41"/>
     </row>
     <row r="67" spans="1:24">
-      <c r="B67" s="262" t="s">
+      <c r="B67" s="269" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="57" t="s">
@@ -11215,7 +11352,7 @@
       <c r="X67" s="41"/>
     </row>
     <row r="68" spans="1:24">
-      <c r="B68" s="263"/>
+      <c r="B68" s="270"/>
       <c r="C68" s="58" t="s">
         <v>30</v>
       </c>
@@ -11250,7 +11387,7 @@
       <c r="X68" s="41"/>
     </row>
     <row r="69" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B69" s="264"/>
+      <c r="B69" s="271"/>
       <c r="C69" s="59" t="s">
         <v>34</v>
       </c>
@@ -11285,7 +11422,7 @@
       <c r="X69" s="41"/>
     </row>
     <row r="70" spans="1:24">
-      <c r="B70" s="254" t="s">
+      <c r="B70" s="272" t="s">
         <v>27</v>
       </c>
       <c r="C70" s="62" t="s">
@@ -11318,7 +11455,7 @@
       <c r="X70" s="41"/>
     </row>
     <row r="71" spans="1:24">
-      <c r="B71" s="255"/>
+      <c r="B71" s="273"/>
       <c r="C71" s="66" t="s">
         <v>30</v>
       </c>
@@ -11353,7 +11490,7 @@
       <c r="X71" s="41"/>
     </row>
     <row r="72" spans="1:24">
-      <c r="B72" s="255"/>
+      <c r="B72" s="273"/>
       <c r="C72" s="66" t="s">
         <v>34</v>
       </c>
@@ -11423,54 +11560,54 @@
       <c r="X76" s="41"/>
     </row>
     <row r="77" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B77" s="243" t="s">
+      <c r="B77" s="251" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="244"/>
-      <c r="D77" s="250" t="s">
+      <c r="C77" s="252"/>
+      <c r="D77" s="254" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="239"/>
-      <c r="F77" s="252" t="s">
+      <c r="E77" s="241"/>
+      <c r="F77" s="244" t="s">
         <v>36</v>
       </c>
-      <c r="G77" s="239"/>
-      <c r="H77" s="252" t="s">
+      <c r="G77" s="241"/>
+      <c r="H77" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="I77" s="239"/>
-      <c r="J77" s="252" t="s">
+      <c r="I77" s="241"/>
+      <c r="J77" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="K77" s="239"/>
-      <c r="L77" s="252" t="s">
+      <c r="K77" s="241"/>
+      <c r="L77" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="M77" s="239"/>
-      <c r="N77" s="268" t="s">
+      <c r="M77" s="241"/>
+      <c r="N77" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="O77" s="269"/>
-      <c r="P77" s="268" t="s">
+      <c r="O77" s="257"/>
+      <c r="P77" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="Q77" s="269"/>
-      <c r="R77" s="253" t="s">
+      <c r="Q77" s="257"/>
+      <c r="R77" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="S77" s="253"/>
-      <c r="T77" s="253" t="s">
+      <c r="S77" s="255"/>
+      <c r="T77" s="255" t="s">
         <v>333</v>
       </c>
-      <c r="U77" s="253"/>
-      <c r="V77" s="253" t="s">
+      <c r="U77" s="255"/>
+      <c r="V77" s="255" t="s">
         <v>334</v>
       </c>
-      <c r="W77" s="253"/>
+      <c r="W77" s="255"/>
       <c r="X77" s="41"/>
     </row>
     <row r="78" spans="1:24">
-      <c r="B78" s="265" t="s">
+      <c r="B78" s="260" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="83" t="s">
@@ -11539,7 +11676,7 @@
       <c r="X78" s="41"/>
     </row>
     <row r="79" spans="1:24">
-      <c r="B79" s="266"/>
+      <c r="B79" s="261"/>
       <c r="C79" s="31" t="s">
         <v>30</v>
       </c>
@@ -11606,7 +11743,7 @@
       <c r="X79" s="41"/>
     </row>
     <row r="80" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B80" s="267"/>
+      <c r="B80" s="262"/>
       <c r="C80" s="35" t="s">
         <v>34</v>
       </c>
@@ -11673,7 +11810,7 @@
       <c r="X80" s="41"/>
     </row>
     <row r="81" spans="2:24">
-      <c r="B81" s="256" t="s">
+      <c r="B81" s="263" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="43" t="s">
@@ -11742,7 +11879,7 @@
       <c r="X81" s="41"/>
     </row>
     <row r="82" spans="2:24">
-      <c r="B82" s="257"/>
+      <c r="B82" s="264"/>
       <c r="C82" s="46" t="s">
         <v>30</v>
       </c>
@@ -11809,7 +11946,7 @@
       <c r="X82" s="41"/>
     </row>
     <row r="83" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B83" s="258"/>
+      <c r="B83" s="265"/>
       <c r="C83" s="47" t="s">
         <v>34</v>
       </c>
@@ -11876,7 +12013,7 @@
       <c r="X83" s="41"/>
     </row>
     <row r="84" spans="2:24">
-      <c r="B84" s="259" t="s">
+      <c r="B84" s="266" t="s">
         <v>25</v>
       </c>
       <c r="C84" s="50" t="s">
@@ -11945,7 +12082,7 @@
       <c r="X84" s="41"/>
     </row>
     <row r="85" spans="2:24">
-      <c r="B85" s="260"/>
+      <c r="B85" s="267"/>
       <c r="C85" s="53" t="s">
         <v>30</v>
       </c>
@@ -12012,7 +12149,7 @@
       <c r="X85" s="41"/>
     </row>
     <row r="86" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B86" s="261"/>
+      <c r="B86" s="268"/>
       <c r="C86" s="54" t="s">
         <v>34</v>
       </c>
@@ -12079,7 +12216,7 @@
       <c r="X86" s="41"/>
     </row>
     <row r="87" spans="2:24">
-      <c r="B87" s="262" t="s">
+      <c r="B87" s="269" t="s">
         <v>26</v>
       </c>
       <c r="C87" s="57" t="s">
@@ -12148,7 +12285,7 @@
       <c r="X87" s="41"/>
     </row>
     <row r="88" spans="2:24">
-      <c r="B88" s="263"/>
+      <c r="B88" s="270"/>
       <c r="C88" s="58" t="s">
         <v>30</v>
       </c>
@@ -12215,7 +12352,7 @@
       <c r="X88" s="41"/>
     </row>
     <row r="89" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B89" s="264"/>
+      <c r="B89" s="271"/>
       <c r="C89" s="59" t="s">
         <v>34</v>
       </c>
@@ -12282,7 +12419,7 @@
       <c r="X89" s="41"/>
     </row>
     <row r="90" spans="2:24">
-      <c r="B90" s="254" t="s">
+      <c r="B90" s="272" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="79" t="s">
@@ -12351,7 +12488,7 @@
       <c r="X90" s="41"/>
     </row>
     <row r="91" spans="2:24">
-      <c r="B91" s="255"/>
+      <c r="B91" s="273"/>
       <c r="C91" s="66" t="s">
         <v>30</v>
       </c>
@@ -12418,7 +12555,7 @@
       <c r="X91" s="41"/>
     </row>
     <row r="92" spans="2:24">
-      <c r="B92" s="255"/>
+      <c r="B92" s="273"/>
       <c r="C92" s="66" t="s">
         <v>34</v>
       </c>
@@ -12488,10 +12625,10 @@
       <c r="X93" s="41"/>
     </row>
     <row r="94" spans="2:24" ht="30.75" thickBot="1">
-      <c r="B94" s="270" t="s">
+      <c r="B94" s="258" t="s">
         <v>45</v>
       </c>
-      <c r="C94" s="271"/>
+      <c r="C94" s="274"/>
       <c r="D94" s="233" t="s">
         <v>343</v>
       </c>
@@ -12519,7 +12656,7 @@
       <c r="X94" s="41"/>
     </row>
     <row r="95" spans="2:24">
-      <c r="B95" s="265" t="s">
+      <c r="B95" s="260" t="s">
         <v>23</v>
       </c>
       <c r="C95" s="83" t="s">
@@ -12556,7 +12693,7 @@
       <c r="X95" s="41"/>
     </row>
     <row r="96" spans="2:24">
-      <c r="B96" s="266"/>
+      <c r="B96" s="261"/>
       <c r="C96" s="31" t="s">
         <v>30</v>
       </c>
@@ -12591,7 +12728,7 @@
       <c r="X96" s="41"/>
     </row>
     <row r="97" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B97" s="267"/>
+      <c r="B97" s="262"/>
       <c r="C97" s="35" t="s">
         <v>34</v>
       </c>
@@ -12626,7 +12763,7 @@
       <c r="X97" s="41"/>
     </row>
     <row r="98" spans="1:24">
-      <c r="B98" s="256" t="s">
+      <c r="B98" s="263" t="s">
         <v>24</v>
       </c>
       <c r="C98" s="43" t="s">
@@ -12663,7 +12800,7 @@
       <c r="X98" s="41"/>
     </row>
     <row r="99" spans="1:24">
-      <c r="B99" s="257"/>
+      <c r="B99" s="264"/>
       <c r="C99" s="46" t="s">
         <v>30</v>
       </c>
@@ -12698,7 +12835,7 @@
       <c r="X99" s="41"/>
     </row>
     <row r="100" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B100" s="258"/>
+      <c r="B100" s="265"/>
       <c r="C100" s="47" t="s">
         <v>34</v>
       </c>
@@ -12733,7 +12870,7 @@
       <c r="X100" s="41"/>
     </row>
     <row r="101" spans="1:24">
-      <c r="B101" s="259" t="s">
+      <c r="B101" s="266" t="s">
         <v>25</v>
       </c>
       <c r="C101" s="50" t="s">
@@ -12770,7 +12907,7 @@
       <c r="X101" s="41"/>
     </row>
     <row r="102" spans="1:24">
-      <c r="B102" s="260"/>
+      <c r="B102" s="267"/>
       <c r="C102" s="53" t="s">
         <v>30</v>
       </c>
@@ -12805,7 +12942,7 @@
       <c r="X102" s="41"/>
     </row>
     <row r="103" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B103" s="261"/>
+      <c r="B103" s="268"/>
       <c r="C103" s="54" t="s">
         <v>34</v>
       </c>
@@ -12840,7 +12977,7 @@
       <c r="X103" s="41"/>
     </row>
     <row r="104" spans="1:24">
-      <c r="B104" s="262" t="s">
+      <c r="B104" s="269" t="s">
         <v>26</v>
       </c>
       <c r="C104" s="57" t="s">
@@ -12877,7 +13014,7 @@
       <c r="X104" s="41"/>
     </row>
     <row r="105" spans="1:24">
-      <c r="B105" s="263"/>
+      <c r="B105" s="270"/>
       <c r="C105" s="58" t="s">
         <v>30</v>
       </c>
@@ -12912,7 +13049,7 @@
       <c r="X105" s="41"/>
     </row>
     <row r="106" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B106" s="264"/>
+      <c r="B106" s="271"/>
       <c r="C106" s="59" t="s">
         <v>34</v>
       </c>
@@ -12947,7 +13084,7 @@
       <c r="X106" s="41"/>
     </row>
     <row r="107" spans="1:24">
-      <c r="B107" s="254" t="s">
+      <c r="B107" s="272" t="s">
         <v>27</v>
       </c>
       <c r="C107" s="62" t="s">
@@ -12984,7 +13121,7 @@
       <c r="X107" s="41"/>
     </row>
     <row r="108" spans="1:24">
-      <c r="B108" s="255"/>
+      <c r="B108" s="273"/>
       <c r="C108" s="66" t="s">
         <v>30</v>
       </c>
@@ -13019,7 +13156,7 @@
       <c r="X108" s="41"/>
     </row>
     <row r="109" spans="1:24">
-      <c r="B109" s="255"/>
+      <c r="B109" s="273"/>
       <c r="C109" s="66" t="s">
         <v>34</v>
       </c>
@@ -13084,52 +13221,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B70:B72"/>
     <mergeCell ref="T77:U77"/>
     <mergeCell ref="V77:W77"/>
     <mergeCell ref="B107:B109"/>
@@ -13146,21 +13237,3975 @@
     <mergeCell ref="P77:Q77"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
-    <ignoredError sqref="D27:E27 D34:E34 D98:E98 D105:E105 D107:E107" formula="1"/>
+    <ignoredError sqref="D27:E27 D34:E34 D98:E98 E105 E107" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I225"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="153"/>
+    <col min="5" max="5" width="31.7109375" style="153" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="153"/>
+    <col min="8" max="9" width="31.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B2" s="240" t="str">
+        <f>"&gt; Current "&amp;"("&amp;COUNTA(B3:B225)&amp;")"</f>
+        <v>&gt; Current (223)</v>
+      </c>
+      <c r="C2" s="240" t="str">
+        <f>"&gt; 2010-2000 "&amp;"("&amp;COUNTA(C3:C210)&amp;")"</f>
+        <v>&gt; 2010-2000 (208)</v>
+      </c>
+      <c r="E2" s="240" t="str">
+        <f>"&gt; Current "&amp;"("&amp;COUNTA(E3:E225)&amp;")"</f>
+        <v>&gt; Current (223)</v>
+      </c>
+      <c r="F2" s="240" t="str">
+        <f>"&gt; 2000-1990 "&amp;"("&amp;COUNTA(F3:F138)&amp;")"</f>
+        <v>&gt; 2000-1990 (136)</v>
+      </c>
+      <c r="H2" s="240" t="str">
+        <f>"&gt; 2010-2000 "&amp;"("&amp;COUNTA(H3:H210)&amp;")"</f>
+        <v>&gt; 2010-2000 (208)</v>
+      </c>
+      <c r="I2" s="240" t="str">
+        <f>"&gt; 2000-1990 "&amp;"("&amp;COUNTA(I3:I138)&amp;")"</f>
+        <v>&gt; 2000-1990 (136)</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="140" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="140" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="140" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="140" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="140" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="140" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I75" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F89" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F92" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I94" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I96" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I97" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I98" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I99" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="I101" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="I102" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H103" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I103" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I104" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I105" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="H106" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I106" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="I107" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I108" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="B109" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I109" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="I110" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="I111" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="I112" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F113" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I113" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F114" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H114" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="I114" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="F115" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I115" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F116" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H116" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="I116" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="I118" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="B119" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="B120" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H120" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I120" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9">
+      <c r="B122" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="I122" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H123" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I123" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F124" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H124" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="I124" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="I125" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="B126" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="B127" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H127" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I127" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="B128" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F128" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H128" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I128" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="B129" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F129" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="I129" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="B130" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I130" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9">
+      <c r="B131" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I131" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9">
+      <c r="B132" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="I132" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="B133" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H134" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="I134" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="B135" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H135" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I135" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F136" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H136" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I136" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="B137" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H137" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="I137" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="B138" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F138" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H138" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="I138" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H139" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="B140" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H140" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="B141" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H141" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="B142" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H142" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="B143" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H143" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="B144" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H144" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="B145" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H145" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H146" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H148" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H149" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H151" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H152" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H153" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="H154" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="B155" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="B156" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H156" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H157" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="B158" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H158" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="B159" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H159" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="B160" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H160" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8">
+      <c r="B161" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="H161" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="B162" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E162" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H162" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="B163" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H163" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H164" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C165" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H165" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8">
+      <c r="B166" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H166" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8">
+      <c r="B167" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H167" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H168" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H169" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="H170" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C171" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="H171" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="B172" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H172" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8">
+      <c r="B173" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E173" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H173" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8">
+      <c r="B174" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E174" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H174" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8">
+      <c r="B175" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E175" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H175" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8">
+      <c r="B176" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E176" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H176" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8">
+      <c r="B177" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C177" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E177" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H177" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8">
+      <c r="B178" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E178" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="H178" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8">
+      <c r="B179" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H179" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8">
+      <c r="B180" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E180" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="H180" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8">
+      <c r="B181" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="E181" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H181" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8">
+      <c r="B182" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E182" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H182" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8">
+      <c r="B183" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E183" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H183" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8">
+      <c r="B184" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="E184" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H184" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8">
+      <c r="B185" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E185" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H185" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8">
+      <c r="B186" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E186" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H186" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8">
+      <c r="B187" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E187" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H187" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8">
+      <c r="B188" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E188" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H188" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8">
+      <c r="B189" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H189" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8">
+      <c r="B190" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C190" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="E190" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H190" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8">
+      <c r="B191" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E191" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="H191" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8">
+      <c r="B192" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E192" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="H192" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8">
+      <c r="B193" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E193" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H193" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8">
+      <c r="B194" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E194" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H194" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8">
+      <c r="B195" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E195" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H195" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8">
+      <c r="B196" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E196" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H196" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8">
+      <c r="B197" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E197" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H197" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8">
+      <c r="B198" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E198" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H198" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8">
+      <c r="B199" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C199" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E199" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H199" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8">
+      <c r="B200" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E200" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H200" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8">
+      <c r="B201" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E201" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H201" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8">
+      <c r="B202" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E202" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="H202" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8">
+      <c r="B203" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E203" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H203" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8">
+      <c r="B204" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E204" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H204" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8">
+      <c r="B205" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E205" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H205" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8">
+      <c r="B206" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E206" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H206" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8">
+      <c r="B207" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C207" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E207" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H207" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8">
+      <c r="B208" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E208" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H208" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8">
+      <c r="B209" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C209" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E209" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H209" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8">
+      <c r="B210" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E210" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H210" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8">
+      <c r="B211" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E211" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8">
+      <c r="B212" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E212" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8">
+      <c r="B213" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E213" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8">
+      <c r="B214" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E214" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8">
+      <c r="B215" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E215" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8">
+      <c r="B216" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E216" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8">
+      <c r="B217" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E217" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8">
+      <c r="B218" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E218" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8">
+      <c r="B219" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E219" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8">
+      <c r="B220" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E220" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8">
+      <c r="B221" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E221" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8">
+      <c r="B222" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E222" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8">
+      <c r="B223" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E223" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8">
+      <c r="B224" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E224" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5">
+      <c r="B225" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E225" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:C225">
+    <cfRule type="uniqueValues" dxfId="81" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F225">
+    <cfRule type="uniqueValues" dxfId="80" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:I210">
+    <cfRule type="uniqueValues" dxfId="79" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13186,38 +17231,38 @@
       <c r="Y2" s="41"/>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="273" t="s">
+      <c r="B3" s="275" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="273"/>
-      <c r="E3" s="273" t="s">
+      <c r="C3" s="275"/>
+      <c r="E3" s="275" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="273"/>
-      <c r="H3" s="273" t="s">
+      <c r="F3" s="275"/>
+      <c r="H3" s="275" t="s">
         <v>272</v>
       </c>
-      <c r="I3" s="273"/>
-      <c r="K3" s="273" t="s">
+      <c r="I3" s="275"/>
+      <c r="K3" s="275" t="s">
         <v>273</v>
       </c>
-      <c r="L3" s="273"/>
-      <c r="N3" s="273" t="s">
+      <c r="L3" s="275"/>
+      <c r="N3" s="275" t="s">
         <v>274</v>
       </c>
-      <c r="O3" s="273"/>
-      <c r="Q3" s="273" t="s">
+      <c r="O3" s="275"/>
+      <c r="Q3" s="275" t="s">
         <v>275</v>
       </c>
-      <c r="R3" s="273"/>
-      <c r="T3" s="273" t="s">
+      <c r="R3" s="275"/>
+      <c r="T3" s="275" t="s">
         <v>276</v>
       </c>
-      <c r="U3" s="273"/>
-      <c r="W3" s="273" t="s">
+      <c r="U3" s="275"/>
+      <c r="W3" s="275" t="s">
         <v>277</v>
       </c>
-      <c r="X3" s="273"/>
+      <c r="X3" s="275"/>
       <c r="Y3" s="41"/>
     </row>
     <row r="4" spans="2:25">
@@ -14865,38 +18910,38 @@
       <c r="Y73" s="41"/>
     </row>
     <row r="74" spans="1:25">
-      <c r="B74" s="273" t="s">
+      <c r="B74" s="275" t="s">
         <v>278</v>
       </c>
-      <c r="C74" s="273"/>
-      <c r="E74" s="273" t="s">
+      <c r="C74" s="275"/>
+      <c r="E74" s="275" t="s">
         <v>279</v>
       </c>
-      <c r="F74" s="273"/>
-      <c r="H74" s="273" t="s">
+      <c r="F74" s="275"/>
+      <c r="H74" s="275" t="s">
         <v>280</v>
       </c>
-      <c r="I74" s="273"/>
-      <c r="K74" s="273" t="s">
+      <c r="I74" s="275"/>
+      <c r="K74" s="275" t="s">
         <v>281</v>
       </c>
-      <c r="L74" s="273"/>
-      <c r="N74" s="273" t="s">
+      <c r="L74" s="275"/>
+      <c r="N74" s="275" t="s">
         <v>282</v>
       </c>
-      <c r="O74" s="273"/>
-      <c r="Q74" s="273" t="s">
+      <c r="O74" s="275"/>
+      <c r="Q74" s="275" t="s">
         <v>283</v>
       </c>
-      <c r="R74" s="273"/>
-      <c r="T74" s="273" t="s">
+      <c r="R74" s="275"/>
+      <c r="T74" s="275" t="s">
         <v>284</v>
       </c>
-      <c r="U74" s="273"/>
-      <c r="W74" s="273" t="s">
+      <c r="U74" s="275"/>
+      <c r="W74" s="275" t="s">
         <v>285</v>
       </c>
-      <c r="X74" s="273"/>
+      <c r="X74" s="275"/>
       <c r="Y74" s="41"/>
     </row>
     <row r="75" spans="1:25">
@@ -16571,30 +20616,30 @@
       <c r="Y147" s="41"/>
     </row>
     <row r="148" spans="1:25">
-      <c r="B148" s="273" t="s">
+      <c r="B148" s="275" t="s">
         <v>269</v>
       </c>
-      <c r="C148" s="273"/>
-      <c r="E148" s="273" t="s">
+      <c r="C148" s="275"/>
+      <c r="E148" s="275" t="s">
         <v>286</v>
       </c>
-      <c r="F148" s="273"/>
-      <c r="H148" s="273" t="s">
+      <c r="F148" s="275"/>
+      <c r="H148" s="275" t="s">
         <v>287</v>
       </c>
-      <c r="I148" s="273"/>
-      <c r="K148" s="273" t="s">
+      <c r="I148" s="275"/>
+      <c r="K148" s="275" t="s">
         <v>288</v>
       </c>
-      <c r="L148" s="273"/>
-      <c r="N148" s="273" t="s">
+      <c r="L148" s="275"/>
+      <c r="N148" s="275" t="s">
         <v>289</v>
       </c>
-      <c r="O148" s="273"/>
-      <c r="Q148" s="273" t="s">
+      <c r="O148" s="275"/>
+      <c r="Q148" s="275" t="s">
         <v>290</v>
       </c>
-      <c r="R148" s="273"/>
+      <c r="R148" s="275"/>
       <c r="Y148" s="41"/>
     </row>
     <row r="149" spans="1:25">
@@ -18237,30 +22282,30 @@
       <c r="Y216" s="41"/>
     </row>
     <row r="217" spans="1:25">
-      <c r="B217" s="273" t="s">
+      <c r="B217" s="275" t="s">
         <v>293</v>
       </c>
-      <c r="C217" s="273"/>
-      <c r="E217" s="273" t="s">
+      <c r="C217" s="275"/>
+      <c r="E217" s="275" t="s">
         <v>292</v>
       </c>
-      <c r="F217" s="273"/>
-      <c r="H217" s="273" t="s">
+      <c r="F217" s="275"/>
+      <c r="H217" s="275" t="s">
         <v>296</v>
       </c>
-      <c r="I217" s="273"/>
-      <c r="K217" s="273" t="s">
+      <c r="I217" s="275"/>
+      <c r="K217" s="275" t="s">
         <v>295</v>
       </c>
-      <c r="L217" s="273"/>
-      <c r="N217" s="273" t="s">
+      <c r="L217" s="275"/>
+      <c r="N217" s="275" t="s">
         <v>294</v>
       </c>
-      <c r="O217" s="273"/>
-      <c r="Q217" s="273" t="s">
+      <c r="O217" s="275"/>
+      <c r="Q217" s="275" t="s">
         <v>291</v>
       </c>
-      <c r="R217" s="273"/>
+      <c r="R217" s="275"/>
       <c r="Y217" s="41"/>
     </row>
     <row r="218" spans="1:25">
@@ -19876,6 +23921,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="Q217:R217"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="Q148:R148"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="N217:O217"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="B74:C74"/>
@@ -19892,18 +23949,6 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q217:R217"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="Q148:R148"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="N217:O217"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C14">
     <cfRule type="uniqueValues" dxfId="78" priority="29"/>
@@ -19994,7 +24039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V342"/>
   <sheetViews>
@@ -20022,34 +24067,34 @@
       <c r="V2" s="41"/>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="273" t="s">
+      <c r="B3" s="275" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="273"/>
-      <c r="E3" s="273" t="s">
+      <c r="C3" s="275"/>
+      <c r="E3" s="275" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="273"/>
-      <c r="H3" s="273" t="s">
+      <c r="F3" s="275"/>
+      <c r="H3" s="275" t="s">
         <v>272</v>
       </c>
-      <c r="I3" s="273"/>
-      <c r="K3" s="273" t="s">
+      <c r="I3" s="275"/>
+      <c r="K3" s="275" t="s">
         <v>273</v>
       </c>
-      <c r="L3" s="273"/>
-      <c r="N3" s="273" t="s">
+      <c r="L3" s="275"/>
+      <c r="N3" s="275" t="s">
         <v>274</v>
       </c>
-      <c r="O3" s="273"/>
-      <c r="Q3" s="273" t="s">
+      <c r="O3" s="275"/>
+      <c r="Q3" s="275" t="s">
         <v>275</v>
       </c>
-      <c r="R3" s="273"/>
-      <c r="T3" s="273" t="s">
+      <c r="R3" s="275"/>
+      <c r="T3" s="275" t="s">
         <v>276</v>
       </c>
-      <c r="U3" s="273"/>
+      <c r="U3" s="275"/>
       <c r="V3" s="41"/>
     </row>
     <row r="4" spans="2:22">
@@ -21656,34 +25701,34 @@
       <c r="V95" s="41"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="B96" s="273" t="s">
+      <c r="B96" s="275" t="s">
         <v>278</v>
       </c>
-      <c r="C96" s="273"/>
-      <c r="E96" s="273" t="s">
+      <c r="C96" s="275"/>
+      <c r="E96" s="275" t="s">
         <v>279</v>
       </c>
-      <c r="F96" s="273"/>
-      <c r="H96" s="273" t="s">
+      <c r="F96" s="275"/>
+      <c r="H96" s="275" t="s">
         <v>280</v>
       </c>
-      <c r="I96" s="273"/>
-      <c r="K96" s="273" t="s">
+      <c r="I96" s="275"/>
+      <c r="K96" s="275" t="s">
         <v>281</v>
       </c>
-      <c r="L96" s="273"/>
-      <c r="N96" s="273" t="s">
+      <c r="L96" s="275"/>
+      <c r="N96" s="275" t="s">
         <v>282</v>
       </c>
-      <c r="O96" s="273"/>
-      <c r="Q96" s="273" t="s">
+      <c r="O96" s="275"/>
+      <c r="Q96" s="275" t="s">
         <v>283</v>
       </c>
-      <c r="R96" s="273"/>
-      <c r="T96" s="273" t="s">
+      <c r="R96" s="275"/>
+      <c r="T96" s="275" t="s">
         <v>284</v>
       </c>
-      <c r="U96" s="273"/>
+      <c r="U96" s="275"/>
       <c r="V96" s="41"/>
     </row>
     <row r="97" spans="2:22">
@@ -23249,26 +27294,26 @@
       <c r="V168" s="41"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="B169" s="273" t="s">
+      <c r="B169" s="275" t="s">
         <v>269</v>
       </c>
-      <c r="C169" s="273"/>
-      <c r="E169" s="273" t="s">
+      <c r="C169" s="275"/>
+      <c r="E169" s="275" t="s">
         <v>286</v>
       </c>
-      <c r="F169" s="273"/>
-      <c r="H169" s="273" t="s">
+      <c r="F169" s="275"/>
+      <c r="H169" s="275" t="s">
         <v>287</v>
       </c>
-      <c r="I169" s="273"/>
-      <c r="K169" s="273" t="s">
+      <c r="I169" s="275"/>
+      <c r="K169" s="275" t="s">
         <v>288</v>
       </c>
-      <c r="L169" s="273"/>
-      <c r="N169" s="273" t="s">
+      <c r="L169" s="275"/>
+      <c r="N169" s="275" t="s">
         <v>289</v>
       </c>
-      <c r="O169" s="273"/>
+      <c r="O169" s="275"/>
       <c r="V169" s="41"/>
     </row>
     <row r="170" spans="1:22">
@@ -24884,26 +28929,26 @@
       <c r="V263" s="41"/>
     </row>
     <row r="264" spans="1:22">
-      <c r="B264" s="273" t="s">
+      <c r="B264" s="275" t="s">
         <v>293</v>
       </c>
-      <c r="C264" s="273"/>
-      <c r="E264" s="273" t="s">
+      <c r="C264" s="275"/>
+      <c r="E264" s="275" t="s">
         <v>292</v>
       </c>
-      <c r="F264" s="273"/>
-      <c r="H264" s="273" t="s">
+      <c r="F264" s="275"/>
+      <c r="H264" s="275" t="s">
         <v>296</v>
       </c>
-      <c r="I264" s="273"/>
-      <c r="K264" s="273" t="s">
+      <c r="I264" s="275"/>
+      <c r="K264" s="275" t="s">
         <v>295</v>
       </c>
-      <c r="L264" s="273"/>
-      <c r="N264" s="273" t="s">
+      <c r="L264" s="275"/>
+      <c r="N264" s="275" t="s">
         <v>294</v>
       </c>
-      <c r="O264" s="273"/>
+      <c r="O264" s="275"/>
       <c r="V264" s="41"/>
     </row>
     <row r="265" spans="1:22">
@@ -26451,6 +30496,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="N169:O169"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="K264:L264"/>
+    <mergeCell ref="N264:O264"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="E96:F96"/>
@@ -26465,16 +30520,6 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="E264:F264"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="K264:L264"/>
-    <mergeCell ref="N264:O264"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="N169:O169"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C27">
     <cfRule type="uniqueValues" dxfId="50" priority="24"/>
@@ -26552,12 +30597,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z139" sqref="Z139"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26583,30 +30628,30 @@
       <c r="Y2" s="41"/>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="273" t="s">
+      <c r="B3" s="275" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="273"/>
-      <c r="E3" s="273" t="s">
+      <c r="C3" s="275"/>
+      <c r="E3" s="275" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="273"/>
-      <c r="H3" s="273" t="s">
+      <c r="F3" s="275"/>
+      <c r="H3" s="275" t="s">
         <v>272</v>
       </c>
-      <c r="I3" s="273"/>
-      <c r="K3" s="273" t="s">
+      <c r="I3" s="275"/>
+      <c r="K3" s="275" t="s">
         <v>273</v>
       </c>
-      <c r="L3" s="273"/>
-      <c r="N3" s="273" t="s">
+      <c r="L3" s="275"/>
+      <c r="N3" s="275" t="s">
         <v>274</v>
       </c>
-      <c r="O3" s="273"/>
-      <c r="Q3" s="273" t="s">
+      <c r="O3" s="275"/>
+      <c r="Q3" s="275" t="s">
         <v>275</v>
       </c>
-      <c r="R3" s="273"/>
+      <c r="R3" s="275"/>
       <c r="S3" s="100"/>
       <c r="Y3" s="41"/>
     </row>
@@ -27688,38 +31733,38 @@
       <c r="Y45" s="41"/>
     </row>
     <row r="46" spans="1:25">
-      <c r="B46" s="273" t="s">
+      <c r="B46" s="275" t="s">
         <v>278</v>
       </c>
-      <c r="C46" s="273"/>
-      <c r="E46" s="273" t="s">
+      <c r="C46" s="275"/>
+      <c r="E46" s="275" t="s">
         <v>279</v>
       </c>
-      <c r="F46" s="273"/>
-      <c r="H46" s="273" t="s">
+      <c r="F46" s="275"/>
+      <c r="H46" s="275" t="s">
         <v>280</v>
       </c>
-      <c r="I46" s="273"/>
-      <c r="K46" s="273" t="s">
+      <c r="I46" s="275"/>
+      <c r="K46" s="275" t="s">
         <v>281</v>
       </c>
-      <c r="L46" s="273"/>
-      <c r="N46" s="273" t="s">
+      <c r="L46" s="275"/>
+      <c r="N46" s="275" t="s">
         <v>282</v>
       </c>
-      <c r="O46" s="273"/>
-      <c r="Q46" s="273" t="s">
+      <c r="O46" s="275"/>
+      <c r="Q46" s="275" t="s">
         <v>283</v>
       </c>
-      <c r="R46" s="273"/>
-      <c r="T46" s="273" t="s">
+      <c r="R46" s="275"/>
+      <c r="T46" s="275" t="s">
         <v>284</v>
       </c>
-      <c r="U46" s="273"/>
-      <c r="W46" s="273" t="s">
+      <c r="U46" s="275"/>
+      <c r="W46" s="275" t="s">
         <v>285</v>
       </c>
-      <c r="X46" s="273"/>
+      <c r="X46" s="275"/>
       <c r="Y46" s="41"/>
     </row>
     <row r="47" spans="1:25">
@@ -28760,30 +32805,30 @@
       <c r="Y90" s="41"/>
     </row>
     <row r="91" spans="1:25">
-      <c r="B91" s="273" t="s">
+      <c r="B91" s="275" t="s">
         <v>269</v>
       </c>
-      <c r="C91" s="273"/>
-      <c r="E91" s="273" t="s">
+      <c r="C91" s="275"/>
+      <c r="E91" s="275" t="s">
         <v>286</v>
       </c>
-      <c r="F91" s="273"/>
-      <c r="H91" s="273" t="s">
+      <c r="F91" s="275"/>
+      <c r="H91" s="275" t="s">
         <v>287</v>
       </c>
-      <c r="I91" s="273"/>
-      <c r="K91" s="273" t="s">
+      <c r="I91" s="275"/>
+      <c r="K91" s="275" t="s">
         <v>288</v>
       </c>
-      <c r="L91" s="273"/>
-      <c r="N91" s="273" t="s">
+      <c r="L91" s="275"/>
+      <c r="N91" s="275" t="s">
         <v>289</v>
       </c>
-      <c r="O91" s="273"/>
-      <c r="Q91" s="273" t="s">
+      <c r="O91" s="275"/>
+      <c r="Q91" s="275" t="s">
         <v>290</v>
       </c>
-      <c r="R91" s="273"/>
+      <c r="R91" s="275"/>
       <c r="Y91" s="41"/>
     </row>
     <row r="92" spans="1:25">
@@ -29813,34 +33858,34 @@
       <c r="Y137" s="41"/>
     </row>
     <row r="138" spans="1:25">
-      <c r="B138" s="273" t="s">
+      <c r="B138" s="275" t="s">
         <v>293</v>
       </c>
-      <c r="C138" s="273"/>
-      <c r="E138" s="273" t="s">
+      <c r="C138" s="275"/>
+      <c r="E138" s="275" t="s">
         <v>292</v>
       </c>
-      <c r="F138" s="273"/>
-      <c r="H138" s="273" t="s">
+      <c r="F138" s="275"/>
+      <c r="H138" s="275" t="s">
         <v>296</v>
       </c>
-      <c r="I138" s="273"/>
-      <c r="K138" s="273" t="s">
+      <c r="I138" s="275"/>
+      <c r="K138" s="275" t="s">
         <v>295</v>
       </c>
-      <c r="L138" s="273"/>
-      <c r="N138" s="273" t="s">
+      <c r="L138" s="275"/>
+      <c r="N138" s="275" t="s">
         <v>294</v>
       </c>
-      <c r="O138" s="273"/>
-      <c r="Q138" s="273" t="s">
+      <c r="O138" s="275"/>
+      <c r="Q138" s="275" t="s">
         <v>291</v>
       </c>
-      <c r="R138" s="273"/>
-      <c r="T138" s="273" t="s">
+      <c r="R138" s="275"/>
+      <c r="T138" s="275" t="s">
         <v>335</v>
       </c>
-      <c r="U138" s="273"/>
+      <c r="U138" s="275"/>
       <c r="Y138" s="41"/>
     </row>
     <row r="139" spans="1:25">
@@ -30877,12 +34922,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="Q138:R138"/>
     <mergeCell ref="T46:U46"/>
     <mergeCell ref="W46:X46"/>
     <mergeCell ref="B91:C91"/>
@@ -30897,13 +34943,12 @@
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="N138:O138"/>
-    <mergeCell ref="Q138:R138"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C35">
     <cfRule type="uniqueValues" dxfId="26" priority="27"/>

--- a/analysis/xlsx/topic_network_a_analysis.xlsx
+++ b/analysis/xlsx/topic_network_a_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="13200" windowHeight="4440" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="13200" windowHeight="4440" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="8" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Topics - 2000-1990" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Topics!$H$2:$I$210</definedName>
     <definedName name="nodes" localSheetId="5">Topics!$B$3:$B$225</definedName>
     <definedName name="nodes_1" localSheetId="5">Topics!$H$2:$H$210</definedName>
     <definedName name="nodes_2" localSheetId="5">Topics!$I$2:$I$138</definedName>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6707" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6724" uniqueCount="352">
   <si>
     <t>Nodes</t>
   </si>
@@ -1150,6 +1151,9 @@
   <si>
     <t>Total value between communities (unique)</t>
   </si>
+  <si>
+    <t>Latex format</t>
+  </si>
 </sst>
 </file>
 
@@ -1229,7 +1233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1671,11 +1675,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2273,6 +2288,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2377,6 +2405,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3747,10 +3778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52:F70"/>
+    <sheetView topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3759,16 +3790,18 @@
     <col min="3" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:11">
       <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1">
+      <c r="K1" s="41"/>
+    </row>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1">
+      <c r="K2" s="41"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="105" t="s">
         <v>43</v>
       </c>
@@ -3788,8 +3821,12 @@
         <v>27</v>
       </c>
       <c r="H3" s="41"/>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="J3" s="244" t="s">
+        <v>351</v>
+      </c>
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3809,8 +3846,13 @@
         <v>223</v>
       </c>
       <c r="H4" s="41"/>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="J4" s="245" t="str">
+        <f>"\textbf{"&amp;B4&amp;"}"&amp;" &amp; "&amp;"{"&amp;C4&amp;"}"&amp;" &amp; "&amp;"{"&amp;F4&amp;"}"&amp;" &amp; "&amp;"{"&amp;G4&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Nodes} &amp; {223} &amp; {223} &amp; {223}\\</v>
+      </c>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3830,8 +3872,13 @@
         <v>2008</v>
       </c>
       <c r="H5" s="41"/>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="J5" s="245" t="str">
+        <f t="shared" ref="J5:J22" si="0">"\textbf{"&amp;B5&amp;"}"&amp;" &amp; "&amp;"{"&amp;C5&amp;"}"&amp;" &amp; "&amp;"{"&amp;F5&amp;"}"&amp;" &amp; "&amp;"{"&amp;G5&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Edges} &amp; {2008} &amp; {2008} &amp; {2008}\\</v>
+      </c>
+      <c r="K5" s="41"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3851,8 +3898,13 @@
         <v>19</v>
       </c>
       <c r="H6" s="41"/>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="J6" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Type} &amp; {Undirected} &amp; {Undirected} &amp; {Undirected}\\</v>
+      </c>
+      <c r="K6" s="41"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -3872,8 +3924,13 @@
         <v>21</v>
       </c>
       <c r="H7" s="41"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="J7" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Weighted} &amp; {No} &amp; {Yes} &amp; {Yes}\\</v>
+      </c>
+      <c r="K7" s="41"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3893,8 +3950,13 @@
         <v>21</v>
       </c>
       <c r="H8" s="41"/>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="J8" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Connected} &amp; {Yes} &amp; {Yes} &amp; {Yes}\\</v>
+      </c>
+      <c r="K8" s="41"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3914,8 +3976,13 @@
         <v>18.009</v>
       </c>
       <c r="H9" s="41"/>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="J9" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Average Degree} &amp; {18.009} &amp; {18.009} &amp; {18.009}\\</v>
+      </c>
+      <c r="K9" s="41"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -3935,8 +4002,13 @@
         <v>22.35</v>
       </c>
       <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="J10" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Average Weighted Degree} &amp; {-} &amp; {19.543} &amp; {22.35}\\</v>
+      </c>
+      <c r="K10" s="41"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3956,8 +4028,13 @@
         <v>6</v>
       </c>
       <c r="H11" s="41"/>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="J11" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Diameter} &amp; {5} &amp; {5} &amp; {6}\\</v>
+      </c>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -3977,8 +4054,13 @@
         <v>3</v>
       </c>
       <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="J12" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Radius} &amp; {3} &amp; {3} &amp; {3}\\</v>
+      </c>
+      <c r="K12" s="41"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -3998,8 +4080,13 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="J13" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Density} &amp; {0.081} &amp; {0.081} &amp; {0.081}\\</v>
+      </c>
+      <c r="K13" s="41"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -4019,8 +4106,13 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="J14" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Modularity} &amp; {0.347} &amp; {0.373} &amp; {0.385}\\</v>
+      </c>
+      <c r="K14" s="41"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -4040,8 +4132,13 @@
         <v>6</v>
       </c>
       <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="J15" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Communities} &amp; {5} &amp; {6} &amp; {6}\\</v>
+      </c>
+      <c r="K15" s="41"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -4061,8 +4158,13 @@
         <v>1</v>
       </c>
       <c r="H16" s="41"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Weak Components} &amp; {1} &amp; {1} &amp; {1}\\</v>
+      </c>
+      <c r="K16" s="41"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4082,8 +4184,13 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Node Closeness} &amp; {0.426} &amp; {0.423} &amp; {0.412}\\</v>
+      </c>
+      <c r="K17" s="41"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
@@ -4103,8 +4210,13 @@
         <v>162.63300000000001</v>
       </c>
       <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J18" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Node Betweenness} &amp; {154.839} &amp; {156.483} &amp; {162.633}\\</v>
+      </c>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
@@ -4124,8 +4236,13 @@
         <v>30.388999999999999</v>
       </c>
       <c r="H19" s="41"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Edge Betweenness} &amp; {29.523} &amp; {29.706} &amp; {30.389}\\</v>
+      </c>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
@@ -4145,8 +4262,13 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="H20" s="41"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J20" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Average Clustering Coefficient} &amp; {0.597} &amp; {0.597} &amp; {0.597}\\</v>
+      </c>
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
@@ -4166,8 +4288,13 @@
         <v>0.183</v>
       </c>
       <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Eigenvector Centrality} &amp; {0.252} &amp; {0.204} &amp; {0.183}\\</v>
+      </c>
+      <c r="K21" s="41"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -4187,8 +4314,13 @@
         <v>2.395</v>
       </c>
       <c r="H22" s="41"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Average Path Length} &amp; {2.395} &amp; {2.395} &amp; {2.395}\\</v>
+      </c>
+      <c r="K22" s="41"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="B23" s="107"/>
       <c r="C23" s="112"/>
       <c r="D23" s="112"/>
@@ -4196,8 +4328,9 @@
       <c r="F23" s="113"/>
       <c r="G23" s="113"/>
       <c r="H23" s="41"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+      <c r="K23" s="41"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="114"/>
       <c r="C24" s="116"/>
@@ -4206,8 +4339,11 @@
       <c r="F24" s="117"/>
       <c r="G24" s="117"/>
       <c r="H24" s="42"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="241"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="42"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="B25" s="107"/>
       <c r="C25" s="112"/>
       <c r="D25" s="112"/>
@@ -4215,11 +4351,13 @@
       <c r="F25" s="113"/>
       <c r="G25" s="113"/>
       <c r="H25" s="41"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+      <c r="K25" s="41"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="H26" s="41"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+      <c r="K26" s="41"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="B27" s="105" t="s">
         <v>44</v>
       </c>
@@ -4239,8 +4377,12 @@
         <v>27</v>
       </c>
       <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27" s="244" t="s">
+        <v>351</v>
+      </c>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
@@ -4260,8 +4402,13 @@
         <v>208</v>
       </c>
       <c r="H28" s="41"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28" s="245" t="str">
+        <f>"\textbf{"&amp;B28&amp;"}"&amp;" &amp; "&amp;"{"&amp;C28&amp;"}"&amp;" &amp; "&amp;"{"&amp;F28&amp;"}"&amp;" &amp; "&amp;"{"&amp;G28&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Nodes} &amp; {208} &amp; {208} &amp; {208}\\</v>
+      </c>
+      <c r="K28" s="41"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
@@ -4281,8 +4428,13 @@
         <v>3592</v>
       </c>
       <c r="H29" s="41"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29" s="245" t="str">
+        <f t="shared" ref="J29:J46" si="1">"\textbf{"&amp;B29&amp;"}"&amp;" &amp; "&amp;"{"&amp;C29&amp;"}"&amp;" &amp; "&amp;"{"&amp;F29&amp;"}"&amp;" &amp; "&amp;"{"&amp;G29&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Edges} &amp; {3592} &amp; {3592} &amp; {3592}\\</v>
+      </c>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
@@ -4302,8 +4454,13 @@
         <v>19</v>
       </c>
       <c r="H30" s="41"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Type} &amp; {Undirected} &amp; {Undirected} &amp; {Undirected}\\</v>
+      </c>
+      <c r="K30" s="41"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
@@ -4323,8 +4480,13 @@
         <v>21</v>
       </c>
       <c r="H31" s="41"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Weighted} &amp; {No} &amp; {Yes} &amp; {Yes}\\</v>
+      </c>
+      <c r="K31" s="41"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
@@ -4344,8 +4506,13 @@
         <v>20</v>
       </c>
       <c r="H32" s="41"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Connected} &amp; {No} &amp; {No} &amp; {No}\\</v>
+      </c>
+      <c r="K32" s="41"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -4365,8 +4532,13 @@
         <v>34.537999999999997</v>
       </c>
       <c r="H33" s="41"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Average Degree} &amp; {34.538} &amp; {34.538} &amp; {34.538}\\</v>
+      </c>
+      <c r="K33" s="41"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
@@ -4386,8 +4558,13 @@
         <v>36.423000000000002</v>
       </c>
       <c r="H34" s="41"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Average Weighted Degree} &amp; {-} &amp; {35.337} &amp; {36.423}\\</v>
+      </c>
+      <c r="K34" s="41"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
@@ -4407,8 +4584,13 @@
         <v>5</v>
       </c>
       <c r="H35" s="41"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Diameter} &amp; {5} &amp; {5} &amp; {5}\\</v>
+      </c>
+      <c r="K35" s="41"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
@@ -4428,8 +4610,13 @@
         <v>1</v>
       </c>
       <c r="H36" s="41"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="J36" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Radius} &amp; {1} &amp; {1} &amp; {1}\\</v>
+      </c>
+      <c r="K36" s="41"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
@@ -4449,8 +4636,13 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="H37" s="41"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J37" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Density} &amp; {0.167} &amp; {0.167} &amp; {0.167}\\</v>
+      </c>
+      <c r="K37" s="41"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="B38" s="2" t="s">
         <v>10</v>
       </c>
@@ -4470,8 +4662,13 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="H38" s="41"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="J38" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Modularity} &amp; {0.264} &amp; {0.271} &amp; {0.279}\\</v>
+      </c>
+      <c r="K38" s="41"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
@@ -4491,8 +4688,13 @@
         <v>5</v>
       </c>
       <c r="H39" s="41"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="J39" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Communities} &amp; {5} &amp; {5} &amp; {5}\\</v>
+      </c>
+      <c r="K39" s="41"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
@@ -4512,8 +4714,13 @@
         <v>2</v>
       </c>
       <c r="H40" s="41"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="J40" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Weak Components} &amp; {2} &amp; {2} &amp; {2}\\</v>
+      </c>
+      <c r="K40" s="41"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
@@ -4533,8 +4740,13 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="H41" s="41"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="J41" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Node Closeness} &amp; {0.245} &amp; {0.245} &amp; {0.244}\\</v>
+      </c>
+      <c r="K41" s="41"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
@@ -4554,8 +4766,13 @@
         <v>110.5</v>
       </c>
       <c r="H42" s="41"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J42" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Node Betweenness} &amp; {109.317} &amp; {109.776} &amp; {110.5}\\</v>
+      </c>
+      <c r="K42" s="41"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1">
       <c r="B43" s="4" t="s">
         <v>15</v>
       </c>
@@ -4575,8 +4792,13 @@
         <v>12.276999999999999</v>
       </c>
       <c r="H43" s="41"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="J43" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Edge Betweenness} &amp; {12.209} &amp; {12.235} &amp; {12.277}\\</v>
+      </c>
+      <c r="K43" s="41"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
@@ -4596,8 +4818,13 @@
         <v>0.59</v>
       </c>
       <c r="H44" s="41"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J44" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Average Clustering Coefficient} &amp; {0.59} &amp; {0.59} &amp; {0.59}\\</v>
+      </c>
+      <c r="K44" s="41"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1">
       <c r="B45" s="4" t="s">
         <v>17</v>
       </c>
@@ -4617,8 +4844,13 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="H45" s="41"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="J45" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Eigenvector Centrality} &amp; {0.321} &amp; {0.232} &amp; {0.227}\\</v>
+      </c>
+      <c r="K45" s="41"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="B46" s="3" t="s">
         <v>18</v>
       </c>
@@ -4638,8 +4870,13 @@
         <v>2.077</v>
       </c>
       <c r="H46" s="41"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="J46" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Average Path Length} &amp; {2.077} &amp; {2.077} &amp; {2.077}\\</v>
+      </c>
+      <c r="K46" s="41"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="B47" s="107"/>
       <c r="C47" s="112"/>
       <c r="D47" s="112"/>
@@ -4647,8 +4884,9 @@
       <c r="F47" s="113"/>
       <c r="G47" s="113"/>
       <c r="H47" s="41"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1">
+      <c r="K47" s="41"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickBot="1">
       <c r="A48" s="11"/>
       <c r="B48" s="114"/>
       <c r="C48" s="116"/>
@@ -4657,8 +4895,11 @@
       <c r="F48" s="117"/>
       <c r="G48" s="117"/>
       <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="I48" s="241"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="42"/>
+    </row>
+    <row r="49" spans="2:11">
       <c r="B49" s="107"/>
       <c r="C49" s="112"/>
       <c r="D49" s="112"/>
@@ -4666,11 +4907,13 @@
       <c r="F49" s="113"/>
       <c r="G49" s="113"/>
       <c r="H49" s="99"/>
-    </row>
-    <row r="50" spans="2:8" ht="15.75" thickBot="1">
+      <c r="K49" s="41"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.75" thickBot="1">
       <c r="H50" s="41"/>
-    </row>
-    <row r="51" spans="2:8" ht="15.75" thickBot="1">
+      <c r="K50" s="41"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.75" thickBot="1">
       <c r="B51" s="105" t="s">
         <v>45</v>
       </c>
@@ -4690,8 +4933,12 @@
         <v>27</v>
       </c>
       <c r="H51" s="41"/>
-    </row>
-    <row r="52" spans="2:8">
+      <c r="J51" s="244" t="s">
+        <v>351</v>
+      </c>
+      <c r="K51" s="41"/>
+    </row>
+    <row r="52" spans="2:11">
       <c r="B52" s="2" t="s">
         <v>0</v>
       </c>
@@ -4711,8 +4958,13 @@
         <v>136</v>
       </c>
       <c r="H52" s="41"/>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="J52" s="245" t="str">
+        <f>"\textbf{"&amp;B52&amp;"}"&amp;" &amp; "&amp;"{"&amp;C52&amp;"}"&amp;" &amp; "&amp;"{"&amp;F52&amp;"}"&amp;" &amp; "&amp;"{"&amp;G52&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Nodes} &amp; {136} &amp; {136} &amp; {136}\\</v>
+      </c>
+      <c r="K52" s="41"/>
+    </row>
+    <row r="53" spans="2:11">
       <c r="B53" s="2" t="s">
         <v>1</v>
       </c>
@@ -4732,8 +4984,13 @@
         <v>748</v>
       </c>
       <c r="H53" s="41"/>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="J53" s="245" t="str">
+        <f t="shared" ref="J53:J70" si="2">"\textbf{"&amp;B53&amp;"}"&amp;" &amp; "&amp;"{"&amp;C53&amp;"}"&amp;" &amp; "&amp;"{"&amp;F53&amp;"}"&amp;" &amp; "&amp;"{"&amp;G53&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Edges} &amp; {748} &amp; {748} &amp; {748}\\</v>
+      </c>
+      <c r="K53" s="41"/>
+    </row>
+    <row r="54" spans="2:11">
       <c r="B54" s="2" t="s">
         <v>2</v>
       </c>
@@ -4753,8 +5010,13 @@
         <v>19</v>
       </c>
       <c r="H54" s="41"/>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="J54" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Type} &amp; {Undirected} &amp; {Undirected} &amp; {Undirected}\\</v>
+      </c>
+      <c r="K54" s="41"/>
+    </row>
+    <row r="55" spans="2:11">
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
@@ -4774,8 +5036,13 @@
         <v>21</v>
       </c>
       <c r="H55" s="41"/>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="J55" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Weighted} &amp; {No} &amp; {Yes} &amp; {Yes}\\</v>
+      </c>
+      <c r="K55" s="41"/>
+    </row>
+    <row r="56" spans="2:11">
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
@@ -4795,8 +5062,13 @@
         <v>21</v>
       </c>
       <c r="H56" s="41"/>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="J56" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Connected} &amp; {Yes} &amp; {Yes} &amp; {Yes}\\</v>
+      </c>
+      <c r="K56" s="41"/>
+    </row>
+    <row r="57" spans="2:11">
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
@@ -4816,8 +5088,13 @@
         <v>11</v>
       </c>
       <c r="H57" s="41"/>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="J57" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Average Degree} &amp; {11} &amp; {11} &amp; {11}\\</v>
+      </c>
+      <c r="K57" s="41"/>
+    </row>
+    <row r="58" spans="2:11">
       <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
@@ -4837,8 +5114,13 @@
         <v>12.618</v>
       </c>
       <c r="H58" s="41"/>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="J58" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Average Weighted Degree} &amp; {-} &amp; {12.721} &amp; {12.618}\\</v>
+      </c>
+      <c r="K58" s="41"/>
+    </row>
+    <row r="59" spans="2:11">
       <c r="B59" s="2" t="s">
         <v>7</v>
       </c>
@@ -4858,8 +5140,13 @@
         <v>6</v>
       </c>
       <c r="H59" s="41"/>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="J59" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Diameter} &amp; {6} &amp; {6} &amp; {6}\\</v>
+      </c>
+      <c r="K59" s="41"/>
+    </row>
+    <row r="60" spans="2:11">
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4879,8 +5166,13 @@
         <v>3</v>
       </c>
       <c r="H60" s="41"/>
-    </row>
-    <row r="61" spans="2:8">
+      <c r="J60" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Radius} &amp; {3} &amp; {3} &amp; {3}\\</v>
+      </c>
+      <c r="K60" s="41"/>
+    </row>
+    <row r="61" spans="2:11">
       <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
@@ -4900,8 +5192,13 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="H61" s="41"/>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="J61" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Density} &amp; {0.081} &amp; {0.081} &amp; {0.081}\\</v>
+      </c>
+      <c r="K61" s="41"/>
+    </row>
+    <row r="62" spans="2:11">
       <c r="B62" s="2" t="s">
         <v>10</v>
       </c>
@@ -4921,8 +5218,13 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="H62" s="41"/>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="J62" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Modularity} &amp; {0.387} &amp; {0.4} &amp; {0.424}\\</v>
+      </c>
+      <c r="K62" s="41"/>
+    </row>
+    <row r="63" spans="2:11">
       <c r="B63" s="2" t="s">
         <v>11</v>
       </c>
@@ -4942,8 +5244,13 @@
         <v>6</v>
       </c>
       <c r="H63" s="41"/>
-    </row>
-    <row r="64" spans="2:8">
+      <c r="J63" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Communities} &amp; {7} &amp; {5} &amp; {6}\\</v>
+      </c>
+      <c r="K63" s="41"/>
+    </row>
+    <row r="64" spans="2:11">
       <c r="B64" s="2" t="s">
         <v>12</v>
       </c>
@@ -4963,8 +5270,13 @@
         <v>1</v>
       </c>
       <c r="H64" s="41"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="J64" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Weak Components} &amp; {1} &amp; {1} &amp; {1}\\</v>
+      </c>
+      <c r="K64" s="41"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="B65" s="2" t="s">
         <v>13</v>
       </c>
@@ -4984,8 +5296,13 @@
         <v>0.39800000000000002</v>
       </c>
       <c r="H65" s="41"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="J65" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Node Closeness} &amp; {0.404} &amp; {0.392} &amp; {0.398}\\</v>
+      </c>
+      <c r="K65" s="41"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="B66" s="2" t="s">
         <v>14</v>
       </c>
@@ -5005,8 +5322,13 @@
         <v>106.25700000000001</v>
       </c>
       <c r="H66" s="41"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J66" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Node Betweenness} &amp; {103.978} &amp; {108.536} &amp; {106.257}\\</v>
+      </c>
+      <c r="K66" s="41"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" thickBot="1">
       <c r="B67" s="4" t="s">
         <v>15</v>
       </c>
@@ -5026,8 +5348,13 @@
         <v>31.591999999999999</v>
       </c>
       <c r="H67" s="41"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="J67" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Edge Betweenness} &amp; {31.178} &amp; {32.007} &amp; {31.592}\\</v>
+      </c>
+      <c r="K67" s="41"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="B68" s="3" t="s">
         <v>16</v>
       </c>
@@ -5047,8 +5374,13 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="H68" s="41"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J68" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Average Clustering Coefficient} &amp; {0.453} &amp; {0.453} &amp; {0.453}\\</v>
+      </c>
+      <c r="K68" s="41"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" thickBot="1">
       <c r="B69" s="4" t="s">
         <v>17</v>
       </c>
@@ -5068,8 +5400,13 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="H69" s="41"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="J69" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Eigenvector Centrality} &amp; {0.211} &amp; {0.105} &amp; {0.084}\\</v>
+      </c>
+      <c r="K69" s="41"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="B70" s="3" t="s">
         <v>18</v>
       </c>
@@ -5089,11 +5426,17 @@
         <v>2.54</v>
       </c>
       <c r="H70" s="41"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="J70" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Average Path Length} &amp; {2.54} &amp; {2.54} &amp; {2.54}\\</v>
+      </c>
+      <c r="K70" s="41"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="H71" s="41"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+      <c r="K71" s="41"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" thickBot="1">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -5102,6 +5445,9 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="42"/>
+      <c r="I72" s="241"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5111,10 +5457,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:L10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5122,41 +5468,48 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="71.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P1" s="41"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="B3" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="241" t="s">
+      <c r="C3" s="246" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242" t="s">
+      <c r="D3" s="247"/>
+      <c r="E3" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242" t="s">
+      <c r="F3" s="247"/>
+      <c r="G3" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242" t="s">
+      <c r="H3" s="247"/>
+      <c r="I3" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242" t="s">
+      <c r="J3" s="247"/>
+      <c r="K3" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="242"/>
+      <c r="L3" s="247"/>
       <c r="M3" s="41"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3" s="244" t="s">
+        <v>351</v>
+      </c>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="20" t="s">
         <v>28</v>
       </c>
@@ -5191,8 +5544,13 @@
         <v>0.377</v>
       </c>
       <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" s="245" t="str">
+        <f>"\textbf"&amp;"{"&amp;B4&amp;"}"&amp;" &amp; "&amp;"{"&amp;C4&amp;"}"&amp;" &amp; "&amp;"{"&amp;D4&amp;"}"&amp;" &amp; "&amp;"{"&amp;I4&amp;"}"&amp;" &amp; "&amp;"{"&amp;J4&amp;"}"&amp;" &amp; "&amp;"{"&amp;K4&amp;"}"&amp;" &amp; "&amp;"{"&amp;L4&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Infomap} &amp; {3} &amp; {0.004} &amp; {9} &amp; {0.332} &amp; {11} &amp; {0.377}\\</v>
+      </c>
+      <c r="P4" s="41"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5" s="162" t="s">
         <v>29</v>
       </c>
@@ -5227,8 +5585,13 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="M5" s="41"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" s="245" t="str">
+        <f t="shared" ref="O5:O11" si="0">"\textbf"&amp;"{"&amp;B5&amp;"}"&amp;" &amp; "&amp;"{"&amp;C5&amp;"}"&amp;" &amp; "&amp;"{"&amp;D5&amp;"}"&amp;" &amp; "&amp;"{"&amp;I5&amp;"}"&amp;" &amp; "&amp;"{"&amp;J5&amp;"}"&amp;" &amp; "&amp;"{"&amp;K5&amp;"}"&amp;" &amp; "&amp;"{"&amp;L5&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Spinglass} &amp; {6} &amp; {0.355} &amp; {5} &amp; {0.375} &amp; {5} &amp; {0.392}\\</v>
+      </c>
+      <c r="P5" s="41"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="B6" s="162" t="s">
         <v>30</v>
       </c>
@@ -5263,8 +5626,13 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="M6" s="41"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Louvain} &amp; {5} &amp; {0.347} &amp; {6} &amp; {0.373} &amp; {6} &amp; {0.385}\\</v>
+      </c>
+      <c r="P6" s="41"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="B7" s="162" t="s">
         <v>31</v>
       </c>
@@ -5299,8 +5667,13 @@
         <v>0</v>
       </c>
       <c r="M7" s="41"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Label Propagation} &amp; {1} &amp; {0} &amp; {1} &amp; {0} &amp; {1} &amp; {0}\\</v>
+      </c>
+      <c r="P7" s="41"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="B8" s="162" t="s">
         <v>32</v>
       </c>
@@ -5335,8 +5708,13 @@
         <v>0.311</v>
       </c>
       <c r="M8" s="41"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Leading Eigenvector} &amp; {5} &amp; {0.312} &amp; {5} &amp; {0.302} &amp; {10} &amp; {0.311}\\</v>
+      </c>
+      <c r="P8" s="41"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="B9" s="162" t="s">
         <v>33</v>
       </c>
@@ -5371,8 +5749,13 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="M9" s="41"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Walktrap} &amp; {5} &amp; {0.279} &amp; {19} &amp; {0.295} &amp; {24} &amp; {0.328}\\</v>
+      </c>
+      <c r="P9" s="41"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="B10" s="162" t="s">
         <v>34</v>
       </c>
@@ -5407,8 +5790,13 @@
         <v>0.36899999999999999</v>
       </c>
       <c r="M10" s="41"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Fast Greedy} &amp; {5} &amp; {0.314} &amp; {4} &amp; {0.359} &amp; {5} &amp; {0.369}\\</v>
+      </c>
+      <c r="P10" s="41"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11" s="162" t="s">
         <v>15</v>
       </c>
@@ -5443,8 +5831,13 @@
         <v>0.15</v>
       </c>
       <c r="M11" s="41"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Edge Betweenness} &amp; {164} &amp; {0.038} &amp; {166} &amp; {0.042} &amp; {105} &amp; {0.15}\\</v>
+      </c>
+      <c r="P11" s="41"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="B12" s="107"/>
       <c r="C12" s="111"/>
       <c r="D12" s="112"/>
@@ -5457,8 +5850,9 @@
       <c r="K12" s="111"/>
       <c r="L12" s="113"/>
       <c r="M12" s="41"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P12" s="41"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="114"/>
       <c r="C13" s="115"/>
@@ -5472,8 +5866,11 @@
       <c r="K13" s="115"/>
       <c r="L13" s="117"/>
       <c r="M13" s="42"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="241"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="42"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="100"/>
       <c r="B14" s="107"/>
       <c r="C14" s="111"/>
@@ -5487,37 +5884,43 @@
       <c r="K14" s="111"/>
       <c r="L14" s="113"/>
       <c r="M14" s="99"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P14" s="41"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1">
       <c r="M15" s="41"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P15" s="41"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1">
       <c r="B16" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="241" t="s">
+      <c r="C16" s="246" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242" t="s">
+      <c r="D16" s="247"/>
+      <c r="E16" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="242"/>
-      <c r="G16" s="242" t="s">
+      <c r="F16" s="247"/>
+      <c r="G16" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="242"/>
-      <c r="I16" s="242" t="s">
+      <c r="H16" s="247"/>
+      <c r="I16" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="242"/>
-      <c r="K16" s="242" t="s">
+      <c r="J16" s="247"/>
+      <c r="K16" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="242"/>
+      <c r="L16" s="247"/>
       <c r="M16" s="41"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16" s="244" t="s">
+        <v>351</v>
+      </c>
+      <c r="P16" s="41"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="B17" s="20" t="s">
         <v>28</v>
       </c>
@@ -5552,8 +5955,13 @@
         <v>2E-3</v>
       </c>
       <c r="M17" s="41"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17" s="245" t="str">
+        <f>"\textbf"&amp;"{"&amp;B17&amp;"}"&amp;" &amp; "&amp;"{"&amp;C17&amp;"}"&amp;" &amp; "&amp;"{"&amp;D17&amp;"}"&amp;" &amp; "&amp;"{"&amp;I17&amp;"}"&amp;" &amp; "&amp;"{"&amp;J17&amp;"}"&amp;" &amp; "&amp;"{"&amp;K17&amp;"}"&amp;" &amp; "&amp;"{"&amp;L17&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Infomap} &amp; {6} &amp; {0.007} &amp; {4} &amp; {0.002} &amp; {4} &amp; {0.002}\\</v>
+      </c>
+      <c r="P17" s="41"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="B18" s="162" t="s">
         <v>29</v>
       </c>
@@ -5588,8 +5996,13 @@
         <v>22</v>
       </c>
       <c r="M18" s="41"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18" s="245" t="str">
+        <f t="shared" ref="O18:O24" si="1">"\textbf"&amp;"{"&amp;B18&amp;"}"&amp;" &amp; "&amp;"{"&amp;C18&amp;"}"&amp;" &amp; "&amp;"{"&amp;D18&amp;"}"&amp;" &amp; "&amp;"{"&amp;I18&amp;"}"&amp;" &amp; "&amp;"{"&amp;J18&amp;"}"&amp;" &amp; "&amp;"{"&amp;K18&amp;"}"&amp;" &amp; "&amp;"{"&amp;L18&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="P18" s="41"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="B19" s="162" t="s">
         <v>30</v>
       </c>
@@ -5624,8 +6037,13 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="M19" s="41"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Louvain} &amp; {5} &amp; {0.264} &amp; {5} &amp; {0.271} &amp; {5} &amp; {0.279}\\</v>
+      </c>
+      <c r="P19" s="41"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="B20" s="162" t="s">
         <v>31</v>
       </c>
@@ -5660,8 +6078,13 @@
         <v>1E-3</v>
       </c>
       <c r="M20" s="41"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Label Propagation} &amp; {2} &amp; {0.001} &amp; {2} &amp; {0.001} &amp; {2} &amp; {0.001}\\</v>
+      </c>
+      <c r="P20" s="41"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="B21" s="162" t="s">
         <v>32</v>
       </c>
@@ -5696,8 +6119,13 @@
         <v>0.254</v>
       </c>
       <c r="M21" s="41"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Leading Eigenvector} &amp; {5} &amp; {0.243} &amp; {7} &amp; {0.248} &amp; {7} &amp; {0.254}\\</v>
+      </c>
+      <c r="P21" s="41"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="B22" s="162" t="s">
         <v>33</v>
       </c>
@@ -5732,8 +6160,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="M22" s="41"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Walktrap} &amp; {24} &amp; {0.177} &amp; {31} &amp; {0.205} &amp; {29} &amp; {0.229}\\</v>
+      </c>
+      <c r="P22" s="41"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="B23" s="162" t="s">
         <v>34</v>
       </c>
@@ -5768,8 +6201,13 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="M23" s="41"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Fast Greedy} &amp; {5} &amp; {0.222} &amp; {5} &amp; {0.251} &amp; {5} &amp; {0.262}\\</v>
+      </c>
+      <c r="P23" s="41"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="B24" s="162" t="s">
         <v>15</v>
       </c>
@@ -5804,8 +6242,13 @@
         <v>0.04</v>
       </c>
       <c r="M24" s="41"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Edge Betweenness} &amp; {123} &amp; {0.042} &amp; {121} &amp; {0.044} &amp; {101} &amp; {0.04}\\</v>
+      </c>
+      <c r="P24" s="41"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="B25" s="107"/>
       <c r="C25" s="111"/>
       <c r="D25" s="112"/>
@@ -5818,8 +6261,9 @@
       <c r="K25" s="111"/>
       <c r="L25" s="113"/>
       <c r="M25" s="41"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P25" s="41"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1">
       <c r="A26" s="11"/>
       <c r="B26" s="114"/>
       <c r="C26" s="115"/>
@@ -5833,8 +6277,11 @@
       <c r="K26" s="115"/>
       <c r="L26" s="117"/>
       <c r="M26" s="42"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="241"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="42"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="B27" s="107"/>
       <c r="C27" s="111"/>
       <c r="D27" s="112"/>
@@ -5847,37 +6294,43 @@
       <c r="K27" s="111"/>
       <c r="L27" s="113"/>
       <c r="M27" s="99"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P27" s="41"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1">
       <c r="M28" s="41"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P28" s="41"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1">
       <c r="B29" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="241" t="s">
+      <c r="C29" s="246" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="242"/>
-      <c r="E29" s="242" t="s">
+      <c r="D29" s="247"/>
+      <c r="E29" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="242"/>
-      <c r="G29" s="242" t="s">
+      <c r="F29" s="247"/>
+      <c r="G29" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="242"/>
-      <c r="I29" s="242" t="s">
+      <c r="H29" s="247"/>
+      <c r="I29" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="242"/>
-      <c r="K29" s="242" t="s">
+      <c r="J29" s="247"/>
+      <c r="K29" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="242"/>
+      <c r="L29" s="247"/>
       <c r="M29" s="41"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="O29" s="244" t="s">
+        <v>351</v>
+      </c>
+      <c r="P29" s="41"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="B30" s="20" t="s">
         <v>28</v>
       </c>
@@ -5912,8 +6365,13 @@
         <v>0.41899999999999998</v>
       </c>
       <c r="M30" s="41"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="O30" s="245" t="str">
+        <f>"\textbf"&amp;"{"&amp;B30&amp;"}"&amp;" &amp; "&amp;"{"&amp;C30&amp;"}"&amp;" &amp; "&amp;"{"&amp;D30&amp;"}"&amp;" &amp; "&amp;"{"&amp;I30&amp;"}"&amp;" &amp; "&amp;"{"&amp;J30&amp;"}"&amp;" &amp; "&amp;"{"&amp;K30&amp;"}"&amp;" &amp; "&amp;"{"&amp;L30&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Infomap} &amp; {10} &amp; {0.346} &amp; {10} &amp; {0.368} &amp; {10} &amp; {0.419}\\</v>
+      </c>
+      <c r="P30" s="41"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="B31" s="162" t="s">
         <v>29</v>
       </c>
@@ -5948,8 +6406,13 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="M31" s="41"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="O31" s="245" t="str">
+        <f t="shared" ref="O31:O37" si="2">"\textbf"&amp;"{"&amp;B31&amp;"}"&amp;" &amp; "&amp;"{"&amp;C31&amp;"}"&amp;" &amp; "&amp;"{"&amp;D31&amp;"}"&amp;" &amp; "&amp;"{"&amp;I31&amp;"}"&amp;" &amp; "&amp;"{"&amp;J31&amp;"}"&amp;" &amp; "&amp;"{"&amp;K31&amp;"}"&amp;" &amp; "&amp;"{"&amp;L31&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Spinglass} &amp; {7} &amp; {0.396} &amp; {6} &amp; {0.41} &amp; {7} &amp; {0.426}\\</v>
+      </c>
+      <c r="P31" s="41"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="B32" s="162" t="s">
         <v>30</v>
       </c>
@@ -5984,8 +6447,13 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="M32" s="41"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="O32" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Louvain} &amp; {7} &amp; {0.387} &amp; {5} &amp; {0.4} &amp; {6} &amp; {0.424}\\</v>
+      </c>
+      <c r="P32" s="41"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="B33" s="162" t="s">
         <v>31</v>
       </c>
@@ -6020,8 +6488,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="41"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="O33" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Label Propagation} &amp; {1} &amp; {0} &amp; {3} &amp; {0.096} &amp; {1} &amp; {0}\\</v>
+      </c>
+      <c r="P33" s="41"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="B34" s="162" t="s">
         <v>32</v>
       </c>
@@ -6056,8 +6529,13 @@
         <v>0.373</v>
       </c>
       <c r="M34" s="41"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="O34" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Leading Eigenvector} &amp; {5} &amp; {0.371} &amp; {8} &amp; {0.349} &amp; {8} &amp; {0.373}\\</v>
+      </c>
+      <c r="P34" s="41"/>
+    </row>
+    <row r="35" spans="1:16">
       <c r="B35" s="162" t="s">
         <v>33</v>
       </c>
@@ -6092,8 +6570,13 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="M35" s="41"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="O35" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Walktrap} &amp; {20} &amp; {0.346} &amp; {23} &amp; {0.371} &amp; {20} &amp; {0.395}\\</v>
+      </c>
+      <c r="P35" s="41"/>
+    </row>
+    <row r="36" spans="1:16">
       <c r="B36" s="162" t="s">
         <v>34</v>
       </c>
@@ -6128,8 +6611,13 @@
         <v>0.41399999999999998</v>
       </c>
       <c r="M36" s="41"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="O36" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Fast Greedy} &amp; {6} &amp; {0.377} &amp; {6} &amp; {0.407} &amp; {5} &amp; {0.414}\\</v>
+      </c>
+      <c r="P36" s="41"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="B37" s="162" t="s">
         <v>15</v>
       </c>
@@ -6164,11 +6652,17 @@
         <v>0.246</v>
       </c>
       <c r="M37" s="41"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="O37" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Edge Betweenness} &amp; {49} &amp; {0.238} &amp; {26} &amp; {0.293} &amp; {25} &amp; {0.246}\\</v>
+      </c>
+      <c r="P37" s="41"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="M38" s="41"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P38" s="41"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" thickBot="1">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -6182,6 +6676,9 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="42"/>
+      <c r="N39" s="241"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6207,54 +6704,58 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:L6"/>
+    <sheetView topLeftCell="D61" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="63.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:17">
       <c r="M1" s="100"/>
       <c r="N1" s="41"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1">
+      <c r="Q1" s="41"/>
+    </row>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1">
       <c r="M2" s="100"/>
       <c r="N2" s="41"/>
-    </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1">
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="3" spans="2:17" ht="15.75" thickBot="1">
       <c r="B3" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="243" t="s">
+      <c r="C3" s="248" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244" t="s">
+      <c r="D3" s="246"/>
+      <c r="E3" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="241"/>
-      <c r="G3" s="244" t="s">
+      <c r="F3" s="246"/>
+      <c r="G3" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="241"/>
-      <c r="I3" s="244" t="s">
+      <c r="H3" s="246"/>
+      <c r="I3" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="241"/>
-      <c r="K3" s="242" t="s">
+      <c r="J3" s="246"/>
+      <c r="K3" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="242"/>
+      <c r="L3" s="247"/>
       <c r="M3" s="100"/>
       <c r="N3" s="41"/>
-    </row>
-    <row r="4" spans="2:14">
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="154" t="s">
         <v>29</v>
       </c>
@@ -6290,8 +6791,9 @@
       </c>
       <c r="M4" s="100"/>
       <c r="N4" s="41"/>
-    </row>
-    <row r="5" spans="2:14">
+      <c r="Q4" s="41"/>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
@@ -6327,8 +6829,9 @@
       </c>
       <c r="M5" s="100"/>
       <c r="N5" s="41"/>
-    </row>
-    <row r="6" spans="2:14">
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
@@ -6364,16 +6867,18 @@
       </c>
       <c r="M6" s="100"/>
       <c r="N6" s="41"/>
-    </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1">
+      <c r="Q6" s="41"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1">
       <c r="M7" s="100"/>
       <c r="N7" s="41"/>
-    </row>
-    <row r="8" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B8" s="251" t="s">
+      <c r="Q7" s="41"/>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B8" s="256" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="252"/>
+      <c r="C8" s="257"/>
       <c r="D8" s="231" t="s">
         <v>35</v>
       </c>
@@ -6400,9 +6905,13 @@
       </c>
       <c r="M8" s="100"/>
       <c r="N8" s="41"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="249" t="s">
+      <c r="P8" s="244" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="254" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -6434,9 +6943,14 @@
       </c>
       <c r="M9" s="100"/>
       <c r="N9" s="41"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="249"/>
+      <c r="P9" s="245" t="str">
+        <f>"&amp; "&amp;"\textbf{"&amp;C9&amp;"}"&amp;" &amp; "&amp;"{"&amp;D9&amp;"}"&amp;" &amp; "&amp;"{"&amp;E9&amp;"}"&amp;" &amp; "&amp;"{"&amp;F9&amp;"}"&amp;" &amp; "&amp;"{"&amp;G9&amp;"}"&amp;" &amp; "&amp;"{"&amp;H9&amp;"}"&amp;" &amp; "&amp;"{"&amp;I9&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Spinglass} &amp; {35} &amp; {60} &amp; {25} &amp; {53} &amp; {36} &amp; {14}\\</v>
+      </c>
+      <c r="Q9" s="41"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="254"/>
       <c r="C10" s="18" t="s">
         <v>30</v>
       </c>
@@ -6466,9 +6980,14 @@
       </c>
       <c r="M10" s="100"/>
       <c r="N10" s="41"/>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B11" s="250"/>
+      <c r="P10" s="245" t="str">
+        <f t="shared" ref="P10:P23" si="0">"&amp; "&amp;"\textbf{"&amp;C10&amp;"}"&amp;" &amp; "&amp;"{"&amp;D10&amp;"}"&amp;" &amp; "&amp;"{"&amp;E10&amp;"}"&amp;" &amp; "&amp;"{"&amp;F10&amp;"}"&amp;" &amp; "&amp;"{"&amp;G10&amp;"}"&amp;" &amp; "&amp;"{"&amp;H10&amp;"}"&amp;" &amp; "&amp;"{"&amp;I10&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Louvain} &amp; {46} &amp; {61} &amp; {36} &amp; {60} &amp; {20} &amp; {-}\\</v>
+      </c>
+      <c r="Q10" s="41"/>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B11" s="255"/>
       <c r="C11" s="21" t="s">
         <v>34</v>
       </c>
@@ -6498,9 +7017,14 @@
       </c>
       <c r="M11" s="100"/>
       <c r="N11" s="41"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="248" t="s">
+      <c r="P11" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {95} &amp; {57} &amp; {60} &amp; {8} &amp; {3} &amp; {-}\\</v>
+      </c>
+      <c r="Q11" s="41"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="253" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -6532,9 +7056,14 @@
       </c>
       <c r="M12" s="100"/>
       <c r="N12" s="41"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="249"/>
+      <c r="P12" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Spinglass} &amp; {10} &amp; {53} &amp; {1} &amp; {4} &amp; {37} &amp; {18}\\</v>
+      </c>
+      <c r="Q12" s="41"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="254"/>
       <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
@@ -6564,9 +7093,14 @@
       </c>
       <c r="M13" s="100"/>
       <c r="N13" s="41"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B14" s="250"/>
+      <c r="P13" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Louvain} &amp; {43} &amp; {15} &amp; {10} &amp; {27} &amp; {64} &amp; {35}\\</v>
+      </c>
+      <c r="Q13" s="41"/>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B14" s="255"/>
       <c r="C14" s="21" t="s">
         <v>34</v>
       </c>
@@ -6596,9 +7130,14 @@
       </c>
       <c r="M14" s="100"/>
       <c r="N14" s="41"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="245" t="s">
+      <c r="P14" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {41} &amp; {19} &amp; {64} &amp; {42} &amp; {36} &amp; {21}\\</v>
+      </c>
+      <c r="Q14" s="41"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="250" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -6630,9 +7169,14 @@
       </c>
       <c r="M15" s="100"/>
       <c r="N15" s="41"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="246"/>
+      <c r="P15" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Spinglass} &amp; {1} &amp; {26} &amp; {55} &amp; {67} &amp; {46} &amp; {1}\\</v>
+      </c>
+      <c r="Q15" s="41"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="251"/>
       <c r="C16" s="18" t="s">
         <v>30</v>
       </c>
@@ -6662,9 +7206,14 @@
       </c>
       <c r="M16" s="100"/>
       <c r="N16" s="41"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B17" s="247"/>
+      <c r="P16" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Louvain} &amp; {11} &amp; {52} &amp; {12} &amp; {68} &amp; {32} &amp; {48}\\</v>
+      </c>
+      <c r="Q16" s="41"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B17" s="252"/>
       <c r="C17" s="21" t="s">
         <v>34</v>
       </c>
@@ -6694,9 +7243,14 @@
       </c>
       <c r="M17" s="100"/>
       <c r="N17" s="41"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="B18" s="245" t="s">
+      <c r="P17" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {19} &amp; {31} &amp; {17} &amp; {67} &amp; {44} &amp; {45}\\</v>
+      </c>
+      <c r="Q17" s="41"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="B18" s="250" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -6728,9 +7282,14 @@
       </c>
       <c r="M18" s="100"/>
       <c r="N18" s="41"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="B19" s="246"/>
+      <c r="P18" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Spinglass} &amp; {61} &amp; {35} &amp; {37} &amp; {30} &amp; {60} &amp; {-}\\</v>
+      </c>
+      <c r="Q18" s="41"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="251"/>
       <c r="C19" s="18" t="s">
         <v>30</v>
       </c>
@@ -6760,9 +7319,14 @@
       </c>
       <c r="M19" s="100"/>
       <c r="N19" s="41"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B20" s="247"/>
+      <c r="P19" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Louvain} &amp; {29} &amp; {61} &amp; {63} &amp; {10} &amp; {34} &amp; {26}\\</v>
+      </c>
+      <c r="Q19" s="41"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B20" s="252"/>
       <c r="C20" s="21" t="s">
         <v>34</v>
       </c>
@@ -6792,9 +7356,14 @@
       </c>
       <c r="M20" s="100"/>
       <c r="N20" s="41"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="B21" s="253" t="s">
+      <c r="P20" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {35} &amp; {84} &amp; {66} &amp; {38} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q20" s="41"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="258" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="20" t="s">
@@ -6826,9 +7395,14 @@
       </c>
       <c r="M21" s="100"/>
       <c r="N21" s="41"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="B22" s="246"/>
+      <c r="P21" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Spinglass} &amp; {63} &amp; {17} &amp; {51} &amp; {63} &amp; {29} &amp; {-}\\</v>
+      </c>
+      <c r="Q21" s="41"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="251"/>
       <c r="C22" s="18" t="s">
         <v>30</v>
       </c>
@@ -6858,9 +7432,14 @@
       </c>
       <c r="M22" s="100"/>
       <c r="N22" s="41"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="B23" s="246"/>
+      <c r="P22" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Louvain} &amp; {46} &amp; {9} &amp; {29} &amp; {61} &amp; {43} &amp; {35}\\</v>
+      </c>
+      <c r="Q22" s="41"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="B23" s="251"/>
       <c r="C23" s="18" t="s">
         <v>34</v>
       </c>
@@ -6890,8 +7469,13 @@
       </c>
       <c r="M23" s="100"/>
       <c r="N23" s="41"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="P23" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {24} &amp; {75} &amp; {69} &amp; {33} &amp; {22} &amp; {-}\\</v>
+      </c>
+      <c r="Q23" s="41"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="B24" s="106"/>
       <c r="C24" s="107"/>
       <c r="D24" s="108"/>
@@ -6904,8 +7488,9 @@
       <c r="K24" s="109"/>
       <c r="M24" s="100"/>
       <c r="N24" s="41"/>
-    </row>
-    <row r="25" spans="1:14" s="100" customFormat="1" ht="15.75" thickBot="1">
+      <c r="Q24" s="41"/>
+    </row>
+    <row r="25" spans="1:17" s="100" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6920,43 +7505,49 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="42"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="241"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="42"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="M26" s="100"/>
       <c r="N26" s="41"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q26" s="99"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" thickBot="1">
       <c r="M27" s="100"/>
       <c r="N27" s="41"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q27" s="41"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1">
       <c r="B28" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="254" t="s">
+      <c r="C28" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="241"/>
-      <c r="E28" s="244" t="s">
+      <c r="D28" s="246"/>
+      <c r="E28" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="241"/>
-      <c r="G28" s="244" t="s">
+      <c r="F28" s="246"/>
+      <c r="G28" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="241"/>
-      <c r="I28" s="244" t="s">
+      <c r="H28" s="246"/>
+      <c r="I28" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="241"/>
-      <c r="K28" s="242" t="s">
+      <c r="J28" s="246"/>
+      <c r="K28" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="242"/>
+      <c r="L28" s="247"/>
       <c r="M28" s="100"/>
       <c r="N28" s="41"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="Q28" s="41"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
@@ -6992,8 +7583,9 @@
       </c>
       <c r="M29" s="100"/>
       <c r="N29" s="41"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="Q29" s="41"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
@@ -7029,8 +7621,9 @@
       </c>
       <c r="M30" s="100"/>
       <c r="N30" s="41"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="Q30" s="41"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
@@ -7066,16 +7659,18 @@
       </c>
       <c r="M31" s="100"/>
       <c r="N31" s="41"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q31" s="41"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" thickBot="1">
       <c r="M32" s="100"/>
       <c r="N32" s="41"/>
-    </row>
-    <row r="33" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B33" s="251" t="s">
+      <c r="Q32" s="41"/>
+    </row>
+    <row r="33" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B33" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="252"/>
+      <c r="C33" s="257"/>
       <c r="D33" s="229" t="s">
         <v>35</v>
       </c>
@@ -7102,9 +7697,13 @@
       </c>
       <c r="M33" s="100"/>
       <c r="N33" s="41"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="249" t="s">
+      <c r="P33" s="244" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q33" s="41"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="254" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="20" t="s">
@@ -7136,9 +7735,14 @@
       </c>
       <c r="M34" s="100"/>
       <c r="N34" s="41"/>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" s="249"/>
+      <c r="P34" s="245" t="str">
+        <f>"&amp; "&amp;"\textbf{"&amp;C34&amp;"}"&amp;" &amp; "&amp;"{"&amp;D34&amp;"}"&amp;" &amp; "&amp;"{"&amp;E34&amp;"}"&amp;" &amp; "&amp;"{"&amp;F34&amp;"}"&amp;" &amp; "&amp;"{"&amp;G34&amp;"}"&amp;" &amp; "&amp;"{"&amp;H34&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q34" s="41"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="254"/>
       <c r="C35" s="18" t="s">
         <v>30</v>
       </c>
@@ -7168,9 +7772,14 @@
       </c>
       <c r="M35" s="100"/>
       <c r="N35" s="41"/>
-    </row>
-    <row r="36" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B36" s="250"/>
+      <c r="P35" s="245" t="str">
+        <f t="shared" ref="P35:P48" si="1">"&amp; "&amp;"\textbf{"&amp;C35&amp;"}"&amp;" &amp; "&amp;"{"&amp;D35&amp;"}"&amp;" &amp; "&amp;"{"&amp;E35&amp;"}"&amp;" &amp; "&amp;"{"&amp;F35&amp;"}"&amp;" &amp; "&amp;"{"&amp;G35&amp;"}"&amp;" &amp; "&amp;"{"&amp;H35&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Louvain} &amp; {67} &amp; {43} &amp; {25} &amp; {2} &amp; {71}\\</v>
+      </c>
+      <c r="Q35" s="41"/>
+    </row>
+    <row r="36" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B36" s="255"/>
       <c r="C36" s="21" t="s">
         <v>34</v>
       </c>
@@ -7200,9 +7809,14 @@
       </c>
       <c r="M36" s="100"/>
       <c r="N36" s="41"/>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="248" t="s">
+      <c r="P36" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {93} &amp; {22} &amp; {89} &amp; {2} &amp; {2}\\</v>
+      </c>
+      <c r="Q36" s="41"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="253" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="22" t="s">
@@ -7234,9 +7848,14 @@
       </c>
       <c r="M37" s="100"/>
       <c r="N37" s="41"/>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="249"/>
+      <c r="P37" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q37" s="41"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="254"/>
       <c r="C38" s="18" t="s">
         <v>30</v>
       </c>
@@ -7266,9 +7885,14 @@
       </c>
       <c r="M38" s="100"/>
       <c r="N38" s="41"/>
-    </row>
-    <row r="39" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B39" s="250"/>
+      <c r="P38" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Louvain} &amp; {23} &amp; {15} &amp; {21} &amp; {2} &amp; {57}\\</v>
+      </c>
+      <c r="Q38" s="41"/>
+    </row>
+    <row r="39" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B39" s="255"/>
       <c r="C39" s="21" t="s">
         <v>34</v>
       </c>
@@ -7298,9 +7922,14 @@
       </c>
       <c r="M39" s="100"/>
       <c r="N39" s="41"/>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="245" t="s">
+      <c r="P39" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {87} &amp; {46} &amp; {50} &amp; {23} &amp; {2}\\</v>
+      </c>
+      <c r="Q39" s="41"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="250" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="22" t="s">
@@ -7332,9 +7961,14 @@
       </c>
       <c r="M40" s="100"/>
       <c r="N40" s="41"/>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="246"/>
+      <c r="P40" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q40" s="41"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="251"/>
       <c r="C41" s="18" t="s">
         <v>30</v>
       </c>
@@ -7364,9 +7998,14 @@
       </c>
       <c r="M41" s="100"/>
       <c r="N41" s="41"/>
-    </row>
-    <row r="42" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B42" s="247"/>
+      <c r="P41" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Louvain} &amp; {32} &amp; {23} &amp; {61} &amp; {30} &amp; {58}\\</v>
+      </c>
+      <c r="Q41" s="41"/>
+    </row>
+    <row r="42" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B42" s="252"/>
       <c r="C42" s="21" t="s">
         <v>34</v>
       </c>
@@ -7396,9 +8035,14 @@
       </c>
       <c r="M42" s="100"/>
       <c r="N42" s="41"/>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="245" t="s">
+      <c r="P42" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {67} &amp; {33} &amp; {23} &amp; {61} &amp; {20}\\</v>
+      </c>
+      <c r="Q42" s="41"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="250" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="22" t="s">
@@ -7430,9 +8074,14 @@
       </c>
       <c r="M43" s="100"/>
       <c r="N43" s="41"/>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="246"/>
+      <c r="P43" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q43" s="41"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="251"/>
       <c r="C44" s="18" t="s">
         <v>30</v>
       </c>
@@ -7462,9 +8111,14 @@
       </c>
       <c r="M44" s="100"/>
       <c r="N44" s="41"/>
-    </row>
-    <row r="45" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B45" s="247"/>
+      <c r="P44" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Louvain} &amp; {67} &amp; {43} &amp; {25} &amp; {2} &amp; {71}\\</v>
+      </c>
+      <c r="Q44" s="41"/>
+    </row>
+    <row r="45" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B45" s="252"/>
       <c r="C45" s="21" t="s">
         <v>34</v>
       </c>
@@ -7494,9 +8148,14 @@
       </c>
       <c r="M45" s="100"/>
       <c r="N45" s="41"/>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="B46" s="253" t="s">
+      <c r="P45" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {89} &amp; {46} &amp; {69} &amp; {2} &amp; {2}\\</v>
+      </c>
+      <c r="Q45" s="41"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="258" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="20" t="s">
@@ -7528,9 +8187,14 @@
       </c>
       <c r="M46" s="100"/>
       <c r="N46" s="41"/>
-    </row>
-    <row r="47" spans="2:14">
-      <c r="B47" s="246"/>
+      <c r="P46" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q46" s="41"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="251"/>
       <c r="C47" s="18" t="s">
         <v>30</v>
       </c>
@@ -7560,9 +8224,14 @@
       </c>
       <c r="M47" s="100"/>
       <c r="N47" s="41"/>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="B48" s="246"/>
+      <c r="P47" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Louvain} &amp; {30} &amp; {67} &amp; {2} &amp; {58} &amp; {51}\\</v>
+      </c>
+      <c r="Q47" s="41"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="251"/>
       <c r="C48" s="18" t="s">
         <v>34</v>
       </c>
@@ -7592,12 +8261,18 @@
       </c>
       <c r="M48" s="100"/>
       <c r="N48" s="41"/>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="P48" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {63} &amp; {51} &amp; {17} &amp; {75} &amp; {2}\\</v>
+      </c>
+      <c r="Q48" s="41"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="M49" s="100"/>
       <c r="N49" s="41"/>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q49" s="41"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -7612,8 +8287,11 @@
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="N50" s="42"/>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="241"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="42"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="100"/>
       <c r="B51" s="100"/>
       <c r="C51" s="100"/>
@@ -7628,39 +8306,42 @@
       <c r="L51" s="100"/>
       <c r="M51" s="100"/>
       <c r="N51" s="41"/>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q51" s="99"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" thickBot="1">
       <c r="M52" s="100"/>
       <c r="N52" s="41"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q52" s="41"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" thickBot="1">
       <c r="B53" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="243" t="s">
+      <c r="C53" s="248" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="241"/>
-      <c r="E53" s="244" t="s">
+      <c r="D53" s="246"/>
+      <c r="E53" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="241"/>
-      <c r="G53" s="244" t="s">
+      <c r="F53" s="246"/>
+      <c r="G53" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="241"/>
-      <c r="I53" s="244" t="s">
+      <c r="H53" s="246"/>
+      <c r="I53" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="J53" s="241"/>
-      <c r="K53" s="242" t="s">
+      <c r="J53" s="246"/>
+      <c r="K53" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="242"/>
+      <c r="L53" s="247"/>
       <c r="M53" s="100"/>
       <c r="N53" s="41"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="Q53" s="41"/>
+    </row>
+    <row r="54" spans="1:17">
       <c r="B54" s="154" t="s">
         <v>29</v>
       </c>
@@ -7696,8 +8377,9 @@
       </c>
       <c r="M54" s="100"/>
       <c r="N54" s="41"/>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="Q54" s="41"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="B55" s="2" t="s">
         <v>30</v>
       </c>
@@ -7733,8 +8415,9 @@
       </c>
       <c r="M55" s="100"/>
       <c r="N55" s="41"/>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="Q55" s="41"/>
+    </row>
+    <row r="56" spans="1:17">
       <c r="B56" s="2" t="s">
         <v>34</v>
       </c>
@@ -7770,16 +8453,18 @@
       </c>
       <c r="M56" s="100"/>
       <c r="N56" s="41"/>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q56" s="41"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" thickBot="1">
       <c r="M57" s="100"/>
       <c r="N57" s="41"/>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B58" s="251" t="s">
+      <c r="Q57" s="41"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B58" s="256" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="252"/>
+      <c r="C58" s="257"/>
       <c r="D58" s="229" t="s">
         <v>35</v>
       </c>
@@ -7811,9 +8496,13 @@
         <v>334</v>
       </c>
       <c r="N58" s="41"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="B59" s="249" t="s">
+      <c r="P58" s="244" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q58" s="41"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="B59" s="254" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="20" t="s">
@@ -7850,9 +8539,14 @@
         <v>22</v>
       </c>
       <c r="N59" s="41"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="249"/>
+      <c r="P59" s="245" t="str">
+        <f>"&amp; "&amp;"\textbf{"&amp;C59&amp;"}"&amp;" &amp; "&amp;"{"&amp;D59&amp;"}"&amp;" &amp; "&amp;"{"&amp;E59&amp;"}"&amp;" &amp; "&amp;"{"&amp;F59&amp;"}"&amp;" &amp; "&amp;"{"&amp;G59&amp;"}"&amp;" &amp; "&amp;"{"&amp;H59&amp;"}"&amp;" &amp; "&amp;"{"&amp;I59&amp;"}"&amp;" &amp; "&amp;"{"&amp;J59&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Spinglass} &amp; {40} &amp; {17} &amp; {3} &amp; {3} &amp; {2} &amp; {33} &amp; {38}\\</v>
+      </c>
+      <c r="Q59" s="41"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="B60" s="254"/>
       <c r="C60" s="18" t="s">
         <v>30</v>
       </c>
@@ -7887,9 +8581,14 @@
         <v>22</v>
       </c>
       <c r="N60" s="41"/>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B61" s="250"/>
+      <c r="P60" s="245" t="str">
+        <f t="shared" ref="P60:P73" si="2">"&amp; "&amp;"\textbf{"&amp;C60&amp;"}"&amp;" &amp; "&amp;"{"&amp;D60&amp;"}"&amp;" &amp; "&amp;"{"&amp;E60&amp;"}"&amp;" &amp; "&amp;"{"&amp;F60&amp;"}"&amp;" &amp; "&amp;"{"&amp;G60&amp;"}"&amp;" &amp; "&amp;"{"&amp;H60&amp;"}"&amp;" &amp; "&amp;"{"&amp;I60&amp;"}"&amp;" &amp; "&amp;"{"&amp;J60&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Louvain} &amp; {17} &amp; {23} &amp; {29} &amp; {21} &amp; {5} &amp; {30} &amp; {11}\\</v>
+      </c>
+      <c r="Q60" s="41"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B61" s="255"/>
       <c r="C61" s="21" t="s">
         <v>34</v>
       </c>
@@ -7924,9 +8623,14 @@
         <v>22</v>
       </c>
       <c r="N61" s="41"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="B62" s="248" t="s">
+      <c r="P61" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {22} &amp; {48} &amp; {22} &amp; {39} &amp; {3} &amp; {2} &amp; {-}\\</v>
+      </c>
+      <c r="Q61" s="41"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="B62" s="253" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="22" t="s">
@@ -7963,9 +8667,14 @@
         <v>10</v>
       </c>
       <c r="N62" s="41"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="B63" s="249"/>
+      <c r="P62" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Spinglass} &amp; {3} &amp; {17} &amp; {13} &amp; {16} &amp; {17} &amp; {26} &amp; {16}\\</v>
+      </c>
+      <c r="Q62" s="41"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="B63" s="254"/>
       <c r="C63" s="18" t="s">
         <v>30</v>
       </c>
@@ -8000,9 +8709,14 @@
         <v>22</v>
       </c>
       <c r="N63" s="41"/>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B64" s="250"/>
+      <c r="P63" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Louvain} &amp; {28} &amp; {19} &amp; {24} &amp; {16} &amp; {12} &amp; {37} &amp; {-}\\</v>
+      </c>
+      <c r="Q63" s="41"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B64" s="255"/>
       <c r="C64" s="21" t="s">
         <v>34</v>
       </c>
@@ -8037,9 +8751,14 @@
         <v>22</v>
       </c>
       <c r="N64" s="41"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="B65" s="245" t="s">
+      <c r="P64" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {26} &amp; {17} &amp; {31} &amp; {37} &amp; {19} &amp; {6} &amp; {-}\\</v>
+      </c>
+      <c r="Q64" s="41"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="B65" s="250" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="22" t="s">
@@ -8076,9 +8795,14 @@
         <v>22</v>
       </c>
       <c r="N65" s="41"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="B66" s="246"/>
+      <c r="P65" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Spinglass} &amp; {2} &amp; {10} &amp; {3} &amp; {16} &amp; {29} &amp; {26} &amp; {39}\\</v>
+      </c>
+      <c r="Q65" s="41"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="B66" s="251"/>
       <c r="C66" s="18" t="s">
         <v>30</v>
       </c>
@@ -8113,9 +8837,14 @@
         <v>22</v>
       </c>
       <c r="N66" s="41"/>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B67" s="247"/>
+      <c r="P66" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Louvain} &amp; {30} &amp; {10} &amp; {20} &amp; {16} &amp; {23} &amp; {3} &amp; {34}\\</v>
+      </c>
+      <c r="Q66" s="41"/>
+    </row>
+    <row r="67" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B67" s="252"/>
       <c r="C67" s="21" t="s">
         <v>34</v>
       </c>
@@ -8150,9 +8879,14 @@
         <v>22</v>
       </c>
       <c r="N67" s="41"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="B68" s="245" t="s">
+      <c r="P67" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {38} &amp; {16} &amp; {11} &amp; {24} &amp; {30} &amp; {3} &amp; {14}\\</v>
+      </c>
+      <c r="Q67" s="41"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="B68" s="250" t="s">
         <v>26</v>
       </c>
       <c r="C68" s="22" t="s">
@@ -8189,9 +8923,14 @@
         <v>22</v>
       </c>
       <c r="N68" s="41"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="B69" s="246"/>
+      <c r="P68" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Spinglass} &amp; {34} &amp; {8} &amp; {28} &amp; {17} &amp; {10} &amp; {39} &amp; {-}\\</v>
+      </c>
+      <c r="Q68" s="41"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="B69" s="251"/>
       <c r="C69" s="18" t="s">
         <v>30</v>
       </c>
@@ -8226,9 +8965,14 @@
         <v>22</v>
       </c>
       <c r="N69" s="41"/>
-    </row>
-    <row r="70" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B70" s="247"/>
+      <c r="P69" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Louvain} &amp; {28} &amp; {25} &amp; {17} &amp; {39} &amp; {27} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q69" s="41"/>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B70" s="252"/>
       <c r="C70" s="21" t="s">
         <v>34</v>
       </c>
@@ -8263,9 +9007,14 @@
         <v>22</v>
       </c>
       <c r="N70" s="41"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="B71" s="253" t="s">
+      <c r="P70" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {19} &amp; {34} &amp; {41} &amp; {29} &amp; {5} &amp; {8} &amp; {-}\\</v>
+      </c>
+      <c r="Q70" s="41"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="B71" s="258" t="s">
         <v>27</v>
       </c>
       <c r="C71" s="20" t="s">
@@ -8302,9 +9051,14 @@
         <v>22</v>
       </c>
       <c r="N71" s="41"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="B72" s="246"/>
+      <c r="P71" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Spinglass} &amp; {1} &amp; {7} &amp; {40} &amp; {42} &amp; {9} &amp; {17} &amp; {20}\\</v>
+      </c>
+      <c r="Q71" s="41"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="B72" s="251"/>
       <c r="C72" s="18" t="s">
         <v>30</v>
       </c>
@@ -8339,9 +9093,14 @@
         <v>22</v>
       </c>
       <c r="N72" s="41"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="B73" s="246"/>
+      <c r="P72" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Louvain} &amp; {27} &amp; {17} &amp; {37} &amp; {24} &amp; {10} &amp; {21} &amp; {-}\\</v>
+      </c>
+      <c r="Q72" s="41"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="B73" s="251"/>
       <c r="C73" s="18" t="s">
         <v>34</v>
       </c>
@@ -8376,12 +9135,18 @@
         <v>22</v>
       </c>
       <c r="N73" s="41"/>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="P73" s="245" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {19} &amp; {27} &amp; {47} &amp; {37} &amp; {6} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q73" s="41"/>
+    </row>
+    <row r="74" spans="1:17">
       <c r="M74" s="100"/>
       <c r="N74" s="41"/>
-    </row>
-    <row r="75" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q74" s="41"/>
+    </row>
+    <row r="75" spans="1:17" ht="15.75" thickBot="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -8396,6 +9161,9 @@
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
       <c r="N75" s="42"/>
+      <c r="O75" s="241"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -8440,10 +9208,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X111"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8457,65 +9225,72 @@
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="70.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="147.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:27">
       <c r="X1" s="41"/>
-    </row>
-    <row r="2" spans="2:24" ht="15.75" thickBot="1">
+      <c r="AA1" s="41"/>
+    </row>
+    <row r="2" spans="2:27" ht="15.75" thickBot="1">
       <c r="X2" s="41"/>
-    </row>
-    <row r="3" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B3" s="251" t="s">
+      <c r="AA2" s="41"/>
+    </row>
+    <row r="3" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B3" s="256" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="252"/>
-      <c r="D3" s="254" t="s">
+      <c r="C3" s="257"/>
+      <c r="D3" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="241"/>
-      <c r="F3" s="244" t="s">
+      <c r="E3" s="246"/>
+      <c r="F3" s="249" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="241"/>
-      <c r="H3" s="244" t="s">
+      <c r="G3" s="246"/>
+      <c r="H3" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="241"/>
-      <c r="J3" s="244" t="s">
+      <c r="I3" s="246"/>
+      <c r="J3" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="241"/>
-      <c r="L3" s="244" t="s">
+      <c r="K3" s="246"/>
+      <c r="L3" s="249" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="241"/>
-      <c r="N3" s="256" t="s">
+      <c r="M3" s="246"/>
+      <c r="N3" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="257"/>
-      <c r="P3" s="256" t="s">
+      <c r="O3" s="262"/>
+      <c r="P3" s="261" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="255" t="s">
+      <c r="Q3" s="262"/>
+      <c r="R3" s="260" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="255"/>
+      <c r="S3" s="260"/>
       <c r="T3" s="146"/>
       <c r="U3" s="146"/>
       <c r="V3" s="146"/>
       <c r="W3" s="146"/>
       <c r="X3" s="41"/>
-    </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="260" t="s">
+      <c r="Z3" s="244" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA3" s="41"/>
+    </row>
+    <row r="4" spans="2:27">
+      <c r="B4" s="265" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="83" t="s">
@@ -8574,9 +9349,14 @@
       <c r="V4" s="146"/>
       <c r="W4" s="146"/>
       <c r="X4" s="41"/>
-    </row>
-    <row r="5" spans="2:24">
-      <c r="B5" s="261"/>
+      <c r="Z4" s="245" t="str">
+        <f>"&amp; "&amp;"{"&amp;D4&amp;"}"&amp;" &amp; "&amp;"{"&amp;F4&amp;"}"&amp;" &amp; "&amp;"{"&amp;H4&amp;"}"&amp;" &amp; "&amp;"{"&amp;J4&amp;"}"&amp;" &amp; "&amp;"{"&amp;L4&amp;"}"&amp;" &amp; "&amp;"{"&amp;N4&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E4&amp;"}"&amp;" &amp; "&amp;"{"&amp;G4&amp;"}"&amp;" &amp; "&amp;"{"&amp;I4&amp;"}"&amp;" &amp; "&amp;"{"&amp;K4&amp;"}"&amp;" &amp; "&amp;"{"&amp;M4&amp;"}"&amp;" &amp; "&amp;"{"&amp;O4&amp;"}"&amp;"\\"</f>
+        <v>&amp; {376} &amp; {727} &amp; {483} &amp; {1402} &amp; {711} &amp; {185}\\&amp; {468270278} &amp; {830322728} &amp; {769473311} &amp; {1694060666} &amp; {769402322} &amp; {232331000}\\</v>
+      </c>
+      <c r="AA4" s="41"/>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="B5" s="266"/>
       <c r="C5" s="31" t="s">
         <v>30</v>
       </c>
@@ -8633,9 +9413,14 @@
       <c r="V5" s="146"/>
       <c r="W5" s="146"/>
       <c r="X5" s="41"/>
-    </row>
-    <row r="6" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B6" s="262"/>
+      <c r="Z5" s="245" t="str">
+        <f t="shared" ref="Z5:Z18" si="0">"&amp; "&amp;"{"&amp;D5&amp;"}"&amp;" &amp; "&amp;"{"&amp;F5&amp;"}"&amp;" &amp; "&amp;"{"&amp;H5&amp;"}"&amp;" &amp; "&amp;"{"&amp;J5&amp;"}"&amp;" &amp; "&amp;"{"&amp;L5&amp;"}"&amp;" &amp; "&amp;"{"&amp;N5&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E5&amp;"}"&amp;" &amp; "&amp;"{"&amp;G5&amp;"}"&amp;" &amp; "&amp;"{"&amp;I5&amp;"}"&amp;" &amp; "&amp;"{"&amp;K5&amp;"}"&amp;" &amp; "&amp;"{"&amp;M5&amp;"}"&amp;" &amp; "&amp;"{"&amp;O5&amp;"}"&amp;"\\"</f>
+        <v>&amp; {590} &amp; {1351} &amp; {685} &amp; {727} &amp; {583} &amp; {-}\\&amp; {689114614} &amp; {1738983865} &amp; {843558389} &amp; {830322728} &amp; {729017645} &amp; {-}\\</v>
+      </c>
+      <c r="AA5" s="41"/>
+    </row>
+    <row r="6" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B6" s="267"/>
       <c r="C6" s="35" t="s">
         <v>34</v>
       </c>
@@ -8692,9 +9477,14 @@
       <c r="V6" s="146"/>
       <c r="W6" s="146"/>
       <c r="X6" s="41"/>
-    </row>
-    <row r="7" spans="2:24">
-      <c r="B7" s="263" t="s">
+      <c r="Z6" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {1810} &amp; {1014} &amp; {773} &amp; {177} &amp; {2} &amp; {-}\\&amp; {2098115012} &amp; {1340817129} &amp; {855197335} &amp; {294789852} &amp; {1198745} &amp; {-}\\</v>
+      </c>
+      <c r="AA6" s="41"/>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="268" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -8753,9 +9543,14 @@
       <c r="V7" s="146"/>
       <c r="W7" s="146"/>
       <c r="X7" s="41"/>
-    </row>
-    <row r="8" spans="2:24">
-      <c r="B8" s="264"/>
+      <c r="Z7" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {317} &amp; {757} &amp; {0} &amp; {23} &amp; {422} &amp; {335}\\&amp; {332049139} &amp; {934394668} &amp; {0} &amp; {34893934} &amp; {515382972} &amp; {417654709}\\</v>
+      </c>
+      <c r="AA7" s="41"/>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="269"/>
       <c r="C8" s="46" t="s">
         <v>30</v>
       </c>
@@ -8812,9 +9607,14 @@
       <c r="V8" s="146"/>
       <c r="W8" s="146"/>
       <c r="X8" s="41"/>
-    </row>
-    <row r="9" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B9" s="265"/>
+      <c r="Z8" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {681} &amp; {295} &amp; {317} &amp; {859} &amp; {766} &amp; {496}\\&amp; {812384320} &amp; {464861115} &amp; {332049139} &amp; {1149415253} &amp; {853833345} &amp; {584740800}\\</v>
+      </c>
+      <c r="AA8" s="41"/>
+    </row>
+    <row r="9" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B9" s="270"/>
       <c r="C9" s="47" t="s">
         <v>34</v>
       </c>
@@ -8871,9 +9671,14 @@
       <c r="V9" s="146"/>
       <c r="W9" s="146"/>
       <c r="X9" s="41"/>
-    </row>
-    <row r="10" spans="2:24">
-      <c r="B10" s="266" t="s">
+      <c r="Z9" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {655} &amp; {366} &amp; {770} &amp; {476} &amp; {919} &amp; {563}\\&amp; {774631165} &amp; {414540985} &amp; {855754012} &amp; {558365682} &amp; {1300051949} &amp; {786764983}\\</v>
+      </c>
+      <c r="AA9" s="41"/>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="B10" s="271" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="50" t="s">
@@ -8932,9 +9737,14 @@
       <c r="V10" s="146"/>
       <c r="W10" s="146"/>
       <c r="X10" s="41"/>
-    </row>
-    <row r="11" spans="2:24">
-      <c r="B11" s="267"/>
+      <c r="Z10" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {794} &amp; {622} &amp; {1349} &amp; {380} &amp; {499} &amp; {0}\\&amp; {881966858} &amp; {695338061} &amp; {1698644437} &amp; {374937772} &amp; {606712795} &amp; {0}\\</v>
+      </c>
+      <c r="AA10" s="41"/>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11" s="272"/>
       <c r="C11" s="53" t="s">
         <v>30</v>
       </c>
@@ -8991,9 +9801,14 @@
       <c r="V11" s="146"/>
       <c r="W11" s="146"/>
       <c r="X11" s="41"/>
-    </row>
-    <row r="12" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B12" s="268"/>
+      <c r="Z11" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {190} &amp; {1256} &amp; {380} &amp; {794} &amp; {548} &amp; {644}\\&amp; {235559121} &amp; {1660226871} &amp; {374937772} &amp; {881966858} &amp; {649286055} &amp; {730669631}\\</v>
+      </c>
+      <c r="AA11" s="41"/>
+    </row>
+    <row r="12" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B12" s="273"/>
       <c r="C12" s="54" t="s">
         <v>34</v>
       </c>
@@ -9050,49 +9865,54 @@
       <c r="V12" s="146"/>
       <c r="W12" s="146"/>
       <c r="X12" s="41"/>
-    </row>
-    <row r="13" spans="2:24">
-      <c r="B13" s="269" t="s">
+      <c r="Z12" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {327} &amp; {552} &amp; {370} &amp; {795} &amp; {598} &amp; {1223}\\&amp; {374353815} &amp; {639718047} &amp; {395086870} &amp; {885534720} &amp; {632530684} &amp; {1625628412}\\</v>
+      </c>
+      <c r="AA12" s="41"/>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" s="274" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="86">
-        <v>373</v>
+        <v>774</v>
       </c>
       <c r="E13" s="74">
-        <v>466462124</v>
+        <v>862371774</v>
       </c>
       <c r="F13" s="86">
-        <v>869</v>
+        <v>453</v>
       </c>
       <c r="G13" s="74">
-        <v>1157405317</v>
+        <v>542678538</v>
       </c>
       <c r="H13" s="86">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="I13" s="74">
-        <v>862371774</v>
+        <v>892569742</v>
       </c>
       <c r="J13" s="86">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="K13" s="74">
-        <v>628915542</v>
+        <v>766201522</v>
       </c>
       <c r="L13" s="86">
-        <v>317</v>
+        <v>1376</v>
       </c>
       <c r="M13" s="74">
-        <v>332049139</v>
-      </c>
-      <c r="N13" s="86">
-        <v>1096</v>
-      </c>
-      <c r="O13" s="74">
-        <v>1436947517</v>
+        <v>1641184666</v>
+      </c>
+      <c r="N13" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="242" t="s">
+        <v>22</v>
       </c>
       <c r="P13" s="96" t="s">
         <v>22</v>
@@ -9111,9 +9931,14 @@
       <c r="V13" s="146"/>
       <c r="W13" s="146"/>
       <c r="X13" s="41"/>
-    </row>
-    <row r="14" spans="2:24">
-      <c r="B14" s="270"/>
+      <c r="Z13" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {774} &amp; {453} &amp; {772} &amp; {485} &amp; {1376} &amp; {-}\\&amp; {862371774} &amp; {542678538} &amp; {892569742} &amp; {766201522} &amp; {1641184666} &amp; {-}\\</v>
+      </c>
+      <c r="AA13" s="41"/>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14" s="275"/>
       <c r="C14" s="58" t="s">
         <v>30</v>
       </c>
@@ -9170,9 +9995,14 @@
       <c r="V14" s="146"/>
       <c r="W14" s="146"/>
       <c r="X14" s="41"/>
-    </row>
-    <row r="15" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B15" s="271"/>
+      <c r="Z14" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {511} &amp; {774} &amp; {1338} &amp; {317} &amp; {480} &amp; {484}\\&amp; {629252220} &amp; {862371774} &amp; {1588154301} &amp; {332049139} &amp; {584011108} &amp; {766100550}\\</v>
+      </c>
+      <c r="AA14" s="41"/>
+    </row>
+    <row r="15" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B15" s="276"/>
       <c r="C15" s="59" t="s">
         <v>34</v>
       </c>
@@ -9229,9 +10059,14 @@
       <c r="V15" s="146"/>
       <c r="W15" s="146"/>
       <c r="X15" s="41"/>
-    </row>
-    <row r="16" spans="2:24">
-      <c r="B16" s="272" t="s">
+      <c r="Z15" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {718} &amp; {1680} &amp; {784} &amp; {436} &amp; {-} &amp; {-}\\&amp; {801649656} &amp; {2224618855} &amp; {894399880} &amp; {503509936} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA15" s="41"/>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="277" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="79" t="s">
@@ -9290,9 +10125,14 @@
       <c r="V16" s="146"/>
       <c r="W16" s="146"/>
       <c r="X16" s="41"/>
-    </row>
-    <row r="17" spans="2:24">
-      <c r="B17" s="273"/>
+      <c r="Z16" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {1471} &amp; {386} &amp; {634} &amp; {788} &amp; {498} &amp; {-}\\&amp; {1894570213} &amp; {381573631} &amp; {716168055} &amp; {877523057} &amp; {607362060} &amp; {-}\\</v>
+      </c>
+      <c r="AA16" s="41"/>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="B17" s="278"/>
       <c r="C17" s="66" t="s">
         <v>30</v>
       </c>
@@ -9349,9 +10189,14 @@
       <c r="V17" s="146"/>
       <c r="W17" s="146"/>
       <c r="X17" s="41"/>
-    </row>
-    <row r="18" spans="2:24">
-      <c r="B18" s="273"/>
+      <c r="Z17" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {1243} &amp; {317} &amp; {545} &amp; {659} &amp; {565} &amp; {620}\\&amp; {1451027385} &amp; {332049139} &amp; {814390278} &amp; {756650082} &amp; {662927989} &amp; {749570865}\\</v>
+      </c>
+      <c r="AA17" s="41"/>
+    </row>
+    <row r="18" spans="2:27">
+      <c r="B18" s="278"/>
       <c r="C18" s="66" t="s">
         <v>34</v>
       </c>
@@ -9408,15 +10253,21 @@
       <c r="V18" s="146"/>
       <c r="W18" s="146"/>
       <c r="X18" s="41"/>
-    </row>
-    <row r="19" spans="2:24" ht="15.75" thickBot="1">
+      <c r="Z18" s="245" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {451} &amp; {1732} &amp; {887} &amp; {253} &amp; {402} &amp; {-}\\&amp; {418063444} &amp; {2065464717} &amp; {1001879506} &amp; {295108040} &amp; {713074666} &amp; {-}\\</v>
+      </c>
+      <c r="AA18" s="41"/>
+    </row>
+    <row r="19" spans="2:27" ht="15.75" thickBot="1">
       <c r="X19" s="41"/>
-    </row>
-    <row r="20" spans="2:24" ht="30.75" thickBot="1">
-      <c r="B20" s="258" t="s">
+      <c r="AA19" s="41"/>
+    </row>
+    <row r="20" spans="2:27" ht="30.75" thickBot="1">
+      <c r="B20" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="259"/>
+      <c r="C20" s="264"/>
       <c r="D20" s="233" t="s">
         <v>343</v>
       </c>
@@ -9441,18 +10292,22 @@
       <c r="K20" s="234" t="s">
         <v>350</v>
       </c>
+      <c r="M20" s="281" t="s">
+        <v>351</v>
+      </c>
       <c r="W20" s="100"/>
       <c r="X20" s="41"/>
-    </row>
-    <row r="21" spans="2:24">
-      <c r="B21" s="260" t="s">
+      <c r="AA20" s="41"/>
+    </row>
+    <row r="21" spans="2:27">
+      <c r="B21" s="265" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="83" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="136">
-        <f>SUM(D4+F4+H4+J4+L4+N4)</f>
+        <f>D4+F4+H4+J4+L4+N4</f>
         <v>3884</v>
       </c>
       <c r="E21" s="201">
@@ -9479,15 +10334,20 @@
         <f>I21-G21</f>
         <v>42846182</v>
       </c>
+      <c r="M21" s="157" t="str">
+        <f>"&amp; "&amp;"{"&amp;F21&amp;"}"&amp;" &amp; "&amp;"{"&amp;H21&amp;"}"&amp;" &amp; "&amp;"{"&amp;J21&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;G21&amp;"}"&amp;" &amp; "&amp;"{"&amp;I21&amp;"}"&amp;" &amp; "&amp;"{"&amp;K21&amp;"}"&amp;"\\"</f>
+        <v>&amp; {3059} &amp; {3103} &amp; {44}\\&amp; {3519161337} &amp; {3562007519} &amp; {42846182}\\</v>
+      </c>
       <c r="X21" s="41"/>
-    </row>
-    <row r="22" spans="2:24">
-      <c r="B22" s="261"/>
+      <c r="AA21" s="41"/>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="B22" s="266"/>
       <c r="C22" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="33">
-        <f>SUM(D5+F5+H5+J5+L5)</f>
+        <f>D5+F5+H5+J5+L5</f>
         <v>3936</v>
       </c>
       <c r="E22" s="175">
@@ -9507,22 +10367,27 @@
         <v>3562007519</v>
       </c>
       <c r="J22" s="198">
-        <f t="shared" ref="J22:J35" si="0">H22-F22</f>
+        <f t="shared" ref="J22:J35" si="1">H22-F22</f>
         <v>32</v>
       </c>
       <c r="K22" s="175">
         <f>I22-G22</f>
         <v>26643865</v>
       </c>
+      <c r="M22" s="157" t="str">
+        <f t="shared" ref="M22:M35" si="2">"&amp; "&amp;"{"&amp;F22&amp;"}"&amp;" &amp; "&amp;"{"&amp;H22&amp;"}"&amp;" &amp; "&amp;"{"&amp;J22&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;G22&amp;"}"&amp;" &amp; "&amp;"{"&amp;I22&amp;"}"&amp;" &amp; "&amp;"{"&amp;K22&amp;"}"&amp;"\\"</f>
+        <v>&amp; {3071} &amp; {3103} &amp; {32}\\&amp; {3535363654} &amp; {3562007519} &amp; {26643865}\\</v>
+      </c>
       <c r="X22" s="41"/>
-    </row>
-    <row r="23" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B23" s="262"/>
+      <c r="AA22" s="41"/>
+    </row>
+    <row r="23" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B23" s="267"/>
       <c r="C23" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="38">
-        <f>SUM(D6+F6+H6+J6+L6)</f>
+        <f>D6+F6+H6+J6+L6</f>
         <v>3776</v>
       </c>
       <c r="E23" s="176">
@@ -9542,24 +10407,29 @@
         <v>3562007519</v>
       </c>
       <c r="J23" s="199">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K23" s="176">
         <f>I23-G23</f>
         <v>2058743</v>
       </c>
+      <c r="M23" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {3100} &amp; {3103} &amp; {3}\\&amp; {3559948776} &amp; {3562007519} &amp; {2058743}\\</v>
+      </c>
       <c r="X23" s="41"/>
-    </row>
-    <row r="24" spans="2:24">
-      <c r="B24" s="263" t="s">
+      <c r="AA23" s="41"/>
+    </row>
+    <row r="24" spans="2:27">
+      <c r="B24" s="268" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="98">
-        <f>SUM(D7+F7+H7+J7+L7+N7+P7+R7)</f>
+        <f>D7+F7+H7+J7+L7+N7+P7+R7</f>
         <v>3702</v>
       </c>
       <c r="E24" s="177">
@@ -9579,22 +10449,27 @@
         <v>3562007519</v>
       </c>
       <c r="J24" s="207">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K24" s="209">
-        <f t="shared" ref="K24:K35" si="1">I24-G24</f>
+        <f t="shared" ref="K24:K35" si="3">I24-G24</f>
         <v>95491626</v>
       </c>
+      <c r="M24" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {2983} &amp; {3103} &amp; {120}\\&amp; {3466515893} &amp; {3562007519} &amp; {95491626}\\</v>
+      </c>
       <c r="X24" s="41"/>
-    </row>
-    <row r="25" spans="2:24">
-      <c r="B25" s="264"/>
+      <c r="AA24" s="41"/>
+    </row>
+    <row r="25" spans="2:27">
+      <c r="B25" s="269"/>
       <c r="C25" s="46" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="98">
-        <f>SUM(D8+F8+H8+J8+L8+N8+P8)</f>
+        <f>D8+F8+H8+J8+L8+N8+P8</f>
         <v>3911</v>
       </c>
       <c r="E25" s="177">
@@ -9614,22 +10489,27 @@
         <v>3562007519</v>
       </c>
       <c r="J25" s="210">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="K25" s="177">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24336437</v>
       </c>
+      <c r="M25" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {3068} &amp; {3103} &amp; {35}\\&amp; {3537671082} &amp; {3562007519} &amp; {24336437}\\</v>
+      </c>
       <c r="X25" s="41"/>
-    </row>
-    <row r="26" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B26" s="265"/>
+      <c r="AA25" s="41"/>
+    </row>
+    <row r="26" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B26" s="270"/>
       <c r="C26" s="47" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="92">
-        <f>SUM(D9+F9+H9+J9+L9+N9)</f>
+        <f>D9+F9+H9+J9+L9+N9</f>
         <v>3749</v>
       </c>
       <c r="E26" s="124">
@@ -9649,24 +10529,29 @@
         <v>3562007519</v>
       </c>
       <c r="J26" s="211">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="K26" s="124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>86220262</v>
       </c>
+      <c r="M26" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {2996} &amp; {3103} &amp; {107}\\&amp; {3475787257} &amp; {3562007519} &amp; {86220262}\\</v>
+      </c>
       <c r="X26" s="41"/>
-    </row>
-    <row r="27" spans="2:24">
-      <c r="B27" s="266" t="s">
+      <c r="AA26" s="41"/>
+    </row>
+    <row r="27" spans="2:27">
+      <c r="B27" s="271" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="50" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="94">
-        <f>SUM(D10+F10+H10+J10+L10+N10+P10+R10)</f>
+        <f>D10+F10+H10+J10+L10+N10+P10+R10</f>
         <v>3868</v>
       </c>
       <c r="E27" s="178">
@@ -9686,26 +10571,31 @@
         <v>3562007519</v>
       </c>
       <c r="J27" s="213">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="K27" s="215">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24336437</v>
       </c>
+      <c r="M27" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {3068} &amp; {3103} &amp; {35}\\&amp; {3537671082} &amp; {3562007519} &amp; {24336437}\\</v>
+      </c>
       <c r="X27" s="41"/>
-    </row>
-    <row r="28" spans="2:24">
-      <c r="B28" s="267"/>
+      <c r="AA27" s="41"/>
+    </row>
+    <row r="28" spans="2:27">
+      <c r="B28" s="272"/>
       <c r="C28" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="94">
-        <f t="shared" ref="D28:E31" si="2">SUM(D11+F11+H11+J11+L11+N11)</f>
+        <f>D11+F11+H11+J11+L11+N11</f>
         <v>3812</v>
       </c>
       <c r="E28" s="178">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D28:E31" si="4">SUM(E11+G11+I11+K11+M11+O11)</f>
         <v>4532646308</v>
       </c>
       <c r="F28" s="94">
@@ -9721,26 +10611,31 @@
         <v>3562007519</v>
       </c>
       <c r="J28" s="216">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="K28" s="178">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50688223</v>
       </c>
+      <c r="M28" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {3041} &amp; {3103} &amp; {62}\\&amp; {3511319296} &amp; {3562007519} &amp; {50688223}\\</v>
+      </c>
       <c r="X28" s="41"/>
-    </row>
-    <row r="29" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B29" s="268"/>
+      <c r="AA28" s="41"/>
+    </row>
+    <row r="29" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B29" s="273"/>
       <c r="C29" s="54" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="95">
-        <f t="shared" si="2"/>
+        <f>D12+F12+H12+J12+L12+N12</f>
         <v>3865</v>
       </c>
       <c r="E29" s="179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4552852548</v>
       </c>
       <c r="F29" s="95">
@@ -9756,35 +10651,40 @@
         <v>3562007519</v>
       </c>
       <c r="J29" s="217">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="K29" s="179">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39604219</v>
       </c>
+      <c r="M29" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {3051} &amp; {3103} &amp; {52}\\&amp; {3522403300} &amp; {3562007519} &amp; {39604219}\\</v>
+      </c>
       <c r="X29" s="41"/>
-    </row>
-    <row r="30" spans="2:24">
-      <c r="B30" s="269" t="s">
+      <c r="AA29" s="41"/>
+    </row>
+    <row r="30" spans="2:27">
+      <c r="B30" s="274" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="122">
-        <f t="shared" si="2"/>
-        <v>3938</v>
+        <f>D13+F13+H13+J13+L13</f>
+        <v>3860</v>
       </c>
       <c r="E30" s="180">
-        <f t="shared" si="2"/>
-        <v>4884151413</v>
+        <f>SUM(E13+G13+I13+K13+M13)</f>
+        <v>4705006242</v>
       </c>
       <c r="F30" s="122">
-        <v>3070</v>
+        <v>3092</v>
       </c>
       <c r="G30" s="191">
-        <v>3539820794</v>
+        <v>3557848969</v>
       </c>
       <c r="H30" s="219">
         <v>3103</v>
@@ -9793,26 +10693,31 @@
         <v>3562007519</v>
       </c>
       <c r="J30" s="218">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="K30" s="180">
-        <f t="shared" si="1"/>
-        <v>22186725</v>
+        <f t="shared" si="3"/>
+        <v>4158550</v>
+      </c>
+      <c r="M30" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {3092} &amp; {3103} &amp; {11}\\&amp; {3557848969} &amp; {3562007519} &amp; {4158550}\\</v>
       </c>
       <c r="X30" s="41"/>
-    </row>
-    <row r="31" spans="2:24">
-      <c r="B31" s="270"/>
+      <c r="AA30" s="41"/>
+    </row>
+    <row r="31" spans="2:27">
+      <c r="B31" s="275"/>
       <c r="C31" s="58" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="122">
-        <f t="shared" si="2"/>
+        <f>D14+F14+H14+J14+L14+N14</f>
         <v>3904</v>
       </c>
       <c r="E31" s="180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4761939092</v>
       </c>
       <c r="F31" s="122">
@@ -9828,22 +10733,27 @@
         <v>3562007519</v>
       </c>
       <c r="J31" s="219">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="K31" s="151">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21091573</v>
       </c>
+      <c r="M31" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {3072} &amp; {3103} &amp; {31}\\&amp; {3540915946} &amp; {3562007519} &amp; {21091573}\\</v>
+      </c>
       <c r="X31" s="41"/>
-    </row>
-    <row r="32" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B32" s="271"/>
+      <c r="AA31" s="41"/>
+    </row>
+    <row r="32" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B32" s="276"/>
       <c r="C32" s="59" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="89">
-        <f>SUM(D15+F15+H15+J15)</f>
+        <f>D15+F15+H15+J15</f>
         <v>3618</v>
       </c>
       <c r="E32" s="181">
@@ -9863,24 +10773,29 @@
         <v>3562007519</v>
       </c>
       <c r="J32" s="221">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K32" s="181">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26733736</v>
       </c>
+      <c r="M32" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {3078} &amp; {3103} &amp; {25}\\&amp; {3535273783} &amp; {3562007519} &amp; {26733736}\\</v>
+      </c>
       <c r="X32" s="41"/>
-    </row>
-    <row r="33" spans="1:24">
-      <c r="B33" s="272" t="s">
+      <c r="AA32" s="41"/>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="B33" s="277" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="62" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="90">
-        <f>SUM(D16+F16+H16+J16+L16)</f>
+        <f>D16+F16+H16+J16+L16</f>
         <v>3777</v>
       </c>
       <c r="E33" s="183">
@@ -9900,22 +10815,27 @@
         <v>3562007519</v>
       </c>
       <c r="J33" s="227">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="K33" s="183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22186725</v>
       </c>
+      <c r="M33" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {3070} &amp; {3103} &amp; {33}\\&amp; {3539820794} &amp; {3562007519} &amp; {22186725}\\</v>
+      </c>
       <c r="X33" s="41"/>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="B34" s="273"/>
+      <c r="AA33" s="41"/>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="B34" s="278"/>
       <c r="C34" s="66" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="90">
-        <f>SUM(D17+F17+H17+J17+L17+N17)</f>
+        <f>D17+F17+H17+J17+L17+N17</f>
         <v>3949</v>
       </c>
       <c r="E34" s="183">
@@ -9935,22 +10855,27 @@
         <v>3562007519</v>
       </c>
       <c r="J34" s="184">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="K34" s="133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26513634</v>
       </c>
+      <c r="M34" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {3077} &amp; {3103} &amp; {26}\\&amp; {3535493885} &amp; {3562007519} &amp; {26513634}\\</v>
+      </c>
       <c r="X34" s="41"/>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="B35" s="273"/>
+      <c r="AA34" s="41"/>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="B35" s="278"/>
       <c r="C35" s="66" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="90">
-        <f>SUM(D18+F18+H18+J18+L18)</f>
+        <f>D18+F18+H18+J18+L18</f>
         <v>3725</v>
       </c>
       <c r="E35" s="183">
@@ -9970,19 +10895,25 @@
         <v>3562007519</v>
       </c>
       <c r="J35" s="184">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="K35" s="133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23806630</v>
       </c>
+      <c r="M35" s="157" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; {3070} &amp; {3103} &amp; {33}\\&amp; {3538200889} &amp; {3562007519} &amp; {23806630}\\</v>
+      </c>
       <c r="X35" s="41"/>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="AA35" s="41"/>
+    </row>
+    <row r="36" spans="1:27">
       <c r="X36" s="41"/>
-    </row>
-    <row r="37" spans="1:24" ht="15.75" thickBot="1">
+      <c r="AA36" s="41"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" thickBot="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -10007,8 +10938,11 @@
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
       <c r="X37" s="42"/>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" s="241"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="42"/>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="100"/>
       <c r="B38" s="100"/>
       <c r="C38" s="100"/>
@@ -10033,55 +10967,61 @@
       <c r="V38" s="100"/>
       <c r="W38" s="100"/>
       <c r="X38" s="41"/>
-    </row>
-    <row r="39" spans="1:24" ht="15.75" thickBot="1">
+      <c r="AA38" s="41"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" thickBot="1">
       <c r="X39" s="41"/>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B40" s="251" t="s">
+      <c r="AA39" s="41"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B40" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="252"/>
-      <c r="D40" s="254" t="s">
+      <c r="C40" s="257"/>
+      <c r="D40" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="241"/>
-      <c r="F40" s="244" t="s">
+      <c r="E40" s="246"/>
+      <c r="F40" s="249" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="241"/>
-      <c r="H40" s="244" t="s">
+      <c r="G40" s="246"/>
+      <c r="H40" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="241"/>
-      <c r="J40" s="244" t="s">
+      <c r="I40" s="246"/>
+      <c r="J40" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="K40" s="241"/>
-      <c r="L40" s="244" t="s">
+      <c r="K40" s="246"/>
+      <c r="L40" s="249" t="s">
         <v>39</v>
       </c>
-      <c r="M40" s="241"/>
-      <c r="N40" s="256" t="s">
+      <c r="M40" s="246"/>
+      <c r="N40" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="257"/>
-      <c r="P40" s="256" t="s">
+      <c r="O40" s="262"/>
+      <c r="P40" s="261" t="s">
         <v>42</v>
       </c>
-      <c r="Q40" s="257"/>
-      <c r="R40" s="255" t="s">
+      <c r="Q40" s="262"/>
+      <c r="R40" s="260" t="s">
         <v>41</v>
       </c>
-      <c r="S40" s="255"/>
+      <c r="S40" s="260"/>
       <c r="T40" s="146"/>
       <c r="U40" s="146"/>
       <c r="V40" s="146"/>
       <c r="W40" s="146"/>
       <c r="X40" s="41"/>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="B41" s="260" t="s">
+      <c r="Z40" s="244" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA40" s="41"/>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="B41" s="265" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="83" t="s">
@@ -10140,9 +11080,14 @@
       <c r="V41" s="146"/>
       <c r="W41" s="146"/>
       <c r="X41" s="41"/>
-    </row>
-    <row r="42" spans="1:24">
-      <c r="B42" s="261"/>
+      <c r="Z41" s="245" t="str">
+        <f>"&amp; "&amp;"{"&amp;D41&amp;"}"&amp;" &amp; "&amp;"{"&amp;F41&amp;"}"&amp;" &amp; "&amp;"{"&amp;H41&amp;"}"&amp;" &amp; "&amp;"{"&amp;J41&amp;"}"&amp;" &amp; "&amp;"{"&amp;L41&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E41&amp;"}"&amp;" &amp; "&amp;"{"&amp;G41&amp;"}"&amp;" &amp; "&amp;"{"&amp;I41&amp;"}"&amp;" &amp; "&amp;"{"&amp;K41&amp;"}"&amp;" &amp; "&amp;"{"&amp;M41&amp;"}"&amp;"\\"</f>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA41" s="41"/>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="B42" s="266"/>
       <c r="C42" s="31" t="s">
         <v>30</v>
       </c>
@@ -10199,9 +11144,14 @@
       <c r="V42" s="146"/>
       <c r="W42" s="146"/>
       <c r="X42" s="41"/>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B43" s="262"/>
+      <c r="Z42" s="245" t="str">
+        <f t="shared" ref="Z42:Z55" si="5">"&amp; "&amp;"{"&amp;D42&amp;"}"&amp;" &amp; "&amp;"{"&amp;F42&amp;"}"&amp;" &amp; "&amp;"{"&amp;H42&amp;"}"&amp;" &amp; "&amp;"{"&amp;J42&amp;"}"&amp;" &amp; "&amp;"{"&amp;L42&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E42&amp;"}"&amp;" &amp; "&amp;"{"&amp;G42&amp;"}"&amp;" &amp; "&amp;"{"&amp;I42&amp;"}"&amp;" &amp; "&amp;"{"&amp;K42&amp;"}"&amp;" &amp; "&amp;"{"&amp;M42&amp;"}"&amp;"\\"</f>
+        <v>&amp; {8682} &amp; {5167} &amp; {1394} &amp; {1} &amp; {4099}\\&amp; {2659763502} &amp; {1390418857} &amp; {699531193} &amp; {1302692} &amp; {1305411413}\\</v>
+      </c>
+      <c r="AA42" s="41"/>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B43" s="267"/>
       <c r="C43" s="35" t="s">
         <v>34</v>
       </c>
@@ -10258,9 +11208,14 @@
       <c r="V43" s="146"/>
       <c r="W43" s="146"/>
       <c r="X43" s="41"/>
-    </row>
-    <row r="44" spans="1:24">
-      <c r="B44" s="263" t="s">
+      <c r="Z43" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {6459} &amp; {2987} &amp; {9863} &amp; {2} &amp; {1}\\&amp; {2029125036} &amp; {993375667} &amp; {3080387579} &amp; {133480} &amp; {1302692}\\</v>
+      </c>
+      <c r="AA43" s="41"/>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="B44" s="268" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="43" t="s">
@@ -10319,9 +11274,14 @@
       <c r="V44" s="146"/>
       <c r="W44" s="146"/>
       <c r="X44" s="41"/>
-    </row>
-    <row r="45" spans="1:24">
-      <c r="B45" s="264"/>
+      <c r="Z44" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA44" s="41"/>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="B45" s="269"/>
       <c r="C45" s="46" t="s">
         <v>30</v>
       </c>
@@ -10378,9 +11338,14 @@
       <c r="V45" s="146"/>
       <c r="W45" s="146"/>
       <c r="X45" s="41"/>
-    </row>
-    <row r="46" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B46" s="265"/>
+      <c r="Z45" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {1244} &amp; {2070} &amp; {4973} &amp; {1} &amp; {5738}\\&amp; {628733576} &amp; {405454120} &amp; {1680848161} &amp; {1302692} &amp; {1817659563}\\</v>
+      </c>
+      <c r="AA45" s="41"/>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B46" s="270"/>
       <c r="C46" s="47" t="s">
         <v>34</v>
       </c>
@@ -10437,9 +11402,14 @@
       <c r="V46" s="146"/>
       <c r="W46" s="146"/>
       <c r="X46" s="41"/>
-    </row>
-    <row r="47" spans="1:24">
-      <c r="B47" s="266" t="s">
+      <c r="Z46" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {5683} &amp; {3552} &amp; {5351} &amp; {5127} &amp; {1}\\&amp; {1528747855} &amp; {1367217747} &amp; {1630642274} &amp; {1720461603} &amp; {1302692}\\</v>
+      </c>
+      <c r="AA46" s="41"/>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="B47" s="271" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="50" t="s">
@@ -10498,9 +11468,14 @@
       <c r="V47" s="146"/>
       <c r="W47" s="146"/>
       <c r="X47" s="41"/>
-    </row>
-    <row r="48" spans="1:24">
-      <c r="B48" s="267"/>
+      <c r="Z47" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA47" s="41"/>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="B48" s="272"/>
       <c r="C48" s="53" t="s">
         <v>30</v>
       </c>
@@ -10557,9 +11532,14 @@
       <c r="V48" s="146"/>
       <c r="W48" s="146"/>
       <c r="X48" s="41"/>
-    </row>
-    <row r="49" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B49" s="268"/>
+      <c r="Z48" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {4118} &amp; {1335} &amp; {8344} &amp; {3612} &amp; {2895}\\&amp; {1336350857} &amp; {666271639} &amp; {2539864387} &amp; {858822902} &amp; {972956903}\\</v>
+      </c>
+      <c r="AA48" s="41"/>
+    </row>
+    <row r="49" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B49" s="273"/>
       <c r="C49" s="54" t="s">
         <v>34</v>
       </c>
@@ -10616,9 +11596,14 @@
       <c r="V49" s="146"/>
       <c r="W49" s="146"/>
       <c r="X49" s="41"/>
-    </row>
-    <row r="50" spans="2:24">
-      <c r="B50" s="269" t="s">
+      <c r="Z49" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {3397} &amp; {4118} &amp; {3058} &amp; {8549} &amp; {1055}\\&amp; {1179601275} &amp; {1336350857} &amp; {661188535} &amp; {2611321086} &amp; {526525241}\\</v>
+      </c>
+      <c r="AA49" s="41"/>
+    </row>
+    <row r="50" spans="2:27">
+      <c r="B50" s="274" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="57" t="s">
@@ -10677,9 +11662,14 @@
       <c r="V50" s="146"/>
       <c r="W50" s="146"/>
       <c r="X50" s="41"/>
-    </row>
-    <row r="51" spans="2:24">
-      <c r="B51" s="270"/>
+      <c r="Z50" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA50" s="41"/>
+    </row>
+    <row r="51" spans="2:27">
+      <c r="B51" s="275"/>
       <c r="C51" s="58" t="s">
         <v>30</v>
       </c>
@@ -10736,9 +11726,14 @@
       <c r="V51" s="146"/>
       <c r="W51" s="146"/>
       <c r="X51" s="41"/>
-    </row>
-    <row r="52" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B52" s="271"/>
+      <c r="Z51" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {8682} &amp; {5167} &amp; {1394} &amp; {1} &amp; {4099}\\&amp; {2659763502} &amp; {1390418857} &amp; {699531193} &amp; {1302692} &amp; {1305411413}\\</v>
+      </c>
+      <c r="AA51" s="41"/>
+    </row>
+    <row r="52" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B52" s="276"/>
       <c r="C52" s="59" t="s">
         <v>34</v>
       </c>
@@ -10795,9 +11790,14 @@
       <c r="V52" s="146"/>
       <c r="W52" s="146"/>
       <c r="X52" s="41"/>
-    </row>
-    <row r="53" spans="2:24">
-      <c r="B53" s="272" t="s">
+      <c r="Z52" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {6373} &amp; {3782} &amp; {9087} &amp; {2} &amp; {1}\\&amp; {1773754665} &amp; {1441823779} &amp; {2842868882} &amp; {133480} &amp; {1302692}\\</v>
+      </c>
+      <c r="AA52" s="41"/>
+    </row>
+    <row r="53" spans="2:27">
+      <c r="B53" s="277" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="79" t="s">
@@ -10856,9 +11856,14 @@
       <c r="V53" s="146"/>
       <c r="W53" s="146"/>
       <c r="X53" s="41"/>
-    </row>
-    <row r="54" spans="2:24">
-      <c r="B54" s="273"/>
+      <c r="Z53" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA53" s="41"/>
+    </row>
+    <row r="54" spans="2:27">
+      <c r="B54" s="278"/>
       <c r="C54" s="66" t="s">
         <v>30</v>
       </c>
@@ -10915,9 +11920,14 @@
       <c r="V54" s="146"/>
       <c r="W54" s="146"/>
       <c r="X54" s="41"/>
-    </row>
-    <row r="55" spans="2:24">
-      <c r="B55" s="273"/>
+      <c r="Z54" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {3393} &amp; {8798} &amp; {1} &amp; {2857} &amp; {4785}\\&amp; {808825169} &amp; {2674096849} &amp; {1302692} &amp; {972479574} &amp; {1784485682}\\</v>
+      </c>
+      <c r="AA54" s="41"/>
+    </row>
+    <row r="55" spans="2:27">
+      <c r="B55" s="278"/>
       <c r="C55" s="66" t="s">
         <v>34</v>
       </c>
@@ -10974,15 +11984,21 @@
       <c r="V55" s="146"/>
       <c r="W55" s="146"/>
       <c r="X55" s="41"/>
-    </row>
-    <row r="56" spans="2:24" ht="15.75" thickBot="1">
+      <c r="Z55" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {3234} &amp; {4532} &amp; {2043} &amp; {9648} &amp; {1}\\&amp; {1007736939} &amp; {1697603918} &amp; {408120324} &amp; {2954577594} &amp; {1302692}\\</v>
+      </c>
+      <c r="AA55" s="41"/>
+    </row>
+    <row r="56" spans="2:27" ht="15.75" thickBot="1">
       <c r="X56" s="41"/>
-    </row>
-    <row r="57" spans="2:24" ht="30.75" thickBot="1">
-      <c r="B57" s="258" t="s">
+      <c r="AA56" s="41"/>
+    </row>
+    <row r="57" spans="2:27" ht="30.75" thickBot="1">
+      <c r="B57" s="263" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="274"/>
+      <c r="C57" s="279"/>
       <c r="D57" s="233" t="s">
         <v>343</v>
       </c>
@@ -11007,10 +12023,14 @@
       <c r="K57" s="234" t="s">
         <v>350</v>
       </c>
+      <c r="M57" s="281" t="s">
+        <v>351</v>
+      </c>
       <c r="X57" s="41"/>
-    </row>
-    <row r="58" spans="2:24">
-      <c r="B58" s="260" t="s">
+      <c r="AA57" s="41"/>
+    </row>
+    <row r="58" spans="2:27">
+      <c r="B58" s="265" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="83" t="s">
@@ -11040,15 +12060,20 @@
       <c r="K58" s="201" t="s">
         <v>22</v>
       </c>
+      <c r="M58" s="157" t="str">
+        <f>"&amp; "&amp;"{"&amp;F58&amp;"}"&amp;" &amp; "&amp;"{"&amp;H58&amp;"}"&amp;" &amp; "&amp;"{"&amp;J58&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;G58&amp;"}"&amp;" &amp; "&amp;"{"&amp;I58&amp;"}"&amp;" &amp; "&amp;"{"&amp;K58&amp;"}"&amp;"\\"</f>
+        <v>&amp; {-} &amp; {16768} &amp; {-}\\&amp; {-} &amp; {4938445991} &amp; {-}\\</v>
+      </c>
       <c r="X58" s="41"/>
-    </row>
-    <row r="59" spans="2:24">
-      <c r="B59" s="261"/>
+      <c r="AA58" s="41"/>
+    </row>
+    <row r="59" spans="2:27">
+      <c r="B59" s="266"/>
       <c r="C59" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="33">
-        <f>SUM(D42+F42+H42+J42+L42)</f>
+        <f>D42+F42+H42+J42+L42</f>
         <v>19343</v>
       </c>
       <c r="E59" s="175">
@@ -11075,15 +12100,20 @@
         <f>I59-G59</f>
         <v>23819515</v>
       </c>
+      <c r="M59" s="157" t="str">
+        <f t="shared" ref="M59:M72" si="6">"&amp; "&amp;"{"&amp;F59&amp;"}"&amp;" &amp; "&amp;"{"&amp;H59&amp;"}"&amp;" &amp; "&amp;"{"&amp;J59&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;G59&amp;"}"&amp;" &amp; "&amp;"{"&amp;I59&amp;"}"&amp;" &amp; "&amp;"{"&amp;K59&amp;"}"&amp;"\\"</f>
+        <v>&amp; {16617} &amp; {16768} &amp; {151}\\&amp; {4914626476} &amp; {4938445991} &amp; {23819515}\\</v>
+      </c>
       <c r="X59" s="41"/>
-    </row>
-    <row r="60" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B60" s="262"/>
+      <c r="AA59" s="41"/>
+    </row>
+    <row r="60" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B60" s="267"/>
       <c r="C60" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D60" s="38">
-        <f>SUM(D43+F43+H43+J43+L43)</f>
+        <f>D43+F43+H43+J43+L43</f>
         <v>19312</v>
       </c>
       <c r="E60" s="176">
@@ -11103,17 +12133,22 @@
         <v>4938445991</v>
       </c>
       <c r="J60" s="199">
-        <f t="shared" ref="J60:J72" si="3">H60-F60</f>
+        <f t="shared" ref="J60:J72" si="7">H60-F60</f>
         <v>52</v>
       </c>
       <c r="K60" s="176">
         <f>I60-G60</f>
         <v>9677015</v>
       </c>
+      <c r="M60" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {16716} &amp; {16768} &amp; {52}\\&amp; {4928768976} &amp; {4938445991} &amp; {9677015}\\</v>
+      </c>
       <c r="X60" s="41"/>
-    </row>
-    <row r="61" spans="2:24">
-      <c r="B61" s="263" t="s">
+      <c r="AA60" s="41"/>
+    </row>
+    <row r="61" spans="2:27">
+      <c r="B61" s="268" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="43" t="s">
@@ -11143,15 +12178,20 @@
       <c r="K61" s="209" t="s">
         <v>22</v>
       </c>
+      <c r="M61" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {-} &amp; {16768} &amp; {-}\\&amp; {-} &amp; {4938445991} &amp; {-}\\</v>
+      </c>
       <c r="X61" s="41"/>
-    </row>
-    <row r="62" spans="2:24">
-      <c r="B62" s="264"/>
+      <c r="AA61" s="41"/>
+    </row>
+    <row r="62" spans="2:27">
+      <c r="B62" s="269"/>
       <c r="C62" s="46" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="98">
-        <f>SUM(D45+F45+H45+J45+L45+N45+P45)</f>
+        <f>D45+F45+H45+J45+L45+N45+P45</f>
         <v>20217</v>
       </c>
       <c r="E62" s="177">
@@ -11171,22 +12211,27 @@
         <v>4938445991</v>
       </c>
       <c r="J62" s="210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>215</v>
       </c>
       <c r="K62" s="177">
-        <f t="shared" ref="K62:K72" si="4">I62-G62</f>
+        <f t="shared" ref="K62:K72" si="8">I62-G62</f>
         <v>48488463</v>
       </c>
+      <c r="M62" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {16553} &amp; {16768} &amp; {215}\\&amp; {4889957528} &amp; {4938445991} &amp; {48488463}\\</v>
+      </c>
       <c r="X62" s="41"/>
-    </row>
-    <row r="63" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B63" s="265"/>
+      <c r="AA62" s="41"/>
+    </row>
+    <row r="63" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B63" s="270"/>
       <c r="C63" s="47" t="s">
         <v>34</v>
       </c>
       <c r="D63" s="92">
-        <f>SUM(D46+F46+H46+J46+L46)</f>
+        <f>D46+F46+H46+J46+L46</f>
         <v>19714</v>
       </c>
       <c r="E63" s="124">
@@ -11206,17 +12251,22 @@
         <v>4938445991</v>
       </c>
       <c r="J63" s="211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>151</v>
       </c>
       <c r="K63" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44069126</v>
       </c>
+      <c r="M63" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {16617} &amp; {16768} &amp; {151}\\&amp; {4894376865} &amp; {4938445991} &amp; {44069126}\\</v>
+      </c>
       <c r="X63" s="41"/>
-    </row>
-    <row r="64" spans="2:24">
-      <c r="B64" s="266" t="s">
+      <c r="AA63" s="41"/>
+    </row>
+    <row r="64" spans="2:27">
+      <c r="B64" s="271" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="50" t="s">
@@ -11246,15 +12296,20 @@
       <c r="K64" s="215" t="s">
         <v>22</v>
       </c>
+      <c r="M64" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {-} &amp; {16768} &amp; {-}\\&amp; {-} &amp; {4938445991} &amp; {-}\\</v>
+      </c>
       <c r="X64" s="41"/>
-    </row>
-    <row r="65" spans="1:24">
-      <c r="B65" s="267"/>
+      <c r="AA64" s="41"/>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="B65" s="272"/>
       <c r="C65" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="94">
-        <f>SUM(D48+F48+H48+J48+L48+N48+P48)</f>
+        <f>D48+F48+H48+J48+L48+N48+P48</f>
         <v>20307</v>
       </c>
       <c r="E65" s="178">
@@ -11274,22 +12329,27 @@
         <v>4938445991</v>
       </c>
       <c r="J65" s="216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>154</v>
       </c>
       <c r="K65" s="178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>24628954</v>
       </c>
+      <c r="M65" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {16614} &amp; {16768} &amp; {154}\\&amp; {4913817037} &amp; {4938445991} &amp; {24628954}\\</v>
+      </c>
       <c r="X65" s="41"/>
-    </row>
-    <row r="66" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B66" s="268"/>
+      <c r="AA65" s="41"/>
+    </row>
+    <row r="66" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B66" s="273"/>
       <c r="C66" s="54" t="s">
         <v>34</v>
       </c>
       <c r="D66" s="95">
-        <f>SUM(D49+F49+H49+J49+L49+N49+P49)</f>
+        <f>D49+F49+H49+J49+L49+N49+P49</f>
         <v>20180</v>
       </c>
       <c r="E66" s="179">
@@ -11309,17 +12369,22 @@
         <v>4938445991</v>
       </c>
       <c r="J66" s="217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>151</v>
       </c>
       <c r="K66" s="179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>23819515</v>
       </c>
+      <c r="M66" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {16617} &amp; {16768} &amp; {151}\\&amp; {4914626476} &amp; {4938445991} &amp; {23819515}\\</v>
+      </c>
       <c r="X66" s="41"/>
-    </row>
-    <row r="67" spans="1:24">
-      <c r="B67" s="269" t="s">
+      <c r="AA66" s="41"/>
+    </row>
+    <row r="67" spans="1:27">
+      <c r="B67" s="274" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="57" t="s">
@@ -11349,15 +12414,20 @@
       <c r="K67" s="180" t="s">
         <v>22</v>
       </c>
+      <c r="M67" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {-} &amp; {16768} &amp; {-}\\&amp; {-} &amp; {4938445991} &amp; {-}\\</v>
+      </c>
       <c r="X67" s="41"/>
-    </row>
-    <row r="68" spans="1:24">
-      <c r="B68" s="270"/>
+      <c r="AA67" s="41"/>
+    </row>
+    <row r="68" spans="1:27">
+      <c r="B68" s="275"/>
       <c r="C68" s="58" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="122">
-        <f>SUM(D51+F51+H51+J51+L51)</f>
+        <f>D51+F51+H51+J51+L51</f>
         <v>19343</v>
       </c>
       <c r="E68" s="180">
@@ -11377,22 +12447,27 @@
         <v>4938445991</v>
       </c>
       <c r="J68" s="219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>151</v>
       </c>
       <c r="K68" s="151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>23819515</v>
       </c>
+      <c r="M68" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {16617} &amp; {16768} &amp; {151}\\&amp; {4914626476} &amp; {4938445991} &amp; {23819515}\\</v>
+      </c>
       <c r="X68" s="41"/>
-    </row>
-    <row r="69" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B69" s="271"/>
+      <c r="AA68" s="41"/>
+    </row>
+    <row r="69" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B69" s="276"/>
       <c r="C69" s="59" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="89">
-        <f>SUM(D52+F52+H52+J52+L52)</f>
+        <f>D52+F52+H52+J52+L52</f>
         <v>19245</v>
       </c>
       <c r="E69" s="181">
@@ -11412,17 +12487,22 @@
         <v>4938445991</v>
       </c>
       <c r="J69" s="221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="K69" s="181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7978761</v>
       </c>
+      <c r="M69" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {16722} &amp; {16768} &amp; {46}\\&amp; {4930467230} &amp; {4938445991} &amp; {7978761}\\</v>
+      </c>
       <c r="X69" s="41"/>
-    </row>
-    <row r="70" spans="1:24">
-      <c r="B70" s="272" t="s">
+      <c r="AA69" s="41"/>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="B70" s="277" t="s">
         <v>27</v>
       </c>
       <c r="C70" s="62" t="s">
@@ -11452,15 +12532,20 @@
       <c r="K70" s="183" t="s">
         <v>22</v>
       </c>
+      <c r="M70" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {-} &amp; {16768} &amp; {-}\\&amp; {-} &amp; {4938445991} &amp; {-}\\</v>
+      </c>
       <c r="X70" s="41"/>
-    </row>
-    <row r="71" spans="1:24">
-      <c r="B71" s="273"/>
+      <c r="AA70" s="41"/>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="B71" s="278"/>
       <c r="C71" s="66" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="90">
-        <f>SUM(D54+F54+H54+J54+L54)</f>
+        <f>D54+F54+H54+J54+L54</f>
         <v>19834</v>
       </c>
       <c r="E71" s="183">
@@ -11480,22 +12565,27 @@
         <v>4938445991</v>
       </c>
       <c r="J71" s="184">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>151</v>
       </c>
       <c r="K71" s="133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>23819515</v>
       </c>
+      <c r="M71" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {16617} &amp; {16768} &amp; {151}\\&amp; {4914626476} &amp; {4938445991} &amp; {23819515}\\</v>
+      </c>
       <c r="X71" s="41"/>
-    </row>
-    <row r="72" spans="1:24">
-      <c r="B72" s="273"/>
+      <c r="AA71" s="41"/>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="B72" s="278"/>
       <c r="C72" s="66" t="s">
         <v>34</v>
       </c>
       <c r="D72" s="90">
-        <f>SUM(D55+F55+H55+J55+L55)</f>
+        <f>D55+F55+H55+J55+L55</f>
         <v>19458</v>
       </c>
       <c r="E72" s="183">
@@ -11515,19 +12605,25 @@
         <v>4938445991</v>
       </c>
       <c r="J72" s="184">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>154</v>
       </c>
       <c r="K72" s="133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>24628954</v>
       </c>
+      <c r="M72" s="157" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {16614} &amp; {16768} &amp; {154}\\&amp; {4913817037} &amp; {4938445991} &amp; {24628954}\\</v>
+      </c>
       <c r="X72" s="41"/>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="AA72" s="41"/>
+    </row>
+    <row r="73" spans="1:27">
       <c r="X73" s="41"/>
-    </row>
-    <row r="74" spans="1:24" ht="15.75" thickBot="1">
+      <c r="AA73" s="41"/>
+    </row>
+    <row r="74" spans="1:27" ht="15.75" thickBot="1">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -11552,62 +12648,71 @@
       <c r="V74" s="11"/>
       <c r="W74" s="11"/>
       <c r="X74" s="42"/>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Y74" s="241"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="42"/>
+    </row>
+    <row r="75" spans="1:27">
       <c r="X75" s="41"/>
-    </row>
-    <row r="76" spans="1:24" ht="15.75" thickBot="1">
+      <c r="AA75" s="99"/>
+    </row>
+    <row r="76" spans="1:27" ht="15.75" thickBot="1">
       <c r="X76" s="41"/>
-    </row>
-    <row r="77" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B77" s="251" t="s">
+      <c r="AA76" s="41"/>
+    </row>
+    <row r="77" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B77" s="256" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="252"/>
-      <c r="D77" s="254" t="s">
+      <c r="C77" s="257"/>
+      <c r="D77" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="241"/>
-      <c r="F77" s="244" t="s">
+      <c r="E77" s="246"/>
+      <c r="F77" s="249" t="s">
         <v>36</v>
       </c>
-      <c r="G77" s="241"/>
-      <c r="H77" s="244" t="s">
+      <c r="G77" s="246"/>
+      <c r="H77" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="I77" s="241"/>
-      <c r="J77" s="244" t="s">
+      <c r="I77" s="246"/>
+      <c r="J77" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="K77" s="241"/>
-      <c r="L77" s="244" t="s">
+      <c r="K77" s="246"/>
+      <c r="L77" s="249" t="s">
         <v>39</v>
       </c>
-      <c r="M77" s="241"/>
-      <c r="N77" s="256" t="s">
+      <c r="M77" s="246"/>
+      <c r="N77" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="O77" s="257"/>
-      <c r="P77" s="256" t="s">
+      <c r="O77" s="262"/>
+      <c r="P77" s="261" t="s">
         <v>42</v>
       </c>
-      <c r="Q77" s="257"/>
-      <c r="R77" s="255" t="s">
+      <c r="Q77" s="262"/>
+      <c r="R77" s="260" t="s">
         <v>41</v>
       </c>
-      <c r="S77" s="255"/>
-      <c r="T77" s="255" t="s">
+      <c r="S77" s="260"/>
+      <c r="T77" s="260" t="s">
         <v>333</v>
       </c>
-      <c r="U77" s="255"/>
-      <c r="V77" s="255" t="s">
+      <c r="U77" s="260"/>
+      <c r="V77" s="260" t="s">
         <v>334</v>
       </c>
-      <c r="W77" s="255"/>
+      <c r="W77" s="260"/>
       <c r="X77" s="41"/>
-    </row>
-    <row r="78" spans="1:24">
-      <c r="B78" s="260" t="s">
+      <c r="Z77" s="244" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA77" s="41"/>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="B78" s="265" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="83" t="s">
@@ -11674,9 +12779,14 @@
         <v>22</v>
       </c>
       <c r="X78" s="41"/>
-    </row>
-    <row r="79" spans="1:24">
-      <c r="B79" s="261"/>
+      <c r="Z78" s="245" t="str">
+        <f>"&amp; "&amp;"{"&amp;D78&amp;"}"&amp;" &amp; "&amp;"{"&amp;F78&amp;"}"&amp;" &amp; "&amp;"{"&amp;H78&amp;"}"&amp;" &amp; "&amp;"{"&amp;J78&amp;"}"&amp;" &amp; "&amp;"{"&amp;L78&amp;"}"&amp;" &amp; "&amp;"{"&amp;N78&amp;"}"&amp;" &amp; "&amp;"{"&amp;P78&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E78&amp;"}"&amp;" &amp; "&amp;"{"&amp;G78&amp;"}"&amp;" &amp; "&amp;"{"&amp;I78&amp;"}"&amp;" &amp; "&amp;"{"&amp;K78&amp;"}"&amp;" &amp; "&amp;"{"&amp;M78&amp;"}"&amp;" &amp; "&amp;"{"&amp;O78&amp;"}"&amp;" &amp; "&amp;"{"&amp;Q78&amp;"}"&amp;"\\"</f>
+        <v>&amp; {3894} &amp; {1328} &amp; {18} &amp; {29} &amp; {8} &amp; {4342} &amp; {3781}\\&amp; {551614771} &amp; {88213418} &amp; {6650695} &amp; {3147819} &amp; {1372472} &amp; {702801551} &amp; {512691296}\\</v>
+      </c>
+      <c r="AA78" s="41"/>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="B79" s="266"/>
       <c r="C79" s="31" t="s">
         <v>30</v>
       </c>
@@ -11741,9 +12851,14 @@
         <v>22</v>
       </c>
       <c r="X79" s="41"/>
-    </row>
-    <row r="80" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B80" s="262"/>
+      <c r="Z79" s="245" t="str">
+        <f t="shared" ref="Z79:Z92" si="9">"&amp; "&amp;"{"&amp;D79&amp;"}"&amp;" &amp; "&amp;"{"&amp;F79&amp;"}"&amp;" &amp; "&amp;"{"&amp;H79&amp;"}"&amp;" &amp; "&amp;"{"&amp;J79&amp;"}"&amp;" &amp; "&amp;"{"&amp;L79&amp;"}"&amp;" &amp; "&amp;"{"&amp;N79&amp;"}"&amp;" &amp; "&amp;"{"&amp;P79&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E79&amp;"}"&amp;" &amp; "&amp;"{"&amp;G79&amp;"}"&amp;" &amp; "&amp;"{"&amp;I79&amp;"}"&amp;" &amp; "&amp;"{"&amp;K79&amp;"}"&amp;" &amp; "&amp;"{"&amp;M79&amp;"}"&amp;" &amp; "&amp;"{"&amp;O79&amp;"}"&amp;" &amp; "&amp;"{"&amp;Q79&amp;"}"&amp;"\\"</f>
+        <v>&amp; {1328} &amp; {1485} &amp; {3434} &amp; {3275} &amp; {57} &amp; {2707} &amp; {1107}\\&amp; {88213418} &amp; {250540891} &amp; {538703190} &amp; {569882545} &amp; {11410904} &amp; {334878700} &amp; {202593601}\\</v>
+      </c>
+      <c r="AA79" s="41"/>
+    </row>
+    <row r="80" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B80" s="267"/>
       <c r="C80" s="35" t="s">
         <v>34</v>
       </c>
@@ -11808,9 +12923,14 @@
         <v>22</v>
       </c>
       <c r="X80" s="41"/>
-    </row>
-    <row r="81" spans="2:24">
-      <c r="B81" s="263" t="s">
+      <c r="Z80" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {1706} &amp; {6602} &amp; {1574} &amp; {3282} &amp; {18} &amp; {8} &amp; {-}\\&amp; {137034607} &amp; {979030502} &amp; {299561089} &amp; {448197901} &amp; {6650695} &amp; {1372472} &amp; {-}\\</v>
+      </c>
+      <c r="AA80" s="41"/>
+    </row>
+    <row r="81" spans="2:27">
+      <c r="B81" s="268" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="43" t="s">
@@ -11877,9 +12997,14 @@
         <v>84869851</v>
       </c>
       <c r="X81" s="41"/>
-    </row>
-    <row r="82" spans="2:24">
-      <c r="B82" s="264"/>
+      <c r="Z81" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {18} &amp; {3409} &amp; {1490} &amp; {1189} &amp; {1137} &amp; {2590} &amp; {974}\\&amp; {6650695} &amp; {569399610} &amp; {213100359} &amp; {69539311} &amp; {152703635} &amp; {443753461} &amp; {101549335}\\</v>
+      </c>
+      <c r="AA81" s="41"/>
+    </row>
+    <row r="82" spans="2:27">
+      <c r="B82" s="269"/>
       <c r="C82" s="46" t="s">
         <v>30</v>
       </c>
@@ -11944,9 +13069,14 @@
         <v>22</v>
       </c>
       <c r="X82" s="41"/>
-    </row>
-    <row r="83" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B83" s="265"/>
+      <c r="Z82" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {2604} &amp; {1788} &amp; {1842} &amp; {3801} &amp; {184} &amp; {2718} &amp; {-}\\&amp; {445215356} &amp; {240144312} &amp; {220214552} &amp; {618144069} &amp; {26494110} &amp; {280575123} &amp; {-}\\</v>
+      </c>
+      <c r="AA82" s="41"/>
+    </row>
+    <row r="83" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B83" s="270"/>
       <c r="C83" s="47" t="s">
         <v>34</v>
       </c>
@@ -12011,9 +13141,14 @@
         <v>22</v>
       </c>
       <c r="X83" s="41"/>
-    </row>
-    <row r="84" spans="2:24">
-      <c r="B84" s="266" t="s">
+      <c r="Z83" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {1858} &amp; {1189} &amp; {2771} &amp; {3208} &amp; {3970} &amp; {98} &amp; {-}\\&amp; {221666627} &amp; {69539311} &amp; {465327745} &amp; {430445626} &amp; {640425037} &amp; {16067941} &amp; {-}\\</v>
+      </c>
+      <c r="AA83" s="41"/>
+    </row>
+    <row r="84" spans="2:27">
+      <c r="B84" s="271" t="s">
         <v>25</v>
       </c>
       <c r="C84" s="50" t="s">
@@ -12080,9 +13215,14 @@
         <v>22</v>
       </c>
       <c r="X84" s="41"/>
-    </row>
-    <row r="85" spans="2:24">
-      <c r="B85" s="267"/>
+      <c r="Z84" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {33} &amp; {1146} &amp; {18} &amp; {1189} &amp; {2740} &amp; {2151} &amp; {2851}\\&amp; {3475973} &amp; {167150779} &amp; {6650695} &amp; {69539311} &amp; {465077049} &amp; {301696630} &amp; {327007793}\\</v>
+      </c>
+      <c r="AA84" s="41"/>
+    </row>
+    <row r="85" spans="2:27">
+      <c r="B85" s="272"/>
       <c r="C85" s="53" t="s">
         <v>30</v>
       </c>
@@ -12147,9 +13287,14 @@
         <v>22</v>
       </c>
       <c r="X85" s="41"/>
-    </row>
-    <row r="86" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B86" s="268"/>
+      <c r="Z85" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {2769} &amp; {3072} &amp; {1703} &amp; {1189} &amp; {1845} &amp; {18} &amp; {2308}\\&amp; {469122103} &amp; {510605024} &amp; {233668439} &amp; {69539311} &amp; {266006235} &amp; {6650695} &amp; {276220012}\\</v>
+      </c>
+      <c r="AA85" s="41"/>
+    </row>
+    <row r="86" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B86" s="273"/>
       <c r="C86" s="54" t="s">
         <v>34</v>
       </c>
@@ -12214,9 +13359,14 @@
         <v>22</v>
       </c>
       <c r="X86" s="41"/>
-    </row>
-    <row r="87" spans="2:24">
-      <c r="B87" s="269" t="s">
+      <c r="Z86" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {2793} &amp; {1189} &amp; {3104} &amp; {1845} &amp; {2795} &amp; {18} &amp; {1314}\\&amp; {320771269} &amp; {69539311} &amp; {513928598} &amp; {266006235} &amp; {470999843} &amp; {6650695} &amp; {188750577}\\</v>
+      </c>
+      <c r="AA86" s="41"/>
+    </row>
+    <row r="87" spans="2:27">
+      <c r="B87" s="274" t="s">
         <v>26</v>
       </c>
       <c r="C87" s="57" t="s">
@@ -12283,9 +13433,14 @@
         <v>22</v>
       </c>
       <c r="X87" s="41"/>
-    </row>
-    <row r="88" spans="2:24">
-      <c r="B88" s="270"/>
+      <c r="Z87" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {3203} &amp; {514} &amp; {4156} &amp; {1328} &amp; {152} &amp; {3762} &amp; {-}\\&amp; {443878168} &amp; {64602237} &amp; {682623994} &amp; {88213418} &amp; {23228171} &amp; {535715521} &amp; {-}\\</v>
+      </c>
+      <c r="AA87" s="41"/>
+    </row>
+    <row r="88" spans="2:27">
+      <c r="B88" s="275"/>
       <c r="C88" s="58" t="s">
         <v>30</v>
       </c>
@@ -12350,9 +13505,14 @@
         <v>22</v>
       </c>
       <c r="X88" s="41"/>
-    </row>
-    <row r="89" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B89" s="271"/>
+      <c r="Z88" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {2015} &amp; {3995} &amp; {1328} &amp; {3455} &amp; {2567} &amp; {-} &amp; {-}\\&amp; {246162121} &amp; {661276305} &amp; {88213418} &amp; {496979869} &amp; {385212887} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA88" s="41"/>
+    </row>
+    <row r="89" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B89" s="276"/>
       <c r="C89" s="59" t="s">
         <v>34</v>
       </c>
@@ -12417,9 +13577,14 @@
         <v>22</v>
       </c>
       <c r="X89" s="41"/>
-    </row>
-    <row r="90" spans="2:24">
-      <c r="B90" s="272" t="s">
+      <c r="Z89" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {1480} &amp; {3230} &amp; {3560} &amp; {4407} &amp; {57} &amp; {514} &amp; {-}\\&amp; {105852888} &amp; {453825468} &amp; {484432124} &amp; {730419036} &amp; {11410904} &amp; {64602237} &amp; {-}\\</v>
+      </c>
+      <c r="AA89" s="41"/>
+    </row>
+    <row r="90" spans="2:27">
+      <c r="B90" s="277" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="79" t="s">
@@ -12486,9 +13651,14 @@
         <v>22</v>
       </c>
       <c r="X90" s="41"/>
-    </row>
-    <row r="91" spans="2:24">
-      <c r="B91" s="273"/>
+      <c r="Z90" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {0} &amp; {249} &amp; {3757} &amp; {3909} &amp; {144} &amp; {1328} &amp; {3574}\\&amp; {0} &amp; {49334146} &amp; {465757963} &amp; {552733987} &amp; {21855699} &amp; {88213418} &amp; {590191035}\\</v>
+      </c>
+      <c r="AA90" s="41"/>
+    </row>
+    <row r="91" spans="2:27">
+      <c r="B91" s="278"/>
       <c r="C91" s="66" t="s">
         <v>30</v>
       </c>
@@ -12553,9 +13723,14 @@
         <v>22</v>
       </c>
       <c r="X91" s="41"/>
-    </row>
-    <row r="92" spans="2:24">
-      <c r="B92" s="273"/>
+      <c r="Z91" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {1820} &amp; {1328} &amp; {3362} &amp; {2520} &amp; {184} &amp; {3609} &amp; {-}\\&amp; {227177725} &amp; {88213418} &amp; {471642073} &amp; {392741935} &amp; {26494110} &amp; {594860015} &amp; {-}\\</v>
+      </c>
+      <c r="AA91" s="41"/>
+    </row>
+    <row r="92" spans="2:27">
+      <c r="B92" s="278"/>
       <c r="C92" s="66" t="s">
         <v>34</v>
       </c>
@@ -12620,15 +13795,21 @@
         <v>22</v>
       </c>
       <c r="X92" s="41"/>
-    </row>
-    <row r="93" spans="2:24" ht="15.75" thickBot="1">
+      <c r="Z92" s="245" t="str">
+        <f t="shared" si="9"/>
+        <v>&amp; {1480} &amp; {4347} &amp; {4128} &amp; {3384} &amp; {98} &amp; {-} &amp; {-}\\&amp; {105852888} &amp; {721413660} &amp; {508957346} &amp; {515109959} &amp; {16067941} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA92" s="41"/>
+    </row>
+    <row r="93" spans="2:27" ht="15.75" thickBot="1">
       <c r="X93" s="41"/>
-    </row>
-    <row r="94" spans="2:24" ht="30.75" thickBot="1">
-      <c r="B94" s="258" t="s">
+      <c r="AA93" s="41"/>
+    </row>
+    <row r="94" spans="2:27" ht="30.75" thickBot="1">
+      <c r="B94" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="C94" s="274"/>
+      <c r="C94" s="279"/>
       <c r="D94" s="233" t="s">
         <v>343</v>
       </c>
@@ -12653,17 +13834,21 @@
       <c r="K94" s="234" t="s">
         <v>350</v>
       </c>
+      <c r="M94" s="281" t="s">
+        <v>351</v>
+      </c>
       <c r="X94" s="41"/>
-    </row>
-    <row r="95" spans="2:24">
-      <c r="B95" s="260" t="s">
+      <c r="AA94" s="41"/>
+    </row>
+    <row r="95" spans="2:27">
+      <c r="B95" s="265" t="s">
         <v>23</v>
       </c>
       <c r="C95" s="83" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="136">
-        <f>SUM(D78+F78+H78+J78+L78+N78+P78)</f>
+        <f>D78+F78+H78+J78+L78+N78+P78</f>
         <v>13400</v>
       </c>
       <c r="E95" s="201">
@@ -12690,15 +13875,20 @@
         <f>I95-G95</f>
         <v>27949112</v>
       </c>
+      <c r="M95" s="157" t="str">
+        <f>"&amp; "&amp;"{"&amp;F95&amp;"}"&amp;" &amp; "&amp;"{"&amp;H95&amp;"}"&amp;" &amp; "&amp;"{"&amp;J95&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;G95&amp;"}"&amp;" &amp; "&amp;"{"&amp;I95&amp;"}"&amp;" &amp; "&amp;"{"&amp;K95&amp;"}"&amp;"\\"</f>
+        <v>&amp; {12899} &amp; {13179} &amp; {280}\\&amp; {1757278336} &amp; {1785227448} &amp; {27949112}\\</v>
+      </c>
       <c r="X95" s="41"/>
-    </row>
-    <row r="96" spans="2:24">
-      <c r="B96" s="261"/>
+      <c r="AA95" s="41"/>
+    </row>
+    <row r="96" spans="2:27">
+      <c r="B96" s="266"/>
       <c r="C96" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D96" s="33">
-        <f>SUM(D79+F79+H79+J79+L79+N79+P79)</f>
+        <f>D79+F79+H79+J79+L79+N79+P79</f>
         <v>13393</v>
       </c>
       <c r="E96" s="175">
@@ -12725,15 +13915,20 @@
         <f>I96-G96</f>
         <v>64544481</v>
       </c>
+      <c r="M96" s="157" t="str">
+        <f t="shared" ref="M96:M109" si="10">"&amp; "&amp;"{"&amp;F96&amp;"}"&amp;" &amp; "&amp;"{"&amp;H96&amp;"}"&amp;" &amp; "&amp;"{"&amp;J96&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;G96&amp;"}"&amp;" &amp; "&amp;"{"&amp;I96&amp;"}"&amp;" &amp; "&amp;"{"&amp;K96&amp;"}"&amp;"\\"</f>
+        <v>&amp; {12563} &amp; {13179} &amp; {616}\\&amp; {1720682967} &amp; {1785227448} &amp; {64544481}\\</v>
+      </c>
       <c r="X96" s="41"/>
-    </row>
-    <row r="97" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B97" s="262"/>
+      <c r="AA96" s="41"/>
+    </row>
+    <row r="97" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B97" s="267"/>
       <c r="C97" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D97" s="38">
-        <f>SUM(D80+F80+H80+J80+L80+N80)</f>
+        <f>D80+F80+H80+J80+L80+N80</f>
         <v>13190</v>
       </c>
       <c r="E97" s="176">
@@ -12753,24 +13948,29 @@
         <v>1785227448</v>
       </c>
       <c r="J97" s="199">
-        <f t="shared" ref="J97" si="5">H97-F97</f>
+        <f t="shared" ref="J97" si="11">H97-F97</f>
         <v>439</v>
       </c>
       <c r="K97" s="176">
         <f>I97-G97</f>
         <v>44486311</v>
       </c>
+      <c r="M97" s="157" t="str">
+        <f t="shared" si="10"/>
+        <v>&amp; {12740} &amp; {13179} &amp; {439}\\&amp; {1740741137} &amp; {1785227448} &amp; {44486311}\\</v>
+      </c>
       <c r="X97" s="41"/>
-    </row>
-    <row r="98" spans="1:24">
-      <c r="B98" s="263" t="s">
+      <c r="AA97" s="41"/>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="B98" s="268" t="s">
         <v>24</v>
       </c>
       <c r="C98" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D98" s="98">
-        <f>SUM(D81+F81+H81+J81+L81+N81+P81+R81+T81+V81)</f>
+        <f>D81+F81+H81+J81+L81+N81+P81+R81+T81+V81</f>
         <v>12378</v>
       </c>
       <c r="E98" s="177">
@@ -12797,15 +13997,20 @@
         <f>I98-G98</f>
         <v>152151586</v>
       </c>
+      <c r="M98" s="157" t="str">
+        <f t="shared" si="10"/>
+        <v>&amp; {11819} &amp; {13179} &amp; {1360}\\&amp; {1633075862} &amp; {1785227448} &amp; {152151586}\\</v>
+      </c>
       <c r="X98" s="41"/>
-    </row>
-    <row r="99" spans="1:24">
-      <c r="B99" s="264"/>
+      <c r="AA98" s="41"/>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="B99" s="269"/>
       <c r="C99" s="46" t="s">
         <v>30</v>
       </c>
       <c r="D99" s="98">
-        <f>SUM(D82+F82+H82+J82+L82+N82)</f>
+        <f>D82+F82+H82+J82+L82+N82</f>
         <v>12937</v>
       </c>
       <c r="E99" s="177">
@@ -12825,22 +14030,27 @@
         <v>1785227448</v>
       </c>
       <c r="J99" s="210">
-        <f t="shared" ref="J99:J100" si="6">H99-F99</f>
+        <f t="shared" ref="J99:J100" si="12">H99-F99</f>
         <v>755</v>
       </c>
       <c r="K99" s="177">
-        <f t="shared" ref="K99:K100" si="7">I99-G99</f>
+        <f t="shared" ref="K99:K100" si="13">I99-G99</f>
         <v>78918877</v>
       </c>
+      <c r="M99" s="157" t="str">
+        <f t="shared" si="10"/>
+        <v>&amp; {12424} &amp; {13179} &amp; {755}\\&amp; {1706308571} &amp; {1785227448} &amp; {78918877}\\</v>
+      </c>
       <c r="X99" s="41"/>
-    </row>
-    <row r="100" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B100" s="265"/>
+      <c r="AA99" s="41"/>
+    </row>
+    <row r="100" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B100" s="270"/>
       <c r="C100" s="47" t="s">
         <v>34</v>
       </c>
       <c r="D100" s="92">
-        <f>SUM(D83+F83+H83+J83+L83+N83)</f>
+        <f>D83+F83+H83+J83+L83+N83</f>
         <v>13094</v>
       </c>
       <c r="E100" s="124">
@@ -12860,24 +14070,29 @@
         <v>1785227448</v>
       </c>
       <c r="J100" s="211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>592</v>
       </c>
       <c r="K100" s="124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>59113217</v>
       </c>
+      <c r="M100" s="157" t="str">
+        <f t="shared" si="10"/>
+        <v>&amp; {12587} &amp; {13179} &amp; {592}\\&amp; {1726114231} &amp; {1785227448} &amp; {59113217}\\</v>
+      </c>
       <c r="X100" s="41"/>
-    </row>
-    <row r="101" spans="1:24">
-      <c r="B101" s="266" t="s">
+      <c r="AA100" s="41"/>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="B101" s="271" t="s">
         <v>25</v>
       </c>
       <c r="C101" s="50" t="s">
         <v>29</v>
       </c>
       <c r="D101" s="94">
-        <f>SUM(D84+F84+H84+J84+L84+N84+P84+R84)</f>
+        <f>D84+F84+H84+J84+L84+N84+P84+R84</f>
         <v>13232</v>
       </c>
       <c r="E101" s="178">
@@ -12904,15 +14119,20 @@
         <f>I101-G101</f>
         <v>71145271</v>
       </c>
+      <c r="M101" s="157" t="str">
+        <f t="shared" si="10"/>
+        <v>&amp; {12596} &amp; {13179} &amp; {583}\\&amp; {1714082177} &amp; {1785227448} &amp; {71145271}\\</v>
+      </c>
       <c r="X101" s="41"/>
-    </row>
-    <row r="102" spans="1:24">
-      <c r="B102" s="267"/>
+      <c r="AA101" s="41"/>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="B102" s="272"/>
       <c r="C102" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D102" s="94">
-        <f>SUM(D85+F85+H85+J85+L85+N85+P85)</f>
+        <f>D85+F85+H85+J85+L85+N85+P85</f>
         <v>12904</v>
       </c>
       <c r="E102" s="178">
@@ -12932,22 +14152,27 @@
         <v>1785227448</v>
       </c>
       <c r="J102" s="216">
-        <f t="shared" ref="J102:J103" si="8">H102-F102</f>
+        <f t="shared" ref="J102:J103" si="14">H102-F102</f>
         <v>889</v>
       </c>
       <c r="K102" s="178">
-        <f t="shared" ref="K102:K103" si="9">I102-G102</f>
+        <f t="shared" ref="K102:K103" si="15">I102-G102</f>
         <v>91888645</v>
       </c>
+      <c r="M102" s="157" t="str">
+        <f t="shared" si="10"/>
+        <v>&amp; {12290} &amp; {13179} &amp; {889}\\&amp; {1693338803} &amp; {1785227448} &amp; {91888645}\\</v>
+      </c>
       <c r="X102" s="41"/>
-    </row>
-    <row r="103" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B103" s="268"/>
+      <c r="AA102" s="41"/>
+    </row>
+    <row r="103" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B103" s="273"/>
       <c r="C103" s="54" t="s">
         <v>34</v>
       </c>
       <c r="D103" s="95">
-        <f>SUM(D86+F86+H86+J86+L86+N86+P86)</f>
+        <f>D86+F86+H86+J86+L86+N86+P86</f>
         <v>13058</v>
       </c>
       <c r="E103" s="179">
@@ -12967,24 +14192,29 @@
         <v>1785227448</v>
       </c>
       <c r="J103" s="217">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>746</v>
       </c>
       <c r="K103" s="179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>87939312</v>
       </c>
+      <c r="M103" s="157" t="str">
+        <f t="shared" si="10"/>
+        <v>&amp; {12433} &amp; {13179} &amp; {746}\\&amp; {1697288136} &amp; {1785227448} &amp; {87939312}\\</v>
+      </c>
       <c r="X103" s="41"/>
-    </row>
-    <row r="104" spans="1:24">
-      <c r="B104" s="269" t="s">
+      <c r="AA103" s="41"/>
+    </row>
+    <row r="104" spans="1:27">
+      <c r="B104" s="274" t="s">
         <v>26</v>
       </c>
       <c r="C104" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D104" s="97">
-        <f>SUM(D87+F87+H87+J87+L87+N87)</f>
+        <f>D87+F87+H87+J87+L87+N87</f>
         <v>13115</v>
       </c>
       <c r="E104" s="151">
@@ -13011,15 +14241,20 @@
         <f>I104-G104</f>
         <v>60919501</v>
       </c>
+      <c r="M104" s="157" t="str">
+        <f t="shared" si="10"/>
+        <v>&amp; {12595} &amp; {13179} &amp; {584}\\&amp; {1724307947} &amp; {1785227448} &amp; {60919501}\\</v>
+      </c>
       <c r="X104" s="41"/>
-    </row>
-    <row r="105" spans="1:24">
-      <c r="B105" s="270"/>
+      <c r="AA104" s="41"/>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="B105" s="275"/>
       <c r="C105" s="58" t="s">
         <v>30</v>
       </c>
       <c r="D105" s="97">
-        <f>SUM(D88+F88+H88+J88+L88)</f>
+        <f>D88+F88+H88+J88+L88</f>
         <v>13360</v>
       </c>
       <c r="E105" s="151">
@@ -13039,22 +14274,27 @@
         <v>1785227448</v>
       </c>
       <c r="J105" s="219">
-        <f t="shared" ref="J105:J106" si="10">H105-F105</f>
+        <f t="shared" ref="J105:J106" si="16">H105-F105</f>
         <v>388</v>
       </c>
       <c r="K105" s="151">
-        <f t="shared" ref="K105:K106" si="11">I105-G105</f>
+        <f t="shared" ref="K105:K106" si="17">I105-G105</f>
         <v>36516126</v>
       </c>
+      <c r="M105" s="157" t="str">
+        <f t="shared" si="10"/>
+        <v>&amp; {12791} &amp; {13179} &amp; {388}\\&amp; {1748711322} &amp; {1785227448} &amp; {36516126}\\</v>
+      </c>
       <c r="X105" s="41"/>
-    </row>
-    <row r="106" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B106" s="271"/>
+      <c r="AA105" s="41"/>
+    </row>
+    <row r="106" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B106" s="276"/>
       <c r="C106" s="59" t="s">
         <v>34</v>
       </c>
       <c r="D106" s="89">
-        <f>SUM(D89+F89+H89+J89+L89+N89)</f>
+        <f>D89+F89+H89+J89+L89+N89</f>
         <v>13248</v>
       </c>
       <c r="E106" s="181">
@@ -13074,24 +14314,29 @@
         <v>1785227448</v>
       </c>
       <c r="J106" s="221">
+        <f t="shared" si="16"/>
+        <v>475</v>
+      </c>
+      <c r="K106" s="181">
+        <f t="shared" si="17"/>
+        <v>48368133</v>
+      </c>
+      <c r="M106" s="157" t="str">
         <f t="shared" si="10"/>
-        <v>475</v>
-      </c>
-      <c r="K106" s="181">
-        <f t="shared" si="11"/>
-        <v>48368133</v>
+        <v>&amp; {12704} &amp; {13179} &amp; {475}\\&amp; {1736859315} &amp; {1785227448} &amp; {48368133}\\</v>
       </c>
       <c r="X106" s="41"/>
-    </row>
-    <row r="107" spans="1:24">
-      <c r="B107" s="272" t="s">
+      <c r="AA106" s="41"/>
+    </row>
+    <row r="107" spans="1:27">
+      <c r="B107" s="277" t="s">
         <v>27</v>
       </c>
       <c r="C107" s="62" t="s">
         <v>29</v>
       </c>
       <c r="D107" s="90">
-        <f>SUM(D90+F90+H90+J90+L90+N90+P90)</f>
+        <f>D90+F90+H90+J90+L90+N90+P90</f>
         <v>12961</v>
       </c>
       <c r="E107" s="183">
@@ -13118,15 +14363,20 @@
         <f>I107-G107</f>
         <v>122858189</v>
       </c>
+      <c r="M107" s="157" t="str">
+        <f t="shared" si="10"/>
+        <v>&amp; {12473} &amp; {13179} &amp; {706}\\&amp; {1662369259} &amp; {1785227448} &amp; {122858189}\\</v>
+      </c>
       <c r="X107" s="41"/>
-    </row>
-    <row r="108" spans="1:24">
-      <c r="B108" s="273"/>
+      <c r="AA107" s="41"/>
+    </row>
+    <row r="108" spans="1:27">
+      <c r="B108" s="278"/>
       <c r="C108" s="66" t="s">
         <v>30</v>
       </c>
       <c r="D108" s="91">
-        <f>SUM(D91+F91+H91+J91+L91+N91)</f>
+        <f>D91+F91+H91+J91+L91+N91</f>
         <v>12823</v>
       </c>
       <c r="E108" s="133">
@@ -13146,22 +14396,27 @@
         <v>1785227448</v>
       </c>
       <c r="J108" s="184">
-        <f t="shared" ref="J108" si="12">H108-F108</f>
+        <f t="shared" ref="J108" si="18">H108-F108</f>
         <v>905</v>
       </c>
       <c r="K108" s="133">
-        <f t="shared" ref="K108:K109" si="13">I108-G108</f>
+        <f t="shared" ref="K108:K109" si="19">I108-G108</f>
         <v>99765270</v>
       </c>
+      <c r="M108" s="157" t="str">
+        <f t="shared" si="10"/>
+        <v>&amp; {12274} &amp; {13179} &amp; {905}\\&amp; {1685462178} &amp; {1785227448} &amp; {99765270}\\</v>
+      </c>
       <c r="X108" s="41"/>
-    </row>
-    <row r="109" spans="1:24">
-      <c r="B109" s="273"/>
+      <c r="AA108" s="41"/>
+    </row>
+    <row r="109" spans="1:27">
+      <c r="B109" s="278"/>
       <c r="C109" s="66" t="s">
         <v>34</v>
       </c>
       <c r="D109" s="91">
-        <f>SUM(D92+F92+H92+J92+L92)</f>
+        <f>D92+F92+H92+J92+L92</f>
         <v>13437</v>
       </c>
       <c r="E109" s="133">
@@ -13185,15 +14440,21 @@
         <v>308</v>
       </c>
       <c r="K109" s="133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>31705867</v>
       </c>
+      <c r="M109" s="157" t="str">
+        <f t="shared" si="10"/>
+        <v>&amp; {12871} &amp; {13179} &amp; {308}\\&amp; {1753521581} &amp; {1785227448} &amp; {31705867}\\</v>
+      </c>
       <c r="X109" s="41"/>
-    </row>
-    <row r="110" spans="1:24">
+      <c r="AA109" s="41"/>
+    </row>
+    <row r="110" spans="1:27">
       <c r="X110" s="41"/>
-    </row>
-    <row r="111" spans="1:24" ht="15.75" thickBot="1">
+      <c r="AA110" s="41"/>
+    </row>
+    <row r="111" spans="1:27" ht="15.75" thickBot="1">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -13218,6 +14479,9 @@
       <c r="V111" s="11"/>
       <c r="W111" s="11"/>
       <c r="X111" s="42"/>
+      <c r="Y111" s="241"/>
+      <c r="Z111" s="11"/>
+      <c r="AA111" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="62">
@@ -13287,7 +14551,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
-    <ignoredError sqref="D27:E27 D34:E34 D98:E98 E105 E107" formula="1"/>
+    <ignoredError sqref="D27:E27 D34:E34 D98:E98 D105:E105 D107:E107 D30:E30" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13297,7 +14561,7 @@
   <dimension ref="B1:I225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13319,7 +14583,7 @@
       </c>
       <c r="C2" s="240" t="str">
         <f>"&gt; 2010-2000 "&amp;"("&amp;COUNTA(C3:C210)&amp;")"</f>
-        <v>&gt; 2010-2000 (208)</v>
+        <v>&gt; 2010-2000 (206)</v>
       </c>
       <c r="E2" s="240" t="str">
         <f>"&gt; Current "&amp;"("&amp;COUNTA(E3:E225)&amp;")"</f>
@@ -13340,10 +14604,10 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="140" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C3" s="140" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E3" s="140" t="s">
         <v>56</v>
@@ -13360,10 +14624,10 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="19" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>56</v>
+        <v>302</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>57</v>
@@ -13380,10 +14644,10 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="19" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>57</v>
+        <v>316</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>58</v>
@@ -13400,10 +14664,10 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="19" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>46</v>
@@ -13420,10 +14684,10 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="19" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>46</v>
+        <v>324</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>59</v>
@@ -13440,10 +14704,10 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="19" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>59</v>
+        <v>330</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>169</v>
@@ -13460,10 +14724,10 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="19" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>114</v>
@@ -13480,10 +14744,10 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="19" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>170</v>
@@ -13540,10 +14804,10 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="19" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>61</v>
@@ -13560,10 +14824,10 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="19" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>234</v>
@@ -13580,10 +14844,10 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="19" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>172</v>
@@ -13600,10 +14864,10 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="19" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>61</v>
+        <v>305</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>62</v>
@@ -13620,10 +14884,10 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="19" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>235</v>
@@ -13640,10 +14904,10 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="19" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>63</v>
@@ -13660,10 +14924,10 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="19" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>151</v>
@@ -13680,10 +14944,10 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="19" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>151</v>
+        <v>320</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>64</v>
@@ -13700,10 +14964,10 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="19" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>64</v>
+        <v>321</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>65</v>
@@ -13720,10 +14984,10 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="19" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>65</v>
+        <v>322</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>152</v>
@@ -13740,10 +15004,10 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="19" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>153</v>
@@ -13760,10 +15024,10 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="19" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>153</v>
+        <v>323</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>154</v>
@@ -13780,10 +15044,10 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="19" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>154</v>
+        <v>325</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>66</v>
@@ -13800,10 +15064,10 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="19" t="s">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>236</v>
@@ -13820,10 +15084,10 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="19" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>67</v>
@@ -13840,10 +15104,10 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="19" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>115</v>
@@ -13860,10 +15124,10 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="19" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>68</v>
@@ -13880,10 +15144,10 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="19" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>69</v>
@@ -13900,10 +15164,10 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="19" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>70</v>
@@ -13920,10 +15184,10 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="19" t="s">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>69</v>
+        <v>328</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>71</v>
@@ -13940,10 +15204,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="19" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>70</v>
+        <v>329</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>155</v>
@@ -13960,10 +15224,10 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="19" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>72</v>
@@ -13980,10 +15244,10 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="19" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>73</v>
@@ -14000,10 +15264,10 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="19" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>155</v>
+        <v>332</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>74</v>
@@ -14020,10 +15284,10 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="19" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>116</v>
@@ -14040,10 +15304,10 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="19" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>117</v>
@@ -14060,10 +15324,10 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="19" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>75</v>
@@ -14080,10 +15344,10 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="19" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>76</v>
@@ -14100,10 +15364,10 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="19" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>118</v>
@@ -14120,10 +15384,10 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="19" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>173</v>
@@ -14140,10 +15404,10 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="19" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>174</v>
@@ -14160,10 +15424,10 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="19" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>237</v>
@@ -14180,10 +15444,10 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="19" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>77</v>
@@ -14200,10 +15464,10 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="19" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>305</v>
+        <v>176</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>78</v>
@@ -14220,10 +15484,10 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="19" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>119</v>
@@ -14240,10 +15504,10 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="19" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>175</v>
@@ -14260,10 +15524,10 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="19" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>176</v>
@@ -14280,10 +15544,10 @@
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="19" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>177</v>
@@ -14300,10 +15564,10 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="19" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>238</v>
@@ -14320,10 +15584,10 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="19" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>178</v>
@@ -14340,10 +15604,10 @@
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="19" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>179</v>
@@ -14360,10 +15624,10 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="19" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>239</v>
@@ -14380,10 +15644,10 @@
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="19" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>120</v>
@@ -14400,10 +15664,10 @@
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="19" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>47</v>
@@ -14420,10 +15684,10 @@
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="19" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>300</v>
+        <v>193</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>180</v>
@@ -14440,10 +15704,10 @@
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="19" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>181</v>
@@ -14460,10 +15724,10 @@
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>182</v>
@@ -14480,10 +15744,10 @@
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>183</v>
@@ -14500,10 +15764,10 @@
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="19" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>240</v>
@@ -14520,10 +15784,10 @@
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="19" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>318</v>
+        <v>204</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>184</v>
@@ -14540,10 +15804,10 @@
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="19" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>79</v>
@@ -14560,10 +15824,10 @@
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>185</v>
@@ -14580,10 +15844,10 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="19" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>156</v>
@@ -14600,10 +15864,10 @@
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="19" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>121</v>
@@ -14620,10 +15884,10 @@
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="19" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>186</v>
@@ -14640,10 +15904,10 @@
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="19" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>80</v>
@@ -14660,10 +15924,10 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="19" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>187</v>
@@ -14680,10 +15944,10 @@
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="19" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>319</v>
+        <v>165</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>188</v>
@@ -14700,10 +15964,10 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="19" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>189</v>
@@ -14720,10 +15984,10 @@
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="19" t="s">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>320</v>
+        <v>99</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>241</v>
@@ -14740,10 +16004,10 @@
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="19" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>157</v>
@@ -14760,10 +16024,10 @@
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="19" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>122</v>
@@ -14780,10 +16044,10 @@
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="19" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>110</v>
@@ -14800,10 +16064,10 @@
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="19" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>190</v>
@@ -14820,10 +16084,10 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="19" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>123</v>
@@ -14840,10 +16104,10 @@
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="19" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>243</v>
+        <v>106</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>124</v>
@@ -14860,10 +16124,10 @@
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="19" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>81</v>
@@ -14880,10 +16144,10 @@
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="19" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>242</v>
@@ -14900,10 +16164,10 @@
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="19" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>243</v>
@@ -14920,11 +16184,9 @@
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>125</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C82" s="1"/>
       <c r="E82" s="19" t="s">
         <v>82</v>
       </c>
@@ -14940,11 +16202,9 @@
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>126</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C83" s="1"/>
       <c r="E83" s="19" t="s">
         <v>111</v>
       </c>
@@ -14960,10 +16220,10 @@
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="19" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>245</v>
+        <v>56</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>244</v>
@@ -14980,10 +16240,10 @@
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="19" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>125</v>
@@ -15000,10 +16260,10 @@
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="19" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>126</v>
@@ -15020,10 +16280,10 @@
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="19" t="s">
-        <v>245</v>
+        <v>61</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>322</v>
+        <v>171</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>245</v>
@@ -15040,10 +16300,10 @@
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="19" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>127</v>
@@ -15060,10 +16320,10 @@
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="19" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>128</v>
@@ -15080,10 +16340,10 @@
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="19" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>129</v>
@@ -15100,10 +16360,10 @@
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="19" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>83</v>
@@ -15120,10 +16380,10 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="19" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>84</v>
@@ -15140,10 +16400,10 @@
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="19" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>130</v>
@@ -15160,10 +16420,10 @@
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="19" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>246</v>
+        <v>65</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>131</v>
@@ -15180,10 +16440,10 @@
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="19" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>85</v>
@@ -15200,10 +16460,10 @@
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="19" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>191</v>
@@ -15220,10 +16480,10 @@
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="19" t="s">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>246</v>
@@ -15240,10 +16500,10 @@
     </row>
     <row r="98" spans="2:9">
       <c r="B98" s="19" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>86</v>
@@ -15260,10 +16520,10 @@
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="19" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>158</v>
@@ -15280,10 +16540,10 @@
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="19" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>247</v>
+        <v>68</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>132</v>
@@ -15300,10 +16560,10 @@
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="19" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>192</v>
@@ -15320,10 +16580,10 @@
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="19" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>323</v>
+        <v>70</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>133</v>
@@ -15340,10 +16600,10 @@
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="19" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>87</v>
@@ -15360,10 +16620,10 @@
     </row>
     <row r="104" spans="2:9">
       <c r="B104" s="19" t="s">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>247</v>
@@ -15380,10 +16640,10 @@
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="19" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>193</v>
@@ -15400,10 +16660,10 @@
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="19" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>134</v>
@@ -15420,10 +16680,10 @@
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="19" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>194</v>
@@ -15440,10 +16700,10 @@
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="19" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>195</v>
@@ -15460,10 +16720,10 @@
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="19" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>324</v>
+        <v>118</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>196</v>
@@ -15480,10 +16740,10 @@
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="19" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>325</v>
+        <v>174</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>197</v>
@@ -15500,10 +16760,10 @@
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="19" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>88</v>
@@ -15520,10 +16780,10 @@
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="19" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>198</v>
@@ -15540,10 +16800,10 @@
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="19" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>199</v>
@@ -15560,10 +16820,10 @@
     </row>
     <row r="114" spans="2:9">
       <c r="B114" s="19" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>200</v>
@@ -15580,10 +16840,10 @@
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="19" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>201</v>
@@ -15600,10 +16860,10 @@
     </row>
     <row r="116" spans="2:9">
       <c r="B116" s="19" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>202</v>
@@ -15620,10 +16880,10 @@
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="19" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>135</v>
@@ -15640,10 +16900,10 @@
     </row>
     <row r="118" spans="2:9">
       <c r="B118" s="19" t="s">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>248</v>
@@ -15660,10 +16920,10 @@
     </row>
     <row r="119" spans="2:9">
       <c r="B119" s="19" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>249</v>
@@ -15680,10 +16940,10 @@
     </row>
     <row r="120" spans="2:9">
       <c r="B120" s="19" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>48</v>
@@ -15700,10 +16960,10 @@
     </row>
     <row r="121" spans="2:9">
       <c r="B121" s="19" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>89</v>
@@ -15720,10 +16980,10 @@
     </row>
     <row r="122" spans="2:9">
       <c r="B122" s="19" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>203</v>
@@ -15740,10 +17000,10 @@
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="19" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>250</v>
@@ -15760,10 +17020,10 @@
     </row>
     <row r="124" spans="2:9">
       <c r="B124" s="19" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>204</v>
@@ -15780,10 +17040,10 @@
     </row>
     <row r="125" spans="2:9">
       <c r="B125" s="19" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="E125" s="19" t="s">
         <v>205</v>
@@ -15800,10 +17060,10 @@
     </row>
     <row r="126" spans="2:9">
       <c r="B126" s="19" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="E126" s="19" t="s">
         <v>251</v>
@@ -15820,10 +17080,10 @@
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="19" t="s">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="E127" s="19" t="s">
         <v>252</v>
@@ -15840,10 +17100,10 @@
     </row>
     <row r="128" spans="2:9">
       <c r="B128" s="19" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="E128" s="19" t="s">
         <v>206</v>
@@ -15860,10 +17120,10 @@
     </row>
     <row r="129" spans="2:9">
       <c r="B129" s="19" t="s">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="E129" s="19" t="s">
         <v>253</v>
@@ -15880,10 +17140,10 @@
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="19" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="E130" s="19" t="s">
         <v>254</v>
@@ -15900,10 +17160,10 @@
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="19" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="E131" s="19" t="s">
         <v>255</v>
@@ -15920,10 +17180,10 @@
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="19" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="E132" s="19" t="s">
         <v>256</v>
@@ -15940,10 +17200,10 @@
     </row>
     <row r="133" spans="2:9">
       <c r="B133" s="19" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="E133" s="19" t="s">
         <v>159</v>
@@ -15960,10 +17220,10 @@
     </row>
     <row r="134" spans="2:9">
       <c r="B134" s="19" t="s">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="E134" s="19" t="s">
         <v>49</v>
@@ -15980,10 +17240,10 @@
     </row>
     <row r="135" spans="2:9">
       <c r="B135" s="19" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E135" s="19" t="s">
         <v>50</v>
@@ -16000,10 +17260,10 @@
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="19" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E136" s="19" t="s">
         <v>51</v>
@@ -16020,10 +17280,10 @@
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="19" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="E137" s="19" t="s">
         <v>257</v>
@@ -16040,10 +17300,10 @@
     </row>
     <row r="138" spans="2:9">
       <c r="B138" s="19" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="E138" s="19" t="s">
         <v>160</v>
@@ -16060,10 +17320,10 @@
     </row>
     <row r="139" spans="2:9">
       <c r="B139" s="19" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E139" s="19" t="s">
         <v>207</v>
@@ -16074,10 +17334,10 @@
     </row>
     <row r="140" spans="2:9">
       <c r="B140" s="19" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E140" s="19" t="s">
         <v>161</v>
@@ -16088,10 +17348,10 @@
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="19" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E141" s="19" t="s">
         <v>162</v>
@@ -16102,10 +17362,10 @@
     </row>
     <row r="142" spans="2:9">
       <c r="B142" s="19" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>307</v>
+        <v>158</v>
       </c>
       <c r="E142" s="19" t="s">
         <v>208</v>
@@ -16116,10 +17376,10 @@
     </row>
     <row r="143" spans="2:9">
       <c r="B143" s="19" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="E143" s="19" t="s">
         <v>109</v>
@@ -16130,10 +17390,10 @@
     </row>
     <row r="144" spans="2:9">
       <c r="B144" s="19" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="E144" s="19" t="s">
         <v>52</v>
@@ -16144,10 +17404,10 @@
     </row>
     <row r="145" spans="2:8">
       <c r="B145" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E145" s="19" t="s">
         <v>90</v>
@@ -16158,10 +17418,10 @@
     </row>
     <row r="146" spans="2:8">
       <c r="B146" s="19" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E146" s="19" t="s">
         <v>209</v>
@@ -16172,10 +17432,10 @@
     </row>
     <row r="147" spans="2:8">
       <c r="B147" s="19" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E147" s="19" t="s">
         <v>210</v>
@@ -16186,10 +17446,10 @@
     </row>
     <row r="148" spans="2:8">
       <c r="B148" s="19" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="E148" s="19" t="s">
         <v>211</v>
@@ -16200,10 +17460,10 @@
     </row>
     <row r="149" spans="2:8">
       <c r="B149" s="19" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="E149" s="19" t="s">
         <v>91</v>
@@ -16214,10 +17474,10 @@
     </row>
     <row r="150" spans="2:8">
       <c r="B150" s="19" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="E150" s="19" t="s">
         <v>212</v>
@@ -16228,10 +17488,10 @@
     </row>
     <row r="151" spans="2:8">
       <c r="B151" s="19" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="E151" s="19" t="s">
         <v>213</v>
@@ -16242,10 +17502,10 @@
     </row>
     <row r="152" spans="2:8">
       <c r="B152" s="19" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E152" s="19" t="s">
         <v>214</v>
@@ -16256,10 +17516,10 @@
     </row>
     <row r="153" spans="2:8">
       <c r="B153" s="19" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E153" s="19" t="s">
         <v>215</v>
@@ -16270,10 +17530,10 @@
     </row>
     <row r="154" spans="2:8">
       <c r="B154" s="19" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E154" s="19" t="s">
         <v>216</v>
@@ -16284,10 +17544,10 @@
     </row>
     <row r="155" spans="2:8">
       <c r="B155" s="19" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="E155" s="19" t="s">
         <v>53</v>
@@ -16298,10 +17558,10 @@
     </row>
     <row r="156" spans="2:8">
       <c r="B156" s="19" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="E156" s="19" t="s">
         <v>163</v>
@@ -16312,10 +17572,10 @@
     </row>
     <row r="157" spans="2:8">
       <c r="B157" s="19" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="E157" s="19" t="s">
         <v>54</v>
@@ -16326,10 +17586,10 @@
     </row>
     <row r="158" spans="2:8">
       <c r="B158" s="19" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="E158" s="19" t="s">
         <v>92</v>
@@ -16340,10 +17600,10 @@
     </row>
     <row r="159" spans="2:8">
       <c r="B159" s="19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="E159" s="19" t="s">
         <v>258</v>
@@ -16354,10 +17614,10 @@
     </row>
     <row r="160" spans="2:8">
       <c r="B160" s="19" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="E160" s="19" t="s">
         <v>259</v>
@@ -16368,10 +17628,10 @@
     </row>
     <row r="161" spans="2:8">
       <c r="B161" s="19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>328</v>
+        <v>161</v>
       </c>
       <c r="E161" s="19" t="s">
         <v>260</v>
@@ -16382,10 +17642,10 @@
     </row>
     <row r="162" spans="2:8">
       <c r="B162" s="19" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="E162" s="19" t="s">
         <v>261</v>
@@ -16396,10 +17656,10 @@
     </row>
     <row r="163" spans="2:8">
       <c r="B163" s="19" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="E163" s="19" t="s">
         <v>217</v>
@@ -16410,10 +17670,10 @@
     </row>
     <row r="164" spans="2:8">
       <c r="B164" s="19" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="E164" s="19" t="s">
         <v>218</v>
@@ -16424,10 +17684,10 @@
     </row>
     <row r="165" spans="2:8">
       <c r="B165" s="19" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="E165" s="19" t="s">
         <v>93</v>
@@ -16438,10 +17698,10 @@
     </row>
     <row r="166" spans="2:8">
       <c r="B166" s="19" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="E166" s="19" t="s">
         <v>136</v>
@@ -16452,10 +17712,10 @@
     </row>
     <row r="167" spans="2:8">
       <c r="B167" s="19" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E167" s="19" t="s">
         <v>94</v>
@@ -16466,10 +17726,10 @@
     </row>
     <row r="168" spans="2:8">
       <c r="B168" s="19" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E168" s="19" t="s">
         <v>95</v>
@@ -16480,10 +17740,10 @@
     </row>
     <row r="169" spans="2:8">
       <c r="B169" s="19" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="E169" s="19" t="s">
         <v>96</v>
@@ -16494,10 +17754,10 @@
     </row>
     <row r="170" spans="2:8">
       <c r="B170" s="19" t="s">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
       <c r="E170" s="19" t="s">
         <v>262</v>
@@ -16508,10 +17768,10 @@
     </row>
     <row r="171" spans="2:8">
       <c r="B171" s="19" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E171" s="19" t="s">
         <v>263</v>
@@ -16522,10 +17782,10 @@
     </row>
     <row r="172" spans="2:8">
       <c r="B172" s="19" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="E172" s="19" t="s">
         <v>219</v>
@@ -16536,10 +17796,10 @@
     </row>
     <row r="173" spans="2:8">
       <c r="B173" s="19" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>265</v>
+        <v>54</v>
       </c>
       <c r="E173" s="19" t="s">
         <v>164</v>
@@ -16550,10 +17810,10 @@
     </row>
     <row r="174" spans="2:8">
       <c r="B174" s="19" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>266</v>
+        <v>92</v>
       </c>
       <c r="E174" s="19" t="s">
         <v>165</v>
@@ -16564,10 +17824,10 @@
     </row>
     <row r="175" spans="2:8">
       <c r="B175" s="19" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="E175" s="19" t="s">
         <v>137</v>
@@ -16578,10 +17838,10 @@
     </row>
     <row r="176" spans="2:8">
       <c r="B176" s="19" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="E176" s="19" t="s">
         <v>138</v>
@@ -16592,10 +17852,10 @@
     </row>
     <row r="177" spans="2:8">
       <c r="B177" s="19" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="E177" s="19" t="s">
         <v>97</v>
@@ -16606,10 +17866,10 @@
     </row>
     <row r="178" spans="2:8">
       <c r="B178" s="19" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E178" s="19" t="s">
         <v>220</v>
@@ -16620,10 +17880,10 @@
     </row>
     <row r="179" spans="2:8">
       <c r="B179" s="19" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>309</v>
+        <v>136</v>
       </c>
       <c r="E179" s="19" t="s">
         <v>98</v>
@@ -16634,10 +17894,10 @@
     </row>
     <row r="180" spans="2:8">
       <c r="B180" s="19" t="s">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>267</v>
+        <v>94</v>
       </c>
       <c r="E180" s="19" t="s">
         <v>264</v>
@@ -16648,10 +17908,10 @@
     </row>
     <row r="181" spans="2:8">
       <c r="B181" s="19" t="s">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>331</v>
+        <v>262</v>
       </c>
       <c r="E181" s="19" t="s">
         <v>99</v>
@@ -16662,10 +17922,10 @@
     </row>
     <row r="182" spans="2:8">
       <c r="B182" s="19" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="E182" s="19" t="s">
         <v>221</v>
@@ -16676,10 +17936,10 @@
     </row>
     <row r="183" spans="2:8">
       <c r="B183" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E183" s="19" t="s">
         <v>265</v>
@@ -16690,10 +17950,10 @@
     </row>
     <row r="184" spans="2:8">
       <c r="B184" s="19" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>332</v>
+        <v>137</v>
       </c>
       <c r="E184" s="19" t="s">
         <v>266</v>
@@ -16704,10 +17964,10 @@
     </row>
     <row r="185" spans="2:8">
       <c r="B185" s="19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E185" s="19" t="s">
         <v>100</v>
@@ -16718,10 +17978,10 @@
     </row>
     <row r="186" spans="2:8">
       <c r="B186" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="E186" s="19" t="s">
         <v>139</v>
@@ -16732,10 +17992,10 @@
     </row>
     <row r="187" spans="2:8">
       <c r="B187" s="19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="E187" s="19" t="s">
         <v>101</v>
@@ -16746,10 +18006,10 @@
     </row>
     <row r="188" spans="2:8">
       <c r="B188" s="19" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="E188" s="19" t="s">
         <v>222</v>
@@ -16760,10 +18020,10 @@
     </row>
     <row r="189" spans="2:8">
       <c r="B189" s="19" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="E189" s="19" t="s">
         <v>102</v>
@@ -16774,10 +18034,10 @@
     </row>
     <row r="190" spans="2:8">
       <c r="B190" s="19" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="E190" s="19" t="s">
         <v>223</v>
@@ -16788,10 +18048,10 @@
     </row>
     <row r="191" spans="2:8">
       <c r="B191" s="19" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E191" s="19" t="s">
         <v>267</v>
@@ -16802,10 +18062,10 @@
     </row>
     <row r="192" spans="2:8">
       <c r="B192" s="19" t="s">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="E192" s="19" t="s">
         <v>224</v>
@@ -16816,10 +18076,10 @@
     </row>
     <row r="193" spans="2:8">
       <c r="B193" s="19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E193" s="19" t="s">
         <v>103</v>
@@ -16830,10 +18090,10 @@
     </row>
     <row r="194" spans="2:8">
       <c r="B194" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="E194" s="19" t="s">
         <v>225</v>
@@ -16844,10 +18104,10 @@
     </row>
     <row r="195" spans="2:8">
       <c r="B195" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E195" s="19" t="s">
         <v>226</v>
@@ -16858,10 +18118,10 @@
     </row>
     <row r="196" spans="2:8">
       <c r="B196" s="19" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E196" s="19" t="s">
         <v>227</v>
@@ -16872,10 +18132,10 @@
     </row>
     <row r="197" spans="2:8">
       <c r="B197" s="19" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="E197" s="19" t="s">
         <v>140</v>
@@ -16886,10 +18146,10 @@
     </row>
     <row r="198" spans="2:8">
       <c r="B198" s="19" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="E198" s="19" t="s">
         <v>228</v>
@@ -16900,10 +18160,10 @@
     </row>
     <row r="199" spans="2:8">
       <c r="B199" s="19" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="E199" s="19" t="s">
         <v>141</v>
@@ -16914,10 +18174,10 @@
     </row>
     <row r="200" spans="2:8">
       <c r="B200" s="19" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E200" s="19" t="s">
         <v>229</v>
@@ -16928,10 +18188,10 @@
     </row>
     <row r="201" spans="2:8">
       <c r="B201" s="19" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="E201" s="19" t="s">
         <v>142</v>
@@ -16942,10 +18202,10 @@
     </row>
     <row r="202" spans="2:8">
       <c r="B202" s="19" t="s">
-        <v>268</v>
+        <v>140</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="E202" s="19" t="s">
         <v>268</v>
@@ -16956,10 +18216,10 @@
     </row>
     <row r="203" spans="2:8">
       <c r="B203" s="19" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>298</v>
+        <v>168</v>
       </c>
       <c r="E203" s="19" t="s">
         <v>55</v>
@@ -16970,10 +18230,10 @@
     </row>
     <row r="204" spans="2:8">
       <c r="B204" s="19" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E204" s="19" t="s">
         <v>104</v>
@@ -16984,10 +18244,10 @@
     </row>
     <row r="205" spans="2:8">
       <c r="B205" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="E205" s="19" t="s">
         <v>143</v>
@@ -16998,10 +18258,10 @@
     </row>
     <row r="206" spans="2:8">
       <c r="B206" s="19" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="E206" s="19" t="s">
         <v>105</v>
@@ -17012,10 +18272,10 @@
     </row>
     <row r="207" spans="2:8">
       <c r="B207" s="19" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E207" s="19" t="s">
         <v>144</v>
@@ -17026,10 +18286,10 @@
     </row>
     <row r="208" spans="2:8">
       <c r="B208" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="E208" s="19" t="s">
         <v>145</v>
@@ -17040,10 +18300,10 @@
     </row>
     <row r="209" spans="2:8">
       <c r="B209" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="E209" s="19" t="s">
         <v>106</v>
@@ -17054,10 +18314,10 @@
     </row>
     <row r="210" spans="2:8">
       <c r="B210" s="19" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E210" s="19" t="s">
         <v>107</v>
@@ -17068,7 +18328,10 @@
     </row>
     <row r="211" spans="2:8">
       <c r="B211" s="19" t="s">
-        <v>230</v>
+        <v>106</v>
+      </c>
+      <c r="C211" s="243" t="s">
+        <v>150</v>
       </c>
       <c r="E211" s="19" t="s">
         <v>230</v>
@@ -17076,7 +18339,10 @@
     </row>
     <row r="212" spans="2:8">
       <c r="B212" s="19" t="s">
-        <v>166</v>
+        <v>107</v>
+      </c>
+      <c r="C212" s="243" t="s">
+        <v>113</v>
       </c>
       <c r="E212" s="19" t="s">
         <v>166</v>
@@ -17084,16 +18350,18 @@
     </row>
     <row r="213" spans="2:8">
       <c r="B213" s="19" t="s">
-        <v>167</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C213" s="153"/>
       <c r="E213" s="19" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="214" spans="2:8">
       <c r="B214" s="19" t="s">
-        <v>231</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C214" s="153"/>
       <c r="E214" s="19" t="s">
         <v>231</v>
       </c>
@@ -17231,38 +18499,38 @@
       <c r="Y2" s="41"/>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="275" t="s">
+      <c r="B3" s="280" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="E3" s="275" t="s">
+      <c r="C3" s="280"/>
+      <c r="E3" s="280" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="275"/>
-      <c r="H3" s="275" t="s">
+      <c r="F3" s="280"/>
+      <c r="H3" s="280" t="s">
         <v>272</v>
       </c>
-      <c r="I3" s="275"/>
-      <c r="K3" s="275" t="s">
+      <c r="I3" s="280"/>
+      <c r="K3" s="280" t="s">
         <v>273</v>
       </c>
-      <c r="L3" s="275"/>
-      <c r="N3" s="275" t="s">
+      <c r="L3" s="280"/>
+      <c r="N3" s="280" t="s">
         <v>274</v>
       </c>
-      <c r="O3" s="275"/>
-      <c r="Q3" s="275" t="s">
+      <c r="O3" s="280"/>
+      <c r="Q3" s="280" t="s">
         <v>275</v>
       </c>
-      <c r="R3" s="275"/>
-      <c r="T3" s="275" t="s">
+      <c r="R3" s="280"/>
+      <c r="T3" s="280" t="s">
         <v>276</v>
       </c>
-      <c r="U3" s="275"/>
-      <c r="W3" s="275" t="s">
+      <c r="U3" s="280"/>
+      <c r="W3" s="280" t="s">
         <v>277</v>
       </c>
-      <c r="X3" s="275"/>
+      <c r="X3" s="280"/>
       <c r="Y3" s="41"/>
     </row>
     <row r="4" spans="2:25">
@@ -18910,38 +20178,38 @@
       <c r="Y73" s="41"/>
     </row>
     <row r="74" spans="1:25">
-      <c r="B74" s="275" t="s">
+      <c r="B74" s="280" t="s">
         <v>278</v>
       </c>
-      <c r="C74" s="275"/>
-      <c r="E74" s="275" t="s">
+      <c r="C74" s="280"/>
+      <c r="E74" s="280" t="s">
         <v>279</v>
       </c>
-      <c r="F74" s="275"/>
-      <c r="H74" s="275" t="s">
+      <c r="F74" s="280"/>
+      <c r="H74" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="I74" s="275"/>
-      <c r="K74" s="275" t="s">
+      <c r="I74" s="280"/>
+      <c r="K74" s="280" t="s">
         <v>281</v>
       </c>
-      <c r="L74" s="275"/>
-      <c r="N74" s="275" t="s">
+      <c r="L74" s="280"/>
+      <c r="N74" s="280" t="s">
         <v>282</v>
       </c>
-      <c r="O74" s="275"/>
-      <c r="Q74" s="275" t="s">
+      <c r="O74" s="280"/>
+      <c r="Q74" s="280" t="s">
         <v>283</v>
       </c>
-      <c r="R74" s="275"/>
-      <c r="T74" s="275" t="s">
+      <c r="R74" s="280"/>
+      <c r="T74" s="280" t="s">
         <v>284</v>
       </c>
-      <c r="U74" s="275"/>
-      <c r="W74" s="275" t="s">
+      <c r="U74" s="280"/>
+      <c r="W74" s="280" t="s">
         <v>285</v>
       </c>
-      <c r="X74" s="275"/>
+      <c r="X74" s="280"/>
       <c r="Y74" s="41"/>
     </row>
     <row r="75" spans="1:25">
@@ -20616,30 +21884,30 @@
       <c r="Y147" s="41"/>
     </row>
     <row r="148" spans="1:25">
-      <c r="B148" s="275" t="s">
+      <c r="B148" s="280" t="s">
         <v>269</v>
       </c>
-      <c r="C148" s="275"/>
-      <c r="E148" s="275" t="s">
+      <c r="C148" s="280"/>
+      <c r="E148" s="280" t="s">
         <v>286</v>
       </c>
-      <c r="F148" s="275"/>
-      <c r="H148" s="275" t="s">
+      <c r="F148" s="280"/>
+      <c r="H148" s="280" t="s">
         <v>287</v>
       </c>
-      <c r="I148" s="275"/>
-      <c r="K148" s="275" t="s">
+      <c r="I148" s="280"/>
+      <c r="K148" s="280" t="s">
         <v>288</v>
       </c>
-      <c r="L148" s="275"/>
-      <c r="N148" s="275" t="s">
+      <c r="L148" s="280"/>
+      <c r="N148" s="280" t="s">
         <v>289</v>
       </c>
-      <c r="O148" s="275"/>
-      <c r="Q148" s="275" t="s">
+      <c r="O148" s="280"/>
+      <c r="Q148" s="280" t="s">
         <v>290</v>
       </c>
-      <c r="R148" s="275"/>
+      <c r="R148" s="280"/>
       <c r="Y148" s="41"/>
     </row>
     <row r="149" spans="1:25">
@@ -22282,30 +23550,30 @@
       <c r="Y216" s="41"/>
     </row>
     <row r="217" spans="1:25">
-      <c r="B217" s="275" t="s">
+      <c r="B217" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="C217" s="275"/>
-      <c r="E217" s="275" t="s">
+      <c r="C217" s="280"/>
+      <c r="E217" s="280" t="s">
         <v>292</v>
       </c>
-      <c r="F217" s="275"/>
-      <c r="H217" s="275" t="s">
+      <c r="F217" s="280"/>
+      <c r="H217" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="I217" s="275"/>
-      <c r="K217" s="275" t="s">
+      <c r="I217" s="280"/>
+      <c r="K217" s="280" t="s">
         <v>295</v>
       </c>
-      <c r="L217" s="275"/>
-      <c r="N217" s="275" t="s">
+      <c r="L217" s="280"/>
+      <c r="N217" s="280" t="s">
         <v>294</v>
       </c>
-      <c r="O217" s="275"/>
-      <c r="Q217" s="275" t="s">
+      <c r="O217" s="280"/>
+      <c r="Q217" s="280" t="s">
         <v>291</v>
       </c>
-      <c r="R217" s="275"/>
+      <c r="R217" s="280"/>
       <c r="Y217" s="41"/>
     </row>
     <row r="218" spans="1:25">
@@ -24044,7 +25312,7 @@
   <dimension ref="A1:V342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24067,34 +25335,34 @@
       <c r="V2" s="41"/>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="275" t="s">
+      <c r="B3" s="280" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="E3" s="275" t="s">
+      <c r="C3" s="280"/>
+      <c r="E3" s="280" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="275"/>
-      <c r="H3" s="275" t="s">
+      <c r="F3" s="280"/>
+      <c r="H3" s="280" t="s">
         <v>272</v>
       </c>
-      <c r="I3" s="275"/>
-      <c r="K3" s="275" t="s">
+      <c r="I3" s="280"/>
+      <c r="K3" s="280" t="s">
         <v>273</v>
       </c>
-      <c r="L3" s="275"/>
-      <c r="N3" s="275" t="s">
+      <c r="L3" s="280"/>
+      <c r="N3" s="280" t="s">
         <v>274</v>
       </c>
-      <c r="O3" s="275"/>
-      <c r="Q3" s="275" t="s">
+      <c r="O3" s="280"/>
+      <c r="Q3" s="280" t="s">
         <v>275</v>
       </c>
-      <c r="R3" s="275"/>
-      <c r="T3" s="275" t="s">
+      <c r="R3" s="280"/>
+      <c r="T3" s="280" t="s">
         <v>276</v>
       </c>
-      <c r="U3" s="275"/>
+      <c r="U3" s="280"/>
       <c r="V3" s="41"/>
     </row>
     <row r="4" spans="2:22">
@@ -25701,34 +26969,34 @@
       <c r="V95" s="41"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="B96" s="275" t="s">
+      <c r="B96" s="280" t="s">
         <v>278</v>
       </c>
-      <c r="C96" s="275"/>
-      <c r="E96" s="275" t="s">
+      <c r="C96" s="280"/>
+      <c r="E96" s="280" t="s">
         <v>279</v>
       </c>
-      <c r="F96" s="275"/>
-      <c r="H96" s="275" t="s">
+      <c r="F96" s="280"/>
+      <c r="H96" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="I96" s="275"/>
-      <c r="K96" s="275" t="s">
+      <c r="I96" s="280"/>
+      <c r="K96" s="280" t="s">
         <v>281</v>
       </c>
-      <c r="L96" s="275"/>
-      <c r="N96" s="275" t="s">
+      <c r="L96" s="280"/>
+      <c r="N96" s="280" t="s">
         <v>282</v>
       </c>
-      <c r="O96" s="275"/>
-      <c r="Q96" s="275" t="s">
+      <c r="O96" s="280"/>
+      <c r="Q96" s="280" t="s">
         <v>283</v>
       </c>
-      <c r="R96" s="275"/>
-      <c r="T96" s="275" t="s">
+      <c r="R96" s="280"/>
+      <c r="T96" s="280" t="s">
         <v>284</v>
       </c>
-      <c r="U96" s="275"/>
+      <c r="U96" s="280"/>
       <c r="V96" s="41"/>
     </row>
     <row r="97" spans="2:22">
@@ -27294,26 +28562,26 @@
       <c r="V168" s="41"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="B169" s="275" t="s">
+      <c r="B169" s="280" t="s">
         <v>269</v>
       </c>
-      <c r="C169" s="275"/>
-      <c r="E169" s="275" t="s">
+      <c r="C169" s="280"/>
+      <c r="E169" s="280" t="s">
         <v>286</v>
       </c>
-      <c r="F169" s="275"/>
-      <c r="H169" s="275" t="s">
+      <c r="F169" s="280"/>
+      <c r="H169" s="280" t="s">
         <v>287</v>
       </c>
-      <c r="I169" s="275"/>
-      <c r="K169" s="275" t="s">
+      <c r="I169" s="280"/>
+      <c r="K169" s="280" t="s">
         <v>288</v>
       </c>
-      <c r="L169" s="275"/>
-      <c r="N169" s="275" t="s">
+      <c r="L169" s="280"/>
+      <c r="N169" s="280" t="s">
         <v>289</v>
       </c>
-      <c r="O169" s="275"/>
+      <c r="O169" s="280"/>
       <c r="V169" s="41"/>
     </row>
     <row r="170" spans="1:22">
@@ -28929,26 +30197,26 @@
       <c r="V263" s="41"/>
     </row>
     <row r="264" spans="1:22">
-      <c r="B264" s="275" t="s">
+      <c r="B264" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="C264" s="275"/>
-      <c r="E264" s="275" t="s">
+      <c r="C264" s="280"/>
+      <c r="E264" s="280" t="s">
         <v>292</v>
       </c>
-      <c r="F264" s="275"/>
-      <c r="H264" s="275" t="s">
+      <c r="F264" s="280"/>
+      <c r="H264" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="I264" s="275"/>
-      <c r="K264" s="275" t="s">
+      <c r="I264" s="280"/>
+      <c r="K264" s="280" t="s">
         <v>295</v>
       </c>
-      <c r="L264" s="275"/>
-      <c r="N264" s="275" t="s">
+      <c r="L264" s="280"/>
+      <c r="N264" s="280" t="s">
         <v>294</v>
       </c>
-      <c r="O264" s="275"/>
+      <c r="O264" s="280"/>
       <c r="V264" s="41"/>
     </row>
     <row r="265" spans="1:22">
@@ -30601,7 +31869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -30628,30 +31896,30 @@
       <c r="Y2" s="41"/>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="275" t="s">
+      <c r="B3" s="280" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="E3" s="275" t="s">
+      <c r="C3" s="280"/>
+      <c r="E3" s="280" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="275"/>
-      <c r="H3" s="275" t="s">
+      <c r="F3" s="280"/>
+      <c r="H3" s="280" t="s">
         <v>272</v>
       </c>
-      <c r="I3" s="275"/>
-      <c r="K3" s="275" t="s">
+      <c r="I3" s="280"/>
+      <c r="K3" s="280" t="s">
         <v>273</v>
       </c>
-      <c r="L3" s="275"/>
-      <c r="N3" s="275" t="s">
+      <c r="L3" s="280"/>
+      <c r="N3" s="280" t="s">
         <v>274</v>
       </c>
-      <c r="O3" s="275"/>
-      <c r="Q3" s="275" t="s">
+      <c r="O3" s="280"/>
+      <c r="Q3" s="280" t="s">
         <v>275</v>
       </c>
-      <c r="R3" s="275"/>
+      <c r="R3" s="280"/>
       <c r="S3" s="100"/>
       <c r="Y3" s="41"/>
     </row>
@@ -31733,38 +33001,38 @@
       <c r="Y45" s="41"/>
     </row>
     <row r="46" spans="1:25">
-      <c r="B46" s="275" t="s">
+      <c r="B46" s="280" t="s">
         <v>278</v>
       </c>
-      <c r="C46" s="275"/>
-      <c r="E46" s="275" t="s">
+      <c r="C46" s="280"/>
+      <c r="E46" s="280" t="s">
         <v>279</v>
       </c>
-      <c r="F46" s="275"/>
-      <c r="H46" s="275" t="s">
+      <c r="F46" s="280"/>
+      <c r="H46" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="I46" s="275"/>
-      <c r="K46" s="275" t="s">
+      <c r="I46" s="280"/>
+      <c r="K46" s="280" t="s">
         <v>281</v>
       </c>
-      <c r="L46" s="275"/>
-      <c r="N46" s="275" t="s">
+      <c r="L46" s="280"/>
+      <c r="N46" s="280" t="s">
         <v>282</v>
       </c>
-      <c r="O46" s="275"/>
-      <c r="Q46" s="275" t="s">
+      <c r="O46" s="280"/>
+      <c r="Q46" s="280" t="s">
         <v>283</v>
       </c>
-      <c r="R46" s="275"/>
-      <c r="T46" s="275" t="s">
+      <c r="R46" s="280"/>
+      <c r="T46" s="280" t="s">
         <v>284</v>
       </c>
-      <c r="U46" s="275"/>
-      <c r="W46" s="275" t="s">
+      <c r="U46" s="280"/>
+      <c r="W46" s="280" t="s">
         <v>285</v>
       </c>
-      <c r="X46" s="275"/>
+      <c r="X46" s="280"/>
       <c r="Y46" s="41"/>
     </row>
     <row r="47" spans="1:25">
@@ -32805,30 +34073,30 @@
       <c r="Y90" s="41"/>
     </row>
     <row r="91" spans="1:25">
-      <c r="B91" s="275" t="s">
+      <c r="B91" s="280" t="s">
         <v>269</v>
       </c>
-      <c r="C91" s="275"/>
-      <c r="E91" s="275" t="s">
+      <c r="C91" s="280"/>
+      <c r="E91" s="280" t="s">
         <v>286</v>
       </c>
-      <c r="F91" s="275"/>
-      <c r="H91" s="275" t="s">
+      <c r="F91" s="280"/>
+      <c r="H91" s="280" t="s">
         <v>287</v>
       </c>
-      <c r="I91" s="275"/>
-      <c r="K91" s="275" t="s">
+      <c r="I91" s="280"/>
+      <c r="K91" s="280" t="s">
         <v>288</v>
       </c>
-      <c r="L91" s="275"/>
-      <c r="N91" s="275" t="s">
+      <c r="L91" s="280"/>
+      <c r="N91" s="280" t="s">
         <v>289</v>
       </c>
-      <c r="O91" s="275"/>
-      <c r="Q91" s="275" t="s">
+      <c r="O91" s="280"/>
+      <c r="Q91" s="280" t="s">
         <v>290</v>
       </c>
-      <c r="R91" s="275"/>
+      <c r="R91" s="280"/>
       <c r="Y91" s="41"/>
     </row>
     <row r="92" spans="1:25">
@@ -33858,34 +35126,34 @@
       <c r="Y137" s="41"/>
     </row>
     <row r="138" spans="1:25">
-      <c r="B138" s="275" t="s">
+      <c r="B138" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="C138" s="275"/>
-      <c r="E138" s="275" t="s">
+      <c r="C138" s="280"/>
+      <c r="E138" s="280" t="s">
         <v>292</v>
       </c>
-      <c r="F138" s="275"/>
-      <c r="H138" s="275" t="s">
+      <c r="F138" s="280"/>
+      <c r="H138" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="I138" s="275"/>
-      <c r="K138" s="275" t="s">
+      <c r="I138" s="280"/>
+      <c r="K138" s="280" t="s">
         <v>295</v>
       </c>
-      <c r="L138" s="275"/>
-      <c r="N138" s="275" t="s">
+      <c r="L138" s="280"/>
+      <c r="N138" s="280" t="s">
         <v>294</v>
       </c>
-      <c r="O138" s="275"/>
-      <c r="Q138" s="275" t="s">
+      <c r="O138" s="280"/>
+      <c r="Q138" s="280" t="s">
         <v>291</v>
       </c>
-      <c r="R138" s="275"/>
-      <c r="T138" s="275" t="s">
+      <c r="R138" s="280"/>
+      <c r="T138" s="280" t="s">
         <v>335</v>
       </c>
-      <c r="U138" s="275"/>
+      <c r="U138" s="280"/>
       <c r="Y138" s="41"/>
     </row>
     <row r="139" spans="1:25">
